--- a/notebooks/UUTs.xlsx
+++ b/notebooks/UUTs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Timestamp</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>62309060475</t>
+  </si>
+  <si>
+    <t>Time (Hrs.)</t>
   </si>
 </sst>
 </file>
@@ -392,13 +395,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G688"/>
+  <dimension ref="A1:H688"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -420,8 +423,11 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1699637326.621712</v>
       </c>
@@ -443,8 +449,11 @@
       <c r="G2">
         <v>172.274</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>1699641168.783587</v>
       </c>
@@ -466,8 +475,11 @@
       <c r="G3">
         <v>159.188</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>1.067267187568876</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>1699645010.924198</v>
       </c>
@@ -489,8 +501,11 @@
       <c r="G4">
         <v>160.544</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4">
+        <v>2.134528468317456</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>1699648853.070498</v>
       </c>
@@ -512,8 +527,11 @@
       <c r="G5">
         <v>173.152</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>3.201791329450077</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>1699652695.235619</v>
       </c>
@@ -535,8 +553,11 @@
       <c r="G6">
         <v>177.683</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6">
+        <v>4.269059418638547</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>1699656537.387265</v>
       </c>
@@ -558,8 +579,11 @@
       <c r="G7">
         <v>178.685</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7">
+        <v>5.33632376478778</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>1699660379.562374</v>
       </c>
@@ -581,8 +605,11 @@
       <c r="G8">
         <v>178.684</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8">
+        <v>6.403594628440009</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>1699664221.764074</v>
       </c>
@@ -604,8 +631,11 @@
       <c r="G9">
         <v>177.788</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9">
+        <v>7.470872878366047</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>1699668063.968527</v>
       </c>
@@ -627,8 +657,11 @@
       <c r="G10">
         <v>176.663</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10">
+        <v>8.538151892953449</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>1699671906.14174</v>
       </c>
@@ -650,8 +683,11 @@
       <c r="G11">
         <v>174.967</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11">
+        <v>9.605422230031754</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>1699675748.259186</v>
       </c>
@@ -673,8 +709,11 @@
       <c r="G12">
         <v>173.889</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12">
+        <v>10.67267707599534</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>1699679590.40275</v>
       </c>
@@ -696,8 +735,11 @@
       <c r="G13">
         <v>172.249</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13">
+        <v>11.73993917736742</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>1699683432.609657</v>
       </c>
@@ -719,8 +761,11 @@
       <c r="G14">
         <v>171.081</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14">
+        <v>12.80721887356705</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>1699687274.753814</v>
       </c>
@@ -742,8 +787,11 @@
       <c r="G15">
         <v>169.622</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>13.8744811393155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>1699691116.90643</v>
       </c>
@@ -765,8 +813,11 @@
       <c r="G16">
         <v>168.652</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16">
+        <v>14.94174575501018</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>1699694959.053092</v>
       </c>
@@ -788,8 +839,11 @@
       <c r="G17">
         <v>167.561</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>16.00900871667597</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>1699698801.159025</v>
       </c>
@@ -811,8 +865,11 @@
       <c r="G18">
         <v>166.766</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>17.07626036478413</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>1699702643.290947</v>
       </c>
@@ -834,8 +891,11 @@
       <c r="G19">
         <v>165.759</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>18.14351923194197</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>1699706485.449556</v>
       </c>
@@ -857,8 +917,11 @@
       <c r="G20">
         <v>164.749</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20">
+        <v>19.21078551212947</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>1699710327.572899</v>
       </c>
@@ -880,8 +943,11 @@
       <c r="G21">
         <v>163.505</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21">
+        <v>20.2780419962936</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>1699714169.731899</v>
       </c>
@@ -903,8 +969,11 @@
       <c r="G22">
         <v>162.593</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>21.34530838542515</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>1699718011.900435</v>
       </c>
@@ -926,8 +995,11 @@
       <c r="G23">
         <v>161.633</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>22.41257742312219</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>1699721854.087506</v>
       </c>
@@ -949,8 +1021,11 @@
       <c r="G24">
         <v>160.794</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24">
+        <v>23.47985160953469</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>1699725696.267263</v>
       </c>
@@ -972,8 +1047,11 @@
       <c r="G25">
         <v>160.362</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25">
+        <v>24.54712376428975</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>1699729538.492676</v>
       </c>
@@ -995,8 +1073,11 @@
       <c r="G26">
         <v>159.961</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26">
+        <v>25.61440860112508</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>1699733380.654823</v>
       </c>
@@ -1018,8 +1099,11 @@
       <c r="G27">
         <v>159.805</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>26.68167586406072</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>1699737222.742726</v>
       </c>
@@ -1041,8 +1125,11 @@
       <c r="G28">
         <v>160.08</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28">
+        <v>27.74892250392172</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>1699741064.909647</v>
       </c>
@@ -1064,8 +1151,11 @@
       <c r="G29">
         <v>160.117</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29">
+        <v>28.81619109306071</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>1699744907.10878</v>
       </c>
@@ -1087,8 +1177,11 @@
       <c r="G30">
         <v>160.582</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30">
+        <v>29.88346863011519</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>1699748749.239321</v>
       </c>
@@ -1110,8 +1203,11 @@
       <c r="G31">
         <v>160.55</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="H31">
+        <v>30.95072711368402</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>1699752591.470266</v>
       </c>
@@ -1133,8 +1229,11 @@
       <c r="G32">
         <v>160.662</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32">
+        <v>32.01801348725954</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33">
         <v>1699756433.570856</v>
       </c>
@@ -1156,8 +1255,11 @@
       <c r="G33">
         <v>160.416</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="H33">
+        <v>33.08526365114583</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34">
         <v>1699760275.696703</v>
       </c>
@@ -1179,8 +1281,11 @@
       <c r="G34">
         <v>159.837</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="H34">
+        <v>34.15252083089617</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35">
         <v>1699764117.851453</v>
       </c>
@@ -1202,8 +1307,11 @@
       <c r="G35">
         <v>159.149</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>35.21978603912724</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36">
         <v>1699767960.095488</v>
       </c>
@@ -1225,8 +1333,11 @@
       <c r="G36">
         <v>158.428</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="H36">
+        <v>36.28707604878478</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37">
         <v>1699771802.247923</v>
       </c>
@@ -1248,8 +1359,11 @@
       <c r="G37">
         <v>158.004</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>37.35434061414666</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38">
         <v>1699775644.405857</v>
       </c>
@@ -1271,8 +1385,11 @@
       <c r="G38">
         <v>157.745</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="H38">
+        <v>38.42160670684444</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39">
         <v>1699779486.581621</v>
       </c>
@@ -1294,8 +1411,11 @@
       <c r="G39">
         <v>157.923</v>
       </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="H39">
+        <v>39.48887775262197</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40">
         <v>1699783328.628309</v>
       </c>
@@ -1317,8 +1437,11 @@
       <c r="G40">
         <v>158.306</v>
       </c>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="H40">
+        <v>40.55611294375525</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41">
         <v>1699787170.747872</v>
       </c>
@@ -1340,8 +1463,11 @@
       <c r="G41">
         <v>158.424</v>
       </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="H41">
+        <v>41.62336837788423</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42">
         <v>1699791012.876235</v>
       </c>
@@ -1363,8 +1489,11 @@
       <c r="G42">
         <v>158.066</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>42.69062625646591</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43">
         <v>1699794855.055672</v>
       </c>
@@ -1386,8 +1515,11 @@
       <c r="G43">
         <v>157.478</v>
       </c>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="H43">
+        <v>43.75789832214515</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44">
         <v>1699798697.196555</v>
       </c>
@@ -1409,8 +1541,11 @@
       <c r="G44">
         <v>157.041</v>
       </c>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="H44">
+        <v>44.82515967859162</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45">
         <v>1699802539.334117</v>
       </c>
@@ -1432,8 +1567,11 @@
       <c r="G45">
         <v>156.278</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>45.89242011255688</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46">
         <v>1699806381.408426</v>
       </c>
@@ -1455,8 +1593,11 @@
       <c r="G46">
         <v>155.689</v>
       </c>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="H46">
+        <v>46.9596629761325</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47">
         <v>1699810223.558003</v>
       </c>
@@ -1478,8 +1619,11 @@
       <c r="G47">
         <v>155.187</v>
       </c>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="H47">
+        <v>48.02692674742805</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48">
         <v>1699814065.715649</v>
       </c>
@@ -1501,8 +1645,11 @@
       <c r="G48">
         <v>154.923</v>
       </c>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="H48">
+        <v>49.0941927602556</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49">
         <v>1699817907.81268</v>
       </c>
@@ -1524,8 +1671,11 @@
       <c r="G49">
         <v>155.237</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>50.16144193569819</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50">
         <v>1699821749.915459</v>
       </c>
@@ -1547,8 +1697,11 @@
       <c r="G50">
         <v>155.845</v>
       </c>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="H50">
+        <v>51.22869270748562</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51">
         <v>1699825592.039705</v>
       </c>
@@ -1570,8 +1723,11 @@
       <c r="G51">
         <v>155.988</v>
       </c>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="H51">
+        <v>52.29594944251908</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52">
         <v>1699829434.164201</v>
       </c>
@@ -1593,8 +1749,11 @@
       <c r="G52">
         <v>156.398</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>53.36320624709129</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53">
         <v>1699833276.34426</v>
       </c>
@@ -1616,8 +1775,11 @@
       <c r="G53">
         <v>156.779</v>
       </c>
-    </row>
-    <row r="54" spans="1:7">
+      <c r="H53">
+        <v>54.43047848542531</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54">
         <v>1699837118.442005</v>
       </c>
@@ -1639,8 +1801,11 @@
       <c r="G54">
         <v>156.924</v>
       </c>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="H54">
+        <v>55.49772785915269</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55">
         <v>1699840960.649898</v>
       </c>
@@ -1662,8 +1827,11 @@
       <c r="G55">
         <v>156.714</v>
       </c>
-    </row>
-    <row r="56" spans="1:7">
+      <c r="H55">
+        <v>56.56500782953368</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56">
         <v>1699844802.778111</v>
       </c>
@@ -1685,8 +1853,11 @@
       <c r="G56">
         <v>156.489</v>
       </c>
-    </row>
-    <row r="57" spans="1:7">
+      <c r="H56">
+        <v>57.63226566632589</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57">
         <v>1699848644.873042</v>
       </c>
@@ -1708,8 +1879,11 @@
       <c r="G57">
         <v>156.06</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>58.69951425843769</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58">
         <v>1699852487.023065</v>
       </c>
@@ -1731,8 +1905,11 @@
       <c r="G58">
         <v>155.423</v>
       </c>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="H58">
+        <v>59.76677815351221</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59">
         <v>1699856329.152236</v>
       </c>
@@ -1754,8 +1931,11 @@
       <c r="G59">
         <v>154.969</v>
       </c>
-    </row>
-    <row r="60" spans="1:7">
+      <c r="H59">
+        <v>60.83403625673718</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60">
         <v>1699860171.240888</v>
       </c>
@@ -1777,8 +1957,11 @@
       <c r="G60">
         <v>154.713</v>
       </c>
-    </row>
-    <row r="61" spans="1:7">
+      <c r="H60">
+        <v>61.90128310455216</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61">
         <v>1699864013.342511</v>
       </c>
@@ -1800,8 +1983,11 @@
       <c r="G61">
         <v>154.447</v>
       </c>
-    </row>
-    <row r="62" spans="1:7">
+      <c r="H61">
+        <v>62.96853355533547</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62">
         <v>1699867855.493657</v>
       </c>
@@ -1823,8 +2009,11 @@
       <c r="G62">
         <v>154.549</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>64.0357977624072</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63">
         <v>1699871697.634718</v>
       </c>
@@ -1846,8 +2035,11 @@
       <c r="G63">
         <v>154.535</v>
       </c>
-    </row>
-    <row r="64" spans="1:7">
+      <c r="H63">
+        <v>65.10305916839175</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64">
         <v>1699875539.648172</v>
       </c>
@@ -1869,8 +2061,11 @@
       <c r="G64">
         <v>154.51</v>
       </c>
-    </row>
-    <row r="65" spans="1:7">
+      <c r="H64">
+        <v>66.17028512775897</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65">
         <v>1699879381.807324</v>
       </c>
@@ -1892,8 +2087,11 @@
       <c r="G65">
         <v>155.014</v>
       </c>
-    </row>
-    <row r="66" spans="1:7">
+      <c r="H65">
+        <v>67.23755155881246</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66">
         <v>1699883223.913907</v>
       </c>
@@ -1915,8 +2113,11 @@
       <c r="G66">
         <v>155.429</v>
       </c>
-    </row>
-    <row r="67" spans="1:7">
+      <c r="H66">
+        <v>68.30480338758892</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67">
         <v>1699887066.034083</v>
       </c>
@@ -1938,8 +2139,11 @@
       <c r="G67">
         <v>155.343</v>
       </c>
-    </row>
-    <row r="68" spans="1:7">
+      <c r="H67">
+        <v>69.37205899205473</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68">
         <v>1699890908.177946</v>
       </c>
@@ -1961,8 +2165,11 @@
       <c r="G68">
         <v>154.396</v>
       </c>
-    </row>
-    <row r="69" spans="1:7">
+      <c r="H68">
+        <v>70.43932117614482</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69">
         <v>1699894750.238706</v>
       </c>
@@ -1984,8 +2191,11 @@
       <c r="G69">
         <v>153.848</v>
       </c>
-    </row>
-    <row r="70" spans="1:7">
+      <c r="H69">
+        <v>71.50656027615071</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70">
         <v>1699898592.314083</v>
       </c>
@@ -2007,8 +2217,11 @@
       <c r="G70">
         <v>153.543</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>72.573803436425</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71">
         <v>1699902434.388735</v>
       </c>
@@ -2030,8 +2243,11 @@
       <c r="G71">
         <v>153.282</v>
       </c>
-    </row>
-    <row r="72" spans="1:7">
+      <c r="H71">
+        <v>73.64104639536805</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72">
         <v>1699906276.537836</v>
       </c>
@@ -2053,8 +2269,11 @@
       <c r="G72">
         <v>153.248</v>
       </c>
-    </row>
-    <row r="73" spans="1:7">
+      <c r="H72">
+        <v>74.70831003434128</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73">
         <v>1699910118.65894</v>
       </c>
@@ -2076,8 +2295,11 @@
       <c r="G73">
         <v>153.234</v>
       </c>
-    </row>
-    <row r="74" spans="1:7">
+      <c r="H73">
+        <v>75.77556589676274</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74">
         <v>1699913960.698362</v>
       </c>
@@ -2099,8 +2321,11 @@
       <c r="G74">
         <v>153.558</v>
       </c>
-    </row>
-    <row r="75" spans="1:7">
+      <c r="H74">
+        <v>76.84279906948407</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75">
         <v>1699917802.776278</v>
       </c>
@@ -2122,8 +2347,11 @@
       <c r="G75">
         <v>153.907</v>
       </c>
-    </row>
-    <row r="76" spans="1:7">
+      <c r="H75">
+        <v>77.91004293501378</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76">
         <v>1699921644.867857</v>
       </c>
@@ -2145,8 +2373,11 @@
       <c r="G76">
         <v>154.489</v>
       </c>
-    </row>
-    <row r="77" spans="1:7">
+      <c r="H76">
+        <v>78.97729059570365</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77">
         <v>1699925486.977295</v>
       </c>
@@ -2168,8 +2399,11 @@
       <c r="G77">
         <v>154.602</v>
       </c>
-    </row>
-    <row r="78" spans="1:7">
+      <c r="H77">
+        <v>80.04454321755303</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78">
         <v>1699929329.075147</v>
       </c>
@@ -2191,8 +2425,11 @@
       <c r="G78">
         <v>154.007</v>
       </c>
-    </row>
-    <row r="79" spans="1:7">
+      <c r="H78">
+        <v>81.11179262081782</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79">
         <v>1699933171.220497</v>
       </c>
@@ -2214,8 +2451,11 @@
       <c r="G79">
         <v>152.524</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>82.17905521816678</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80">
         <v>1699937013.324517</v>
       </c>
@@ -2237,8 +2477,11 @@
       <c r="G80">
         <v>151.767</v>
       </c>
-    </row>
-    <row r="81" spans="1:7">
+      <c r="H80">
+        <v>83.24630633473396</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81">
         <v>1699940855.486042</v>
       </c>
@@ -2260,8 +2503,11 @@
       <c r="G81">
         <v>150.997</v>
       </c>
-    </row>
-    <row r="82" spans="1:7">
+      <c r="H81">
+        <v>84.31357342494859</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82">
         <v>1699944697.623685</v>
       </c>
@@ -2283,8 +2529,11 @@
       <c r="G82">
         <v>150.649</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>85.38083388143116</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83">
         <v>1699948539.710603</v>
       </c>
@@ -2306,8 +2555,11 @@
       <c r="G83">
         <v>149.854</v>
       </c>
-    </row>
-    <row r="84" spans="1:7">
+      <c r="H83">
+        <v>86.44808024757438</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84">
         <v>1699952381.848335</v>
       </c>
@@ -2329,8 +2581,11 @@
       <c r="G84">
         <v>149.29</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>87.51534072856109</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85">
         <v>1699956224.028143</v>
       </c>
@@ -2352,8 +2607,11 @@
       <c r="G85">
         <v>148.654</v>
       </c>
-    </row>
-    <row r="86" spans="1:7">
+      <c r="H85">
+        <v>88.5826128974888</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86">
         <v>1699960066.119389</v>
       </c>
@@ -2375,8 +2633,11 @@
       <c r="G86">
         <v>148.055</v>
       </c>
-    </row>
-    <row r="87" spans="1:7">
+      <c r="H86">
+        <v>89.64986046579149</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87">
         <v>1699963908.211583</v>
       </c>
@@ -2398,8 +2659,11 @@
       <c r="G87">
         <v>148.025</v>
       </c>
-    </row>
-    <row r="88" spans="1:7">
+      <c r="H87">
+        <v>90.71710829761294</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88">
         <v>1699967750.295996</v>
       </c>
@@ -2421,8 +2685,11 @@
       <c r="G88">
         <v>148.026</v>
       </c>
-    </row>
-    <row r="89" spans="1:7">
+      <c r="H88">
+        <v>91.78435396777259</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89">
         <v>1699971592.398877</v>
       </c>
@@ -2444,8 +2711,11 @@
       <c r="G89">
         <v>147.928</v>
       </c>
-    </row>
-    <row r="90" spans="1:7">
+      <c r="H89">
+        <v>92.85160476817025</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90">
         <v>1699975434.51408</v>
       </c>
@@ -2467,8 +2737,11 @@
       <c r="G90">
         <v>147.984</v>
       </c>
-    </row>
-    <row r="91" spans="1:7">
+      <c r="H90">
+        <v>93.91885899113284</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91">
         <v>1699979276.659357</v>
       </c>
@@ -2490,8 +2763,11 @@
       <c r="G91">
         <v>147.48</v>
       </c>
-    </row>
-    <row r="92" spans="1:7">
+      <c r="H91">
+        <v>94.98612156808376</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92">
         <v>1699983118.794106</v>
       </c>
@@ -2513,8 +2789,11 @@
       <c r="G92">
         <v>149.621</v>
       </c>
-    </row>
-    <row r="93" spans="1:7">
+      <c r="H92">
+        <v>96.05338122043345</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93">
         <v>1699986960.879574</v>
       </c>
@@ -2536,8 +2815,11 @@
       <c r="G93">
         <v>151.201</v>
       </c>
-    </row>
-    <row r="94" spans="1:7">
+      <c r="H93">
+        <v>97.12062718398042</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94">
         <v>1699990803.111861</v>
       </c>
@@ -2559,8 +2841,11 @@
       <c r="G94">
         <v>152.183</v>
       </c>
-    </row>
-    <row r="95" spans="1:7">
+      <c r="H94">
+        <v>98.1879139301512</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95">
         <v>1699994645.253857</v>
       </c>
@@ -2582,8 +2867,11 @@
       <c r="G95">
         <v>152.299</v>
       </c>
-    </row>
-    <row r="96" spans="1:7">
+      <c r="H95">
+        <v>99.25517559581333</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96">
         <v>1699998487.384401</v>
       </c>
@@ -2605,8 +2893,11 @@
       <c r="G96">
         <v>152.476</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>100.3224340802431</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97">
         <v>1700002329.453798</v>
       </c>
@@ -2628,8 +2919,11 @@
       <c r="G97">
         <v>151.909</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>101.3896755794022</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98">
         <v>1700006171.542198</v>
       </c>
@@ -2651,8 +2945,11 @@
       <c r="G98">
         <v>151.765</v>
       </c>
-    </row>
-    <row r="99" spans="1:7">
+      <c r="H98">
+        <v>102.4569223571486</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99">
         <v>1700010013.705914</v>
       </c>
@@ -2674,8 +2971,11 @@
       <c r="G99">
         <v>151.206</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>103.5241900562578</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100">
         <v>1700013855.903441</v>
       </c>
@@ -2697,8 +2997,11 @@
       <c r="G100">
         <v>149.086</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>104.5914671468735</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101">
         <v>1700017698.015682</v>
       </c>
@@ -2720,8 +3023,11 @@
       <c r="G101">
         <v>146.502</v>
       </c>
-    </row>
-    <row r="102" spans="1:7">
+      <c r="H101">
+        <v>105.6587205473582</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102">
         <v>1700021540.146385</v>
       </c>
@@ -2743,8 +3049,11 @@
       <c r="G102">
         <v>145.21</v>
       </c>
-    </row>
-    <row r="103" spans="1:7">
+      <c r="H102">
+        <v>106.725979075763</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103">
         <v>1700025382.282832</v>
       </c>
@@ -2766,8 +3075,11 @@
       <c r="G103">
         <v>145.114</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>107.7932391999828</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104">
         <v>1700029224.428086</v>
       </c>
@@ -2789,8 +3101,11 @@
       <c r="G104">
         <v>145.097</v>
       </c>
-    </row>
-    <row r="105" spans="1:7">
+      <c r="H104">
+        <v>108.8605017704434</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105">
         <v>1700033066.569005</v>
       </c>
@@ -2812,8 +3127,11 @@
       <c r="G105">
         <v>144.828</v>
       </c>
-    </row>
-    <row r="106" spans="1:7">
+      <c r="H105">
+        <v>109.9277631370227</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106">
         <v>1700036908.658986</v>
       </c>
@@ -2835,8 +3153,11 @@
       <c r="G106">
         <v>144.57</v>
       </c>
-    </row>
-    <row r="107" spans="1:7">
+      <c r="H106">
+        <v>110.9950103539229</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107">
         <v>1700040750.832377</v>
       </c>
@@ -2858,8 +3179,11 @@
       <c r="G107">
         <v>144.014</v>
       </c>
-    </row>
-    <row r="108" spans="1:7">
+      <c r="H107">
+        <v>112.0622807403406</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108">
         <v>1700044592.972161</v>
       </c>
@@ -2881,8 +3205,11 @@
       <c r="G108">
         <v>143.432</v>
       </c>
-    </row>
-    <row r="109" spans="1:7">
+      <c r="H108">
+        <v>113.1295417914788</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109">
         <v>1700048435.085441</v>
       </c>
@@ -2904,8 +3231,11 @@
       <c r="G109">
         <v>143.089</v>
       </c>
-    </row>
-    <row r="110" spans="1:7">
+      <c r="H109">
+        <v>114.1967954802513</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110">
         <v>1700052277.184455</v>
       </c>
@@ -2927,8 +3257,11 @@
       <c r="G110">
         <v>143.401</v>
       </c>
-    </row>
-    <row r="111" spans="1:7">
+      <c r="H110">
+        <v>115.264045206507</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111">
         <v>1700056119.180407</v>
       </c>
@@ -2950,8 +3283,11 @@
       <c r="G111">
         <v>144.154</v>
       </c>
-    </row>
-    <row r="112" spans="1:7">
+      <c r="H111">
+        <v>116.3312663042545</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112">
         <v>1700059961.331732</v>
       </c>
@@ -2973,8 +3309,11 @@
       <c r="G112">
         <v>144.467</v>
       </c>
-    </row>
-    <row r="113" spans="1:7">
+      <c r="H112">
+        <v>117.398530561063</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113">
         <v>1700063803.472068</v>
       </c>
@@ -2996,8 +3335,11 @@
       <c r="G113">
         <v>144.431</v>
       </c>
-    </row>
-    <row r="114" spans="1:7">
+      <c r="H113">
+        <v>118.4657917655177</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114">
         <v>1700067645.589295</v>
       </c>
@@ -3019,8 +3361,11 @@
       <c r="G114">
         <v>144.205</v>
       </c>
-    </row>
-    <row r="115" spans="1:7">
+      <c r="H114">
+        <v>119.5330465508832</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115">
         <v>1700071487.689696</v>
       </c>
@@ -3042,8 +3387,11 @@
       <c r="G115">
         <v>143.266</v>
       </c>
-    </row>
-    <row r="116" spans="1:7">
+      <c r="H115">
+        <v>120.6002966621187</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116">
         <v>1700075329.799097</v>
       </c>
@@ -3065,8 +3413,11 @@
       <c r="G116">
         <v>142.528</v>
       </c>
-    </row>
-    <row r="117" spans="1:7">
+      <c r="H116">
+        <v>121.6675492735704</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117">
         <v>1700079171.896065</v>
       </c>
@@ -3088,8 +3439,11 @@
       <c r="G117">
         <v>144.483</v>
       </c>
-    </row>
-    <row r="118" spans="1:7">
+      <c r="H117">
+        <v>122.7347984313965</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118">
         <v>1700083014.007624</v>
       </c>
@@ -3111,8 +3465,11 @@
       <c r="G118">
         <v>147.627</v>
       </c>
-    </row>
-    <row r="119" spans="1:7">
+      <c r="H118">
+        <v>123.8020516423384</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119">
         <v>1700086856.106124</v>
       </c>
@@ -3134,8 +3491,11 @@
       <c r="G119">
         <v>147.785</v>
       </c>
-    </row>
-    <row r="120" spans="1:7">
+      <c r="H119">
+        <v>124.869301225543</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120">
         <v>1700090698.232209</v>
       </c>
@@ -3157,8 +3517,11 @@
       <c r="G120">
         <v>145.787</v>
       </c>
-    </row>
-    <row r="121" spans="1:7">
+      <c r="H120">
+        <v>125.9365584713221</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121">
         <v>1700094540.325768</v>
       </c>
@@ -3180,8 +3543,11 @@
       <c r="G121">
         <v>144.885</v>
       </c>
-    </row>
-    <row r="122" spans="1:7">
+      <c r="H121">
+        <v>127.003806682229</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122">
         <v>1700098382.394578</v>
       </c>
@@ -3203,8 +3569,11 @@
       <c r="G122">
         <v>144.366</v>
       </c>
-    </row>
-    <row r="123" spans="1:7">
+      <c r="H122">
+        <v>128.0710480182038</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123">
         <v>1700102224.604353</v>
       </c>
@@ -3226,8 +3595,11 @@
       <c r="G123">
         <v>143.712</v>
       </c>
-    </row>
-    <row r="124" spans="1:7">
+      <c r="H123">
+        <v>129.13832851145</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124">
         <v>1700106066.683381</v>
       </c>
@@ -3249,8 +3621,11 @@
       <c r="G124">
         <v>143.114</v>
       </c>
-    </row>
-    <row r="125" spans="1:7">
+      <c r="H124">
+        <v>130.2055726858642</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125">
         <v>1700109908.754652</v>
       </c>
@@ -3272,8 +3647,11 @@
       <c r="G125">
         <v>142.557</v>
       </c>
-    </row>
-    <row r="126" spans="1:7">
+      <c r="H125">
+        <v>131.2728147054381</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126">
         <v>1700113750.89121</v>
       </c>
@@ -3295,8 +3673,11 @@
       <c r="G126">
         <v>141.878</v>
       </c>
-    </row>
-    <row r="127" spans="1:7">
+      <c r="H126">
+        <v>132.3400748606523</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127">
         <v>1700117593.024133</v>
       </c>
@@ -3318,8 +3699,11 @@
       <c r="G127">
         <v>141.132</v>
       </c>
-    </row>
-    <row r="128" spans="1:7">
+      <c r="H127">
+        <v>133.4073340058989</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128">
         <v>1700121435.145855</v>
       </c>
@@ -3341,8 +3725,11 @@
       <c r="G128">
         <v>140.649</v>
       </c>
-    </row>
-    <row r="129" spans="1:7">
+      <c r="H128">
+        <v>134.4745900397831</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129">
         <v>1700125277.314131</v>
       </c>
@@ -3364,8 +3751,11 @@
       <c r="G129">
         <v>139.931</v>
       </c>
-    </row>
-    <row r="130" spans="1:7">
+      <c r="H129">
+        <v>135.541859005226</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130">
         <v>1700129119.460239</v>
       </c>
@@ -3387,8 +3777,11 @@
       <c r="G130">
         <v>139.361</v>
       </c>
-    </row>
-    <row r="131" spans="1:7">
+      <c r="H130">
+        <v>136.6091218130456</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
       <c r="A131">
         <v>1700132961.581893</v>
       </c>
@@ -3410,8 +3803,11 @@
       <c r="G131">
         <v>138.85</v>
       </c>
-    </row>
-    <row r="132" spans="1:7">
+      <c r="H131">
+        <v>137.6763778281212</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
       <c r="A132">
         <v>1700136803.696346</v>
       </c>
@@ -3433,8 +3829,11 @@
       <c r="G132">
         <v>138.862</v>
       </c>
-    </row>
-    <row r="133" spans="1:7">
+      <c r="H132">
+        <v>138.7436318426662</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
       <c r="A133">
         <v>1700140645.860974</v>
       </c>
@@ -3456,8 +3855,11 @@
       <c r="G133">
         <v>138.651</v>
       </c>
-    </row>
-    <row r="134" spans="1:7">
+      <c r="H133">
+        <v>139.8108997948964</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134">
         <v>1700144487.994653</v>
       </c>
@@ -3479,8 +3881,11 @@
       <c r="G134">
         <v>138.44</v>
       </c>
-    </row>
-    <row r="135" spans="1:7">
+      <c r="H134">
+        <v>140.8781591502163</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
       <c r="A135">
         <v>1700148330.084259</v>
       </c>
@@ -3502,8 +3907,11 @@
       <c r="G135">
         <v>138.317</v>
       </c>
-    </row>
-    <row r="136" spans="1:7">
+      <c r="H135">
+        <v>141.9454062629408</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
       <c r="A136">
         <v>1700152172.132764</v>
       </c>
@@ -3525,8 +3933,11 @@
       <c r="G136">
         <v>138.409</v>
       </c>
-    </row>
-    <row r="137" spans="1:7">
+      <c r="H136">
+        <v>143.0126419589255</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
       <c r="A137">
         <v>1700156014.207586</v>
       </c>
@@ -3548,8 +3959,11 @@
       <c r="G137">
         <v>141.202</v>
       </c>
-    </row>
-    <row r="138" spans="1:7">
+      <c r="H137">
+        <v>144.0798849650224</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
       <c r="A138">
         <v>1700159856.346476</v>
       </c>
@@ -3571,8 +3985,11 @@
       <c r="G138">
         <v>143.131</v>
       </c>
-    </row>
-    <row r="139" spans="1:7">
+      <c r="H138">
+        <v>145.1471457676755</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
       <c r="A139">
         <v>1700163698.410968</v>
       </c>
@@ -3594,8 +4011,11 @@
       <c r="G139">
         <v>143.318</v>
       </c>
-    </row>
-    <row r="140" spans="1:7">
+      <c r="H139">
+        <v>146.2143859045373</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
       <c r="A140">
         <v>1700167540.516739</v>
       </c>
@@ -3617,8 +4037,11 @@
       <c r="G140">
         <v>143.499</v>
       </c>
-    </row>
-    <row r="141" spans="1:7">
+      <c r="H140">
+        <v>147.2816375076108</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
       <c r="A141">
         <v>1700171382.647437</v>
       </c>
@@ -3640,8 +4063,11 @@
       <c r="G141">
         <v>143.873</v>
       </c>
-    </row>
-    <row r="142" spans="1:7">
+      <c r="H141">
+        <v>148.3488960347573</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
       <c r="A142">
         <v>1700175224.725388</v>
       </c>
@@ -3663,8 +4089,11 @@
       <c r="G142">
         <v>143.44</v>
       </c>
-    </row>
-    <row r="143" spans="1:7">
+      <c r="H142">
+        <v>149.4161399099562</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
       <c r="A143">
         <v>1700179066.920552</v>
       </c>
@@ -3686,8 +4115,11 @@
       <c r="G143">
         <v>141.128</v>
       </c>
-    </row>
-    <row r="144" spans="1:7">
+      <c r="H143">
+        <v>150.4834163445897</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
       <c r="A144">
         <v>1700182909.024113</v>
       </c>
@@ -3709,8 +4141,11 @@
       <c r="G144">
         <v>139.797</v>
       </c>
-    </row>
-    <row r="145" spans="1:7">
+      <c r="H144">
+        <v>151.5506673336691</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
       <c r="A145">
         <v>1700186751.154204</v>
       </c>
@@ -3732,8 +4167,11 @@
       <c r="G145">
         <v>138.186</v>
       </c>
-    </row>
-    <row r="146" spans="1:7">
+      <c r="H145">
+        <v>152.6179256923331</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
       <c r="A146">
         <v>1700190593.210729</v>
       </c>
@@ -3755,8 +4193,11 @@
       <c r="G146">
         <v>137.117</v>
       </c>
-    </row>
-    <row r="147" spans="1:7">
+      <c r="H146">
+        <v>153.6851636158758</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
       <c r="A147">
         <v>1700194435.363172</v>
       </c>
@@ -3778,8 +4219,11 @@
       <c r="G147">
         <v>136.51</v>
       </c>
-    </row>
-    <row r="148" spans="1:7">
+      <c r="H147">
+        <v>154.7524281833569</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
       <c r="A148">
         <v>1700198277.492666</v>
       </c>
@@ -3801,8 +4245,11 @@
       <c r="G148">
         <v>136.741</v>
       </c>
-    </row>
-    <row r="149" spans="1:7">
+      <c r="H148">
+        <v>155.8196863759889</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
       <c r="A149">
         <v>1700202119.636408</v>
       </c>
@@ -3824,8 +4271,11 @@
       <c r="G149">
         <v>137.047</v>
       </c>
-    </row>
-    <row r="150" spans="1:7">
+      <c r="H149">
+        <v>156.8869485267003</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
       <c r="A150">
         <v>1700205961.706855</v>
       </c>
@@ -3847,8 +4297,11 @@
       <c r="G150">
         <v>137.701</v>
       </c>
-    </row>
-    <row r="151" spans="1:7">
+      <c r="H150">
+        <v>157.9541903173923</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
       <c r="A151">
         <v>1700209803.803493</v>
       </c>
@@ -3870,8 +4323,11 @@
       <c r="G151">
         <v>137.354</v>
       </c>
-    </row>
-    <row r="152" spans="1:7">
+      <c r="H151">
+        <v>159.021439383626</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
       <c r="A152">
         <v>1700213646.017822</v>
       </c>
@@ -3893,8 +4349,11 @@
       <c r="G152">
         <v>136.828</v>
       </c>
-    </row>
-    <row r="153" spans="1:7">
+      <c r="H152">
+        <v>160.0887211416827</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
       <c r="A153">
         <v>1700217488.027394</v>
       </c>
@@ -3916,8 +4375,11 @@
       <c r="G153">
         <v>136.116</v>
       </c>
-    </row>
-    <row r="154" spans="1:7">
+      <c r="H153">
+        <v>161.1559460226695</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
       <c r="A154">
         <v>1700221330.174772</v>
       </c>
@@ -3939,8 +4401,11 @@
       <c r="G154">
         <v>135.531</v>
       </c>
-    </row>
-    <row r="155" spans="1:7">
+      <c r="H154">
+        <v>162.2232091832823</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
       <c r="A155">
         <v>1700225172.286741</v>
       </c>
@@ -3962,8 +4427,11 @@
       <c r="G155">
         <v>135.388</v>
       </c>
-    </row>
-    <row r="156" spans="1:7">
+      <c r="H155">
+        <v>163.2904625082016</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
       <c r="A156">
         <v>1700229014.417958</v>
       </c>
@@ -3985,8 +4453,11 @@
       <c r="G156">
         <v>135.497</v>
       </c>
-    </row>
-    <row r="157" spans="1:7">
+      <c r="H156">
+        <v>164.3577211795913</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
       <c r="A157">
         <v>1700232856.555619</v>
       </c>
@@ -4008,8 +4479,11 @@
       <c r="G157">
         <v>135.925</v>
       </c>
-    </row>
-    <row r="158" spans="1:7">
+      <c r="H157">
+        <v>165.424981640776</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
       <c r="A158">
         <v>1700236698.648321</v>
       </c>
@@ -4031,8 +4505,11 @@
       <c r="G158">
         <v>136.427</v>
       </c>
-    </row>
-    <row r="159" spans="1:7">
+      <c r="H158">
+        <v>166.4922296135955</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
       <c r="A159">
         <v>1700240540.728431</v>
       </c>
@@ -4054,8 +4531,11 @@
       <c r="G159">
         <v>136.192</v>
       </c>
-    </row>
-    <row r="160" spans="1:7">
+      <c r="H159">
+        <v>167.5594740884834</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
       <c r="A160">
         <v>1700244382.955088</v>
       </c>
@@ -4077,8 +4557,11 @@
       <c r="G160">
         <v>135.858</v>
       </c>
-    </row>
-    <row r="161" spans="1:7">
+      <c r="H160">
+        <v>168.6267592710919</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
       <c r="A161">
         <v>1700248225.04162</v>
       </c>
@@ -4100,8 +4583,11 @@
       <c r="G161">
         <v>135.319</v>
       </c>
-    </row>
-    <row r="162" spans="1:7">
+      <c r="H161">
+        <v>169.6940055301454</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
       <c r="A162">
         <v>1700252067.193846</v>
       </c>
@@ -4123,8 +4609,11 @@
       <c r="G162">
         <v>135.063</v>
       </c>
-    </row>
-    <row r="163" spans="1:7">
+      <c r="H162">
+        <v>170.7612700372272</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
       <c r="A163">
         <v>1700255909.28717</v>
       </c>
@@ -4146,8 +4635,11 @@
       <c r="G163">
         <v>135.291</v>
       </c>
-    </row>
-    <row r="164" spans="1:7">
+      <c r="H163">
+        <v>171.8285181829002</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
       <c r="A164">
         <v>1700259751.419734</v>
       </c>
@@ -4169,8 +4661,11 @@
       <c r="G164">
         <v>135.034</v>
       </c>
-    </row>
-    <row r="165" spans="1:7">
+      <c r="H164">
+        <v>172.8957772284084</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
       <c r="A165">
         <v>1700263593.542003</v>
       </c>
@@ -4192,8 +4687,11 @@
       <c r="G165">
         <v>134.673</v>
       </c>
-    </row>
-    <row r="166" spans="1:7">
+      <c r="H165">
+        <v>173.9630334141519</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
       <c r="A166">
         <v>1700267435.624291</v>
       </c>
@@ -4215,8 +4713,11 @@
       <c r="G166">
         <v>134.278</v>
       </c>
-    </row>
-    <row r="167" spans="1:7">
+      <c r="H166">
+        <v>175.0302784942918</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
       <c r="A167">
         <v>1700271277.746876</v>
       </c>
@@ -4238,8 +4739,11 @@
       <c r="G167">
         <v>134.045</v>
       </c>
-    </row>
-    <row r="168" spans="1:7">
+      <c r="H167">
+        <v>176.0975347679191</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
       <c r="A168">
         <v>1700275119.913958</v>
       </c>
@@ -4261,8 +4765,11 @@
       <c r="G168">
         <v>133.815</v>
       </c>
-    </row>
-    <row r="169" spans="1:7">
+      <c r="H168">
+        <v>177.1648034016291</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
       <c r="A169">
         <v>1700278962.08867</v>
       </c>
@@ -4284,8 +4791,11 @@
       <c r="G169">
         <v>133.809</v>
       </c>
-    </row>
-    <row r="170" spans="1:7">
+      <c r="H169">
+        <v>178.2320741550128</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
       <c r="A170">
         <v>1700282804.135854</v>
       </c>
@@ -4307,8 +4817,11 @@
       <c r="G170">
         <v>133.692</v>
       </c>
-    </row>
-    <row r="171" spans="1:7">
+      <c r="H170">
+        <v>179.2993094838328</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
       <c r="A171">
         <v>1700286646.283842</v>
       </c>
@@ -4330,8 +4843,11 @@
       <c r="G171">
         <v>133.459</v>
       </c>
-    </row>
-    <row r="172" spans="1:7">
+      <c r="H171">
+        <v>180.3665728139877</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
       <c r="A172">
         <v>1700290488.381662</v>
       </c>
@@ -4353,8 +4869,11 @@
       <c r="G172">
         <v>132.85</v>
       </c>
-    </row>
-    <row r="173" spans="1:7">
+      <c r="H172">
+        <v>181.4338222084443</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
       <c r="A173">
         <v>1700294330.556425</v>
       </c>
@@ -4376,8 +4895,11 @@
       <c r="G173">
         <v>132.157</v>
       </c>
-    </row>
-    <row r="174" spans="1:7">
+      <c r="H173">
+        <v>182.5010929757357</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
       <c r="A174">
         <v>1700298172.629993</v>
       </c>
@@ -4399,8 +4921,11 @@
       <c r="G174">
         <v>131.286</v>
       </c>
-    </row>
-    <row r="175" spans="1:7">
+      <c r="H174">
+        <v>183.568335633609</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
       <c r="A175">
         <v>1700302014.710548</v>
       </c>
@@ -4422,8 +4947,11 @@
       <c r="G175">
         <v>130.428</v>
       </c>
-    </row>
-    <row r="176" spans="1:7">
+      <c r="H175">
+        <v>184.6355802321434</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
       <c r="A176">
         <v>1700305856.802412</v>
       </c>
@@ -4445,8 +4973,11 @@
       <c r="G176">
         <v>129.739</v>
       </c>
-    </row>
-    <row r="177" spans="1:7">
+      <c r="H176">
+        <v>185.7028279721737</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
       <c r="A177">
         <v>1700309698.894697</v>
       </c>
@@ -4468,8 +4999,11 @@
       <c r="G177">
         <v>128.925</v>
       </c>
-    </row>
-    <row r="178" spans="1:7">
+      <c r="H177">
+        <v>186.770075829294</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
       <c r="A178">
         <v>1700313542.193844</v>
       </c>
@@ -4491,8 +5025,11 @@
       <c r="G178">
         <v>128.28</v>
       </c>
-    </row>
-    <row r="179" spans="1:7">
+      <c r="H178">
+        <v>187.8376589256525</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
       <c r="A179">
         <v>1700317384.30374</v>
       </c>
@@ -4514,8 +5051,11 @@
       <c r="G179">
         <v>127.564</v>
       </c>
-    </row>
-    <row r="180" spans="1:7">
+      <c r="H179">
+        <v>188.9049116743273</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
       <c r="A180">
         <v>1700321226.412726</v>
       </c>
@@ -4537,8 +5077,11 @@
       <c r="G180">
         <v>126.692</v>
       </c>
-    </row>
-    <row r="181" spans="1:7">
+      <c r="H180">
+        <v>189.9721641706096</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
       <c r="A181">
         <v>1700325068.600298</v>
       </c>
@@ -4560,8 +5103,11 @@
       <c r="G181">
         <v>125.945</v>
       </c>
-    </row>
-    <row r="182" spans="1:7">
+      <c r="H181">
+        <v>191.0394384960333</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
       <c r="A182">
         <v>1700328910.738243</v>
       </c>
@@ -4583,8 +5129,11 @@
       <c r="G182">
         <v>125.501</v>
       </c>
-    </row>
-    <row r="183" spans="1:7">
+      <c r="H182">
+        <v>192.106699036426</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
       <c r="A183">
         <v>1700332752.835901</v>
       </c>
@@ -4606,8 +5155,11 @@
       <c r="G183">
         <v>125.635</v>
       </c>
-    </row>
-    <row r="184" spans="1:7">
+      <c r="H183">
+        <v>193.1739483859804</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
       <c r="A184">
         <v>1700336594.919872</v>
       </c>
@@ -4629,8 +5181,11 @@
       <c r="G184">
         <v>126.532</v>
       </c>
-    </row>
-    <row r="185" spans="1:7">
+      <c r="H184">
+        <v>194.241193933222</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
       <c r="A185">
         <v>1700340437.014789</v>
       </c>
@@ -4652,8 +5207,11 @@
       <c r="G185">
         <v>127.281</v>
       </c>
-    </row>
-    <row r="186" spans="1:7">
+      <c r="H185">
+        <v>195.3084425213602</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
       <c r="A186">
         <v>1700344279.161965</v>
       </c>
@@ -4675,8 +5233,11 @@
       <c r="G186">
         <v>127.788</v>
       </c>
-    </row>
-    <row r="187" spans="1:7">
+      <c r="H186">
+        <v>196.3757056259447</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
       <c r="A187">
         <v>1700348121.264211</v>
       </c>
@@ -4698,8 +5259,11 @@
       <c r="G187">
         <v>128.533</v>
       </c>
-    </row>
-    <row r="188" spans="1:7">
+      <c r="H187">
+        <v>197.4429562497801</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
       <c r="A188">
         <v>1700351963.337441</v>
       </c>
@@ -4721,8 +5285,11 @@
       <c r="G188">
         <v>129.408</v>
       </c>
-    </row>
-    <row r="189" spans="1:7">
+      <c r="H188">
+        <v>198.5101988136768</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
       <c r="A189">
         <v>1700355805.417337</v>
       </c>
@@ -4744,8 +5311,11 @@
       <c r="G189">
         <v>129.639</v>
       </c>
-    </row>
-    <row r="190" spans="1:7">
+      <c r="H189">
+        <v>199.5774432291587</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
       <c r="A190">
         <v>1700359647.567276</v>
       </c>
@@ -4767,8 +5337,11 @@
       <c r="G190">
         <v>129.864</v>
       </c>
-    </row>
-    <row r="191" spans="1:7">
+      <c r="H190">
+        <v>200.6447071010537</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
       <c r="A191">
         <v>1700363489.722012</v>
       </c>
@@ -4790,8 +5363,11 @@
       <c r="G191">
         <v>129.949</v>
       </c>
-    </row>
-    <row r="192" spans="1:7">
+      <c r="H191">
+        <v>201.7119723055098</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
       <c r="A192">
         <v>1700367331.78723</v>
       </c>
@@ -4813,8 +5389,11 @@
       <c r="G192">
         <v>130.119</v>
       </c>
-    </row>
-    <row r="193" spans="1:7">
+      <c r="H192">
+        <v>202.7792126437691</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
       <c r="A193">
         <v>1700371173.881248</v>
       </c>
@@ -4836,8 +5415,11 @@
       <c r="G193">
         <v>129.78</v>
       </c>
-    </row>
-    <row r="194" spans="1:7">
+      <c r="H193">
+        <v>203.8464609820975</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
       <c r="A194">
         <v>1700375015.977556</v>
       </c>
@@ -4859,8 +5441,11 @@
       <c r="G194">
         <v>129.635</v>
       </c>
-    </row>
-    <row r="195" spans="1:7">
+      <c r="H194">
+        <v>204.9137099568049</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
       <c r="A195">
         <v>1700378858.117875</v>
       </c>
@@ -4882,8 +5467,11 @@
       <c r="G195">
         <v>128.922</v>
       </c>
-    </row>
-    <row r="196" spans="1:7">
+      <c r="H195">
+        <v>205.9809711564249</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
       <c r="A196">
         <v>1700382700.242517</v>
       </c>
@@ -4905,8 +5493,11 @@
       <c r="G196">
         <v>128.306</v>
       </c>
-    </row>
-    <row r="197" spans="1:7">
+      <c r="H196">
+        <v>207.0482280013959</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
       <c r="A197">
         <v>1700386542.319717</v>
       </c>
@@ -4928,8 +5519,11 @@
       <c r="G197">
         <v>127.323</v>
       </c>
-    </row>
-    <row r="198" spans="1:7">
+      <c r="H197">
+        <v>208.115471668111</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
       <c r="A198">
         <v>1700390384.419528</v>
       </c>
@@ -4951,8 +5545,11 @@
       <c r="G198">
         <v>126.851</v>
       </c>
-    </row>
-    <row r="199" spans="1:7">
+      <c r="H198">
+        <v>209.1827216156986</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
       <c r="A199">
         <v>1700394226.50197</v>
       </c>
@@ -4974,8 +5571,11 @@
       <c r="G199">
         <v>126.088</v>
       </c>
-    </row>
-    <row r="200" spans="1:7">
+      <c r="H199">
+        <v>210.2499667384227</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
       <c r="A200">
         <v>1700398068.624792</v>
       </c>
@@ -4997,8 +5597,11 @@
       <c r="G200">
         <v>125.369</v>
       </c>
-    </row>
-    <row r="201" spans="1:7">
+      <c r="H200">
+        <v>211.3172230778138</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
       <c r="A201">
         <v>1700401910.720358</v>
       </c>
@@ -5020,8 +5623,11 @@
       <c r="G201">
         <v>124.784</v>
       </c>
-    </row>
-    <row r="202" spans="1:7">
+      <c r="H201">
+        <v>212.3844718460904</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
       <c r="A202">
         <v>1700405752.81912</v>
       </c>
@@ -5043,8 +5649,11 @@
       <c r="G202">
         <v>124.165</v>
       </c>
-    </row>
-    <row r="203" spans="1:7">
+      <c r="H202">
+        <v>213.4517215022776</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
       <c r="A203">
         <v>1700409594.875129</v>
       </c>
@@ -5066,8 +5675,11 @@
       <c r="G203">
         <v>123.521</v>
       </c>
-    </row>
-    <row r="204" spans="1:7">
+      <c r="H203">
+        <v>214.5189592824379</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
       <c r="A204">
         <v>1700413437.010203</v>
       </c>
@@ -5089,8 +5701,11 @@
       <c r="G204">
         <v>122.956</v>
       </c>
-    </row>
-    <row r="205" spans="1:7">
+      <c r="H204">
+        <v>215.5862190253867</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
       <c r="A205">
         <v>1700417279.088554</v>
       </c>
@@ -5112,8 +5727,11 @@
       <c r="G205">
         <v>122.831</v>
       </c>
-    </row>
-    <row r="206" spans="1:7">
+      <c r="H205">
+        <v>216.6534630116489</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
       <c r="A206">
         <v>1700421121.155005</v>
       </c>
@@ -5135,8 +5753,11 @@
       <c r="G206">
         <v>123.395</v>
       </c>
-    </row>
-    <row r="207" spans="1:7">
+      <c r="H206">
+        <v>217.7207036924362</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
       <c r="A207">
         <v>1700424963.234357</v>
       </c>
@@ -5158,8 +5779,11 @@
       <c r="G207">
         <v>123.923</v>
       </c>
-    </row>
-    <row r="208" spans="1:7">
+      <c r="H207">
+        <v>218.7879479570521</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
       <c r="A208">
         <v>1700428805.304517</v>
       </c>
@@ -5181,8 +5805,11 @@
       <c r="G208">
         <v>124.437</v>
       </c>
-    </row>
-    <row r="209" spans="1:7">
+      <c r="H208">
+        <v>219.8551896680726</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
       <c r="A209">
         <v>1700432647.450725</v>
       </c>
@@ -5204,8 +5831,11 @@
       <c r="G209">
         <v>124.96</v>
       </c>
-    </row>
-    <row r="210" spans="1:7">
+      <c r="H209">
+        <v>220.922452503509</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
       <c r="A210">
         <v>1700436489.539775</v>
       </c>
@@ -5227,8 +5857,11 @@
       <c r="G210">
         <v>125.71</v>
       </c>
-    </row>
-    <row r="211" spans="1:7">
+      <c r="H210">
+        <v>221.9896994619899</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
       <c r="A211">
         <v>1700440331.61742</v>
       </c>
@@ -5250,8 +5883,11 @@
       <c r="G211">
         <v>126.156</v>
       </c>
-    </row>
-    <row r="212" spans="1:7">
+      <c r="H211">
+        <v>223.0569432522191</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
       <c r="A212">
         <v>1700444173.819625</v>
       </c>
@@ -5273,8 +5909,11 @@
       <c r="G212">
         <v>125.837</v>
       </c>
-    </row>
-    <row r="213" spans="1:7">
+      <c r="H212">
+        <v>224.1242216425472</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
       <c r="A213">
         <v>1700448015.898946</v>
       </c>
@@ -5296,8 +5935,11 @@
       <c r="G213">
         <v>125.383</v>
       </c>
-    </row>
-    <row r="214" spans="1:7">
+      <c r="H213">
+        <v>225.1914658982886</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
       <c r="A214">
         <v>1700451857.945678</v>
       </c>
@@ -5319,8 +5961,11 @@
       <c r="G214">
         <v>125.372</v>
       </c>
-    </row>
-    <row r="215" spans="1:7">
+      <c r="H214">
+        <v>226.2587011017402</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8">
       <c r="A215">
         <v>1700455700.0156</v>
       </c>
@@ -5342,8 +5987,11 @@
       <c r="G215">
         <v>125.083</v>
       </c>
-    </row>
-    <row r="216" spans="1:7">
+      <c r="H215">
+        <v>227.3259427466657</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8">
       <c r="A216">
         <v>1700459542.180408</v>
       </c>
@@ -5365,8 +6013,11 @@
       <c r="G216">
         <v>124.726</v>
       </c>
-    </row>
-    <row r="217" spans="1:7">
+      <c r="H216">
+        <v>228.3932107488314</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8">
       <c r="A217">
         <v>1700463384.271059</v>
       </c>
@@ -5388,8 +6039,11 @@
       <c r="G217">
         <v>124.58</v>
       </c>
-    </row>
-    <row r="218" spans="1:7">
+      <c r="H217">
+        <v>229.4604581520292</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8">
       <c r="A218">
         <v>1700467226.328428</v>
       </c>
@@ -5411,8 +6065,11 @@
       <c r="G218">
         <v>124.033</v>
       </c>
-    </row>
-    <row r="219" spans="1:7">
+      <c r="H218">
+        <v>230.5276963100168</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8">
       <c r="A219">
         <v>1700471068.38257</v>
       </c>
@@ -5434,8 +6091,11 @@
       <c r="G219">
         <v>123.569</v>
       </c>
-    </row>
-    <row r="220" spans="1:7">
+      <c r="H219">
+        <v>231.594933571683</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8">
       <c r="A220">
         <v>1700474910.532504</v>
       </c>
@@ -5457,8 +6117,11 @@
       <c r="G220">
         <v>123.667</v>
       </c>
-    </row>
-    <row r="221" spans="1:7">
+      <c r="H220">
+        <v>232.6621974422534</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8">
       <c r="A221">
         <v>1700478752.632332</v>
       </c>
@@ -5480,8 +6143,11 @@
       <c r="G221">
         <v>123.662</v>
       </c>
-    </row>
-    <row r="222" spans="1:7">
+      <c r="H221">
+        <v>233.7294473943445</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8">
       <c r="A222">
         <v>1700482594.695863</v>
       </c>
@@ -5503,8 +6169,11 @@
       <c r="G222">
         <v>123.249</v>
       </c>
-    </row>
-    <row r="223" spans="1:7">
+      <c r="H222">
+        <v>234.7966872641775</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8">
       <c r="A223">
         <v>1700486436.808968</v>
       </c>
@@ -5526,8 +6195,11 @@
       <c r="G223">
         <v>123.244</v>
       </c>
-    </row>
-    <row r="224" spans="1:7">
+      <c r="H223">
+        <v>235.8639409043392</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8">
       <c r="A224">
         <v>1700490278.91758</v>
       </c>
@@ -5549,8 +6221,11 @@
       <c r="G224">
         <v>123.607</v>
       </c>
-    </row>
-    <row r="225" spans="1:7">
+      <c r="H224">
+        <v>236.9311932966444</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8">
       <c r="A225">
         <v>1700494121.041083</v>
       </c>
@@ -5572,8 +6247,11 @@
       <c r="G225">
         <v>123.596</v>
       </c>
-    </row>
-    <row r="226" spans="1:7">
+      <c r="H225">
+        <v>237.9984498253133</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8">
       <c r="A226">
         <v>1700497963.09332</v>
       </c>
@@ -5595,8 +6273,11 @@
       <c r="G226">
         <v>123.731</v>
       </c>
-    </row>
-    <row r="227" spans="1:7">
+      <c r="H226">
+        <v>239.065686557889</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8">
       <c r="A227">
         <v>1700501805.150749</v>
       </c>
@@ -5618,8 +6299,11 @@
       <c r="G227">
         <v>123.392</v>
       </c>
-    </row>
-    <row r="228" spans="1:7">
+      <c r="H227">
+        <v>240.1329247326321</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8">
       <c r="A228">
         <v>1700505647.275265</v>
       </c>
@@ -5641,8 +6325,11 @@
       <c r="G228">
         <v>123.236</v>
       </c>
-    </row>
-    <row r="229" spans="1:7">
+      <c r="H228">
+        <v>241.2001815425025</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8">
       <c r="A229">
         <v>1700509489.300638</v>
       </c>
@@ -5664,8 +6351,11 @@
       <c r="G229">
         <v>123.374</v>
       </c>
-    </row>
-    <row r="230" spans="1:7">
+      <c r="H229">
+        <v>242.2674108127753</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8">
       <c r="A230">
         <v>1700513331.420708</v>
       </c>
@@ -5687,8 +6377,11 @@
       <c r="G230">
         <v>122.846</v>
       </c>
-    </row>
-    <row r="231" spans="1:7">
+      <c r="H230">
+        <v>243.3346663877699</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8">
       <c r="A231">
         <v>1700517173.527133</v>
       </c>
@@ -5710,8 +6403,11 @@
       <c r="G231">
         <v>123.388</v>
       </c>
-    </row>
-    <row r="232" spans="1:7">
+      <c r="H231">
+        <v>244.4019181723727</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8">
       <c r="A232">
         <v>1700521015.61063</v>
       </c>
@@ -5733,8 +6429,11 @@
       <c r="G232">
         <v>122.969</v>
       </c>
-    </row>
-    <row r="233" spans="1:7">
+      <c r="H232">
+        <v>245.4691635882192</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8">
       <c r="A233">
         <v>1700524857.695913</v>
       </c>
@@ -5756,8 +6455,11 @@
       <c r="G233">
         <v>122.754</v>
       </c>
-    </row>
-    <row r="234" spans="1:7">
+      <c r="H233">
+        <v>246.536409500175</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8">
       <c r="A234">
         <v>1700528699.755445</v>
       </c>
@@ -5779,8 +6481,11 @@
       <c r="G234">
         <v>122.594</v>
       </c>
-    </row>
-    <row r="235" spans="1:7">
+      <c r="H234">
+        <v>247.6036482591761</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8">
       <c r="A235">
         <v>1700532541.803055</v>
       </c>
@@ -5802,8 +6507,11 @@
       <c r="G235">
         <v>122.735</v>
       </c>
-    </row>
-    <row r="236" spans="1:7">
+      <c r="H235">
+        <v>248.6708837064107</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8">
       <c r="A236">
         <v>1700536383.886874</v>
       </c>
@@ -5825,8 +6533,11 @@
       <c r="G236">
         <v>122.32</v>
       </c>
-    </row>
-    <row r="237" spans="1:7">
+      <c r="H236">
+        <v>249.7381292117304</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8">
       <c r="A237">
         <v>1700540226.042499</v>
       </c>
@@ -5848,8 +6559,11 @@
       <c r="G237">
         <v>121.829</v>
       </c>
-    </row>
-    <row r="238" spans="1:7">
+      <c r="H237">
+        <v>250.8053946630822</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8">
       <c r="A238">
         <v>1700544068.168535</v>
       </c>
@@ -5871,8 +6585,11 @@
       <c r="G238">
         <v>121.454</v>
       </c>
-    </row>
-    <row r="239" spans="1:7">
+      <c r="H238">
+        <v>251.8726518952184</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8">
       <c r="A239">
         <v>1700547910.308384</v>
       </c>
@@ -5894,8 +6611,11 @@
       <c r="G239">
         <v>121.128</v>
       </c>
-    </row>
-    <row r="240" spans="1:7">
+      <c r="H239">
+        <v>252.9399129645692</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8">
       <c r="A240">
         <v>1700551752.392346</v>
       </c>
@@ -5917,8 +6637,11 @@
       <c r="G240">
         <v>120.801</v>
       </c>
-    </row>
-    <row r="241" spans="1:7">
+      <c r="H240">
+        <v>254.0071585093604</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8">
       <c r="A241">
         <v>1700555594.450032</v>
       </c>
@@ -5940,8 +6663,11 @@
       <c r="G241">
         <v>120.995</v>
       </c>
-    </row>
-    <row r="242" spans="1:7">
+      <c r="H241">
+        <v>255.0743967556291</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8">
       <c r="A242">
         <v>1700559436.525472</v>
       </c>
@@ -5963,8 +6689,11 @@
       <c r="G242">
         <v>121.365</v>
       </c>
-    </row>
-    <row r="243" spans="1:7">
+      <c r="H242">
+        <v>256.1416399334537</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8">
       <c r="A243">
         <v>1700563278.583205</v>
       </c>
@@ -5986,8 +6715,11 @@
       <c r="G243">
         <v>121.197</v>
       </c>
-    </row>
-    <row r="244" spans="1:7">
+      <c r="H243">
+        <v>257.2088781925705</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8">
       <c r="A244">
         <v>1700567120.672664</v>
       </c>
@@ -6009,8 +6741,11 @@
       <c r="G244">
         <v>120.966</v>
       </c>
-    </row>
-    <row r="245" spans="1:7">
+      <c r="H244">
+        <v>258.2761252645652</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8">
       <c r="A245">
         <v>1700570962.79398</v>
       </c>
@@ -6032,8 +6767,11 @@
       <c r="G245">
         <v>120.823</v>
       </c>
-    </row>
-    <row r="246" spans="1:7">
+      <c r="H245">
+        <v>259.3433811855316</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8">
       <c r="A246">
         <v>1700574804.930101</v>
       </c>
@@ -6055,8 +6793,11 @@
       <c r="G246">
         <v>120.961</v>
       </c>
-    </row>
-    <row r="247" spans="1:7">
+      <c r="H246">
+        <v>260.4106412192848</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8">
       <c r="A247">
         <v>1700578647.068308</v>
       </c>
@@ -6078,8 +6819,11 @@
       <c r="G247">
         <v>120.695</v>
       </c>
-    </row>
-    <row r="248" spans="1:7">
+      <c r="H247">
+        <v>261.4779018322627</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8">
       <c r="A248">
         <v>1700582489.148249</v>
       </c>
@@ -6101,8 +6845,11 @@
       <c r="G248">
         <v>120.71</v>
       </c>
-    </row>
-    <row r="249" spans="1:7">
+      <c r="H248">
+        <v>262.5451462602616</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8">
       <c r="A249">
         <v>1700586331.234627</v>
       </c>
@@ -6124,8 +6871,11 @@
       <c r="G249">
         <v>120.699</v>
       </c>
-    </row>
-    <row r="250" spans="1:7">
+      <c r="H249">
+        <v>263.6123924763997</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8">
       <c r="A250">
         <v>1700590173.358646</v>
       </c>
@@ -6147,8 +6897,11 @@
       <c r="G250">
         <v>121.339</v>
       </c>
-    </row>
-    <row r="251" spans="1:7">
+      <c r="H250">
+        <v>264.6796491483185</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8">
       <c r="A251">
         <v>1700594015.427756</v>
       </c>
@@ -6170,8 +6923,11 @@
       <c r="G251">
         <v>121.385</v>
       </c>
-    </row>
-    <row r="252" spans="1:7">
+      <c r="H251">
+        <v>265.746890567806</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8">
       <c r="A252">
         <v>1700597857.51816</v>
       </c>
@@ -6193,8 +6949,11 @@
       <c r="G252">
         <v>121.502</v>
       </c>
-    </row>
-    <row r="253" spans="1:7">
+      <c r="H252">
+        <v>266.8141379022598</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8">
       <c r="A253">
         <v>1700601699.557315</v>
       </c>
@@ -6216,8 +6975,11 @@
       <c r="G253">
         <v>121.456</v>
       </c>
-    </row>
-    <row r="254" spans="1:7">
+      <c r="H253">
+        <v>267.8813710007403</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8">
       <c r="A254">
         <v>1700605541.599388</v>
       </c>
@@ -6239,8 +7001,11 @@
       <c r="G254">
         <v>121.143</v>
       </c>
-    </row>
-    <row r="255" spans="1:7">
+      <c r="H254">
+        <v>268.9486049101088</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8">
       <c r="A255">
         <v>1700609383.706115</v>
       </c>
@@ -6262,8 +7027,11 @@
       <c r="G255">
         <v>120.732</v>
       </c>
-    </row>
-    <row r="256" spans="1:7">
+      <c r="H255">
+        <v>270.0158567787541</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8">
       <c r="A256">
         <v>1700613225.751813</v>
       </c>
@@ -6285,8 +7053,11 @@
       <c r="G256">
         <v>121.657</v>
       </c>
-    </row>
-    <row r="257" spans="1:7">
+      <c r="H256">
+        <v>271.0830916948451</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8">
       <c r="A257">
         <v>1700617067.813061</v>
       </c>
@@ -6308,8 +7079,11 @@
       <c r="G257">
         <v>121.861</v>
       </c>
-    </row>
-    <row r="258" spans="1:7">
+      <c r="H257">
+        <v>272.1503309303522</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8">
       <c r="A258">
         <v>1700620909.941444</v>
       </c>
@@ -6331,8 +7105,11 @@
       <c r="G258">
         <v>121.537</v>
       </c>
-    </row>
-    <row r="259" spans="1:7">
+      <c r="H258">
+        <v>273.2175888144308</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8">
       <c r="A259">
         <v>1700624752.027235</v>
       </c>
@@ -6354,8 +7131,11 @@
       <c r="G259">
         <v>120.974</v>
       </c>
-    </row>
-    <row r="260" spans="1:7">
+      <c r="H259">
+        <v>274.2848348675834</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8">
       <c r="A260">
         <v>1700628594.1167</v>
       </c>
@@ -6377,8 +7157,11 @@
       <c r="G260">
         <v>119.897</v>
       </c>
-    </row>
-    <row r="261" spans="1:7">
+      <c r="H260">
+        <v>275.3520819410351</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8">
       <c r="A261">
         <v>1700632436.160487</v>
       </c>
@@ -6400,8 +7183,11 @@
       <c r="G261">
         <v>118.79</v>
       </c>
-    </row>
-    <row r="262" spans="1:7">
+      <c r="H261">
+        <v>276.419316326446</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8">
       <c r="A262">
         <v>1700636278.294303</v>
       </c>
@@ -6423,8 +7209,11 @@
       <c r="G262">
         <v>118.107</v>
       </c>
-    </row>
-    <row r="263" spans="1:7">
+      <c r="H262">
+        <v>277.4865757196479</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8">
       <c r="A263">
         <v>1700640120.403271</v>
       </c>
@@ -6446,8 +7235,11 @@
       <c r="G263">
         <v>116.926</v>
       </c>
-    </row>
-    <row r="264" spans="1:7">
+      <c r="H263">
+        <v>278.5538282108307</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8">
       <c r="A264">
         <v>1700643962.500367</v>
       </c>
@@ -6469,8 +7261,11 @@
       <c r="G264">
         <v>116.271</v>
       </c>
-    </row>
-    <row r="265" spans="1:7">
+      <c r="H264">
+        <v>279.6210774042209</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8">
       <c r="A265">
         <v>1700647804.596642</v>
       </c>
@@ -6492,8 +7287,11 @@
       <c r="G265">
         <v>115.396</v>
       </c>
-    </row>
-    <row r="266" spans="1:7">
+      <c r="H265">
+        <v>280.6883263693916</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8">
       <c r="A266">
         <v>1700651646.704682</v>
       </c>
@@ -6515,8 +7313,11 @@
       <c r="G266">
         <v>114.671</v>
       </c>
-    </row>
-    <row r="267" spans="1:7">
+      <c r="H266">
+        <v>281.7555786028835</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8">
       <c r="A267">
         <v>1700655488.837654</v>
       </c>
@@ -6538,8 +7339,11 @@
       <c r="G267">
         <v>114.672</v>
       </c>
-    </row>
-    <row r="268" spans="1:7">
+      <c r="H267">
+        <v>282.8228377617068</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8">
       <c r="A268">
         <v>1700659330.919991</v>
       </c>
@@ -6561,8 +7365,11 @@
       <c r="G268">
         <v>115.084</v>
       </c>
-    </row>
-    <row r="269" spans="1:7">
+      <c r="H268">
+        <v>283.8900828552246</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8">
       <c r="A269">
         <v>1700663173.016685</v>
       </c>
@@ -6584,8 +7391,11 @@
       <c r="G269">
         <v>116.145</v>
       </c>
-    </row>
-    <row r="270" spans="1:7">
+      <c r="H269">
+        <v>284.9573319368892</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8">
       <c r="A270">
         <v>1700667015.054076</v>
       </c>
@@ -6607,8 +7417,11 @@
       <c r="G270">
         <v>117.348</v>
       </c>
-    </row>
-    <row r="271" spans="1:7">
+      <c r="H270">
+        <v>286.0245645456844</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8">
       <c r="A271">
         <v>1700670857.116607</v>
       </c>
@@ -6630,8 +7443,11 @@
       <c r="G271">
         <v>117.876</v>
       </c>
-    </row>
-    <row r="272" spans="1:7">
+      <c r="H271">
+        <v>287.0918041376273</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8">
       <c r="A272">
         <v>1700674699.182768</v>
       </c>
@@ -6653,8 +7469,11 @@
       <c r="G272">
         <v>118.504</v>
       </c>
-    </row>
-    <row r="273" spans="1:7">
+      <c r="H272">
+        <v>288.1590447376834</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8">
       <c r="A273">
         <v>1700678541.234622</v>
       </c>
@@ -6676,8 +7495,11 @@
       <c r="G273">
         <v>118.636</v>
       </c>
-    </row>
-    <row r="274" spans="1:7">
+      <c r="H273">
+        <v>289.2262813638316</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8">
       <c r="A274">
         <v>1700682383.37483</v>
       </c>
@@ -6699,8 +7521,11 @@
       <c r="G274">
         <v>118.274</v>
       </c>
-    </row>
-    <row r="275" spans="1:7">
+      <c r="H274">
+        <v>290.2935425327884</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8">
       <c r="A275">
         <v>1700686225.413811</v>
       </c>
@@ -6722,8 +7547,11 @@
       <c r="G275">
         <v>117.739</v>
       </c>
-    </row>
-    <row r="276" spans="1:7">
+      <c r="H275">
+        <v>291.360775582989</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8">
       <c r="A276">
         <v>1700690067.519302</v>
       </c>
@@ -6745,8 +7573,11 @@
       <c r="G276">
         <v>117.023</v>
       </c>
-    </row>
-    <row r="277" spans="1:7">
+      <c r="H276">
+        <v>292.4280271082454</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8">
       <c r="A277">
         <v>1700693909.604348</v>
       </c>
@@ -6768,8 +7599,11 @@
       <c r="G277">
         <v>116.825</v>
       </c>
-    </row>
-    <row r="278" spans="1:7">
+      <c r="H277">
+        <v>293.4952729544375</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8">
       <c r="A278">
         <v>1700697751.678012</v>
       </c>
@@ -6791,8 +7625,11 @@
       <c r="G278">
         <v>117.03</v>
       </c>
-    </row>
-    <row r="279" spans="1:7">
+      <c r="H278">
+        <v>294.5625156388018</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8">
       <c r="A279">
         <v>1700701593.80804</v>
       </c>
@@ -6814,8 +7651,11 @@
       <c r="G279">
         <v>117.245</v>
       </c>
-    </row>
-    <row r="280" spans="1:7">
+      <c r="H279">
+        <v>295.6297739799155</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8">
       <c r="A280">
         <v>1700705435.912914</v>
       </c>
@@ -6837,8 +7677,11 @@
       <c r="G280">
         <v>117.308</v>
       </c>
-    </row>
-    <row r="281" spans="1:7">
+      <c r="H280">
+        <v>296.6970253339078</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8">
       <c r="A281">
         <v>1700709278.020258</v>
       </c>
@@ -6860,8 +7703,11 @@
       <c r="G281">
         <v>117.015</v>
       </c>
-    </row>
-    <row r="282" spans="1:7">
+      <c r="H281">
+        <v>297.7642773738172</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8">
       <c r="A282">
         <v>1700713120.07832</v>
       </c>
@@ -6883,8 +7729,11 @@
       <c r="G282">
         <v>116.421</v>
       </c>
-    </row>
-    <row r="283" spans="1:7">
+      <c r="H282">
+        <v>298.8315157243941</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8">
       <c r="A283">
         <v>1700716962.134724</v>
       </c>
@@ -6906,8 +7755,11 @@
       <c r="G283">
         <v>116.292</v>
       </c>
-    </row>
-    <row r="284" spans="1:7">
+      <c r="H283">
+        <v>299.8987536143594</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8">
       <c r="A284">
         <v>1700720804.295425</v>
       </c>
@@ -6929,8 +7781,11 @@
       <c r="G284">
         <v>116.818</v>
       </c>
-    </row>
-    <row r="285" spans="1:7">
+      <c r="H284">
+        <v>300.9660204758247</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8">
       <c r="A285">
         <v>1700724646.308078</v>
       </c>
@@ -6952,8 +7807,11 @@
       <c r="G285">
         <v>116.737</v>
       </c>
-    </row>
-    <row r="286" spans="1:7">
+      <c r="H285">
+        <v>302.0332462128666</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8">
       <c r="A286">
         <v>1700728488.390095</v>
       </c>
@@ -6975,8 +7833,11 @@
       <c r="G286">
         <v>116.145</v>
       </c>
-    </row>
-    <row r="287" spans="1:7">
+      <c r="H286">
+        <v>303.1004912173748</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8">
       <c r="A287">
         <v>1700732330.471857</v>
       </c>
@@ -6998,8 +7859,11 @@
       <c r="G287">
         <v>115.605</v>
       </c>
-    </row>
-    <row r="288" spans="1:7">
+      <c r="H287">
+        <v>304.1677361514171</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8">
       <c r="A288">
         <v>1700736172.517504</v>
       </c>
@@ -7021,8 +7885,11 @@
       <c r="G288">
         <v>114.791</v>
       </c>
-    </row>
-    <row r="289" spans="1:7">
+      <c r="H288">
+        <v>305.2349710534016</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8">
       <c r="A289">
         <v>1700740014.663732</v>
       </c>
@@ -7044,8 +7911,11 @@
       <c r="G289">
         <v>114.306</v>
       </c>
-    </row>
-    <row r="290" spans="1:7">
+      <c r="H289">
+        <v>306.3022338944673</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8">
       <c r="A290">
         <v>1700743856.743602</v>
       </c>
@@ -7067,8 +7937,11 @@
       <c r="G290">
         <v>114.888</v>
       </c>
-    </row>
-    <row r="291" spans="1:7">
+      <c r="H290">
+        <v>307.3694783027967</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8">
       <c r="A291">
         <v>1700747698.816807</v>
       </c>
@@ -7090,8 +7963,11 @@
       <c r="G291">
         <v>115.409</v>
       </c>
-    </row>
-    <row r="292" spans="1:7">
+      <c r="H291">
+        <v>308.4367208598057</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8">
       <c r="A292">
         <v>1700751540.93865</v>
       </c>
@@ -7113,8 +7989,11 @@
       <c r="G292">
         <v>115.678</v>
       </c>
-    </row>
-    <row r="293" spans="1:7">
+      <c r="H292">
+        <v>309.5039769273334</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8">
       <c r="A293">
         <v>1700755383.036108</v>
       </c>
@@ -7136,8 +8015,11 @@
       <c r="G293">
         <v>116.117</v>
       </c>
-    </row>
-    <row r="294" spans="1:7">
+      <c r="H293">
+        <v>310.5712262210581</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8">
       <c r="A294">
         <v>1700759225.092645</v>
       </c>
@@ -7159,8 +8041,11 @@
       <c r="G294">
         <v>116.385</v>
       </c>
-    </row>
-    <row r="295" spans="1:7">
+      <c r="H294">
+        <v>311.6384641479784</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8">
       <c r="A295">
         <v>1700763067.174035</v>
       </c>
@@ -7182,8 +8067,11 @@
       <c r="G295">
         <v>116.523</v>
       </c>
-    </row>
-    <row r="296" spans="1:7">
+      <c r="H295">
+        <v>312.7057089785735</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8">
       <c r="A296">
         <v>1700766909.303335</v>
       </c>
@@ -7205,8 +8093,11 @@
       <c r="G296">
         <v>116.714</v>
       </c>
-    </row>
-    <row r="297" spans="1:7">
+      <c r="H296">
+        <v>313.7729671176274</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8">
       <c r="A297">
         <v>1700770751.372306</v>
       </c>
@@ -7228,8 +8119,11 @@
       <c r="G297">
         <v>116.939</v>
       </c>
-    </row>
-    <row r="298" spans="1:7">
+      <c r="H297">
+        <v>314.8402084982395</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8">
       <c r="A298">
         <v>1700774593.466659</v>
       </c>
@@ -7251,8 +8145,11 @@
       <c r="G298">
         <v>117.001</v>
       </c>
-    </row>
-    <row r="299" spans="1:7">
+      <c r="H298">
+        <v>315.9074569296837</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8">
       <c r="A299">
         <v>1700778435.579116</v>
       </c>
@@ -7274,8 +8171,11 @@
       <c r="G299">
         <v>116.969</v>
       </c>
-    </row>
-    <row r="300" spans="1:7">
+      <c r="H299">
+        <v>316.9747103901042</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8">
       <c r="A300">
         <v>1700782277.667197</v>
       </c>
@@ -7297,8 +8197,11 @@
       <c r="G300">
         <v>116.729</v>
       </c>
-    </row>
-    <row r="301" spans="1:7">
+      <c r="H300">
+        <v>318.0419570792384</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8">
       <c r="A301">
         <v>1700786119.789927</v>
       </c>
@@ -7320,8 +8223,11 @@
       <c r="G301">
         <v>116.021</v>
       </c>
-    </row>
-    <row r="302" spans="1:7">
+      <c r="H301">
+        <v>319.1092133931319</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8">
       <c r="A302">
         <v>1700789961.865583</v>
       </c>
@@ -7343,8 +8249,11 @@
       <c r="G302">
         <v>115.413</v>
       </c>
-    </row>
-    <row r="303" spans="1:7">
+      <c r="H302">
+        <v>320.1764566308922</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8">
       <c r="A303">
         <v>1700793803.922404</v>
       </c>
@@ -7366,8 +8275,11 @@
       <c r="G303">
         <v>114.511</v>
       </c>
-    </row>
-    <row r="304" spans="1:7">
+      <c r="H303">
+        <v>321.2436946367555</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8">
       <c r="A304">
         <v>1700797646.005177</v>
       </c>
@@ -7389,8 +8301,11 @@
       <c r="G304">
         <v>113.588</v>
       </c>
-    </row>
-    <row r="305" spans="1:7">
+      <c r="H304">
+        <v>322.3109398514032</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8">
       <c r="A305">
         <v>1700801488.109904</v>
       </c>
@@ -7412,8 +8327,11 @@
       <c r="G305">
         <v>112.611</v>
       </c>
-    </row>
-    <row r="306" spans="1:7">
+      <c r="H305">
+        <v>323.3781911645333</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8">
       <c r="A306">
         <v>1700805330.248712</v>
       </c>
@@ -7435,8 +8353,11 @@
       <c r="G306">
         <v>111.444</v>
       </c>
-    </row>
-    <row r="307" spans="1:7">
+      <c r="H306">
+        <v>324.4454519445366</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8">
       <c r="A307">
         <v>1700809172.277906</v>
       </c>
@@ -7458,8 +8379,11 @@
       <c r="G307">
         <v>110.71</v>
       </c>
-    </row>
-    <row r="308" spans="1:7">
+      <c r="H307">
+        <v>325.512682276037</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8">
       <c r="A308">
         <v>1700813014.375968</v>
       </c>
@@ -7481,8 +8405,11 @@
       <c r="G308">
         <v>109.837</v>
       </c>
-    </row>
-    <row r="309" spans="1:7">
+      <c r="H308">
+        <v>326.5799317378468</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8">
       <c r="A309">
         <v>1700816856.456832</v>
       </c>
@@ -7504,8 +8431,11 @@
       <c r="G309">
         <v>109.336</v>
       </c>
-    </row>
-    <row r="310" spans="1:7">
+      <c r="H309">
+        <v>327.6471764222781</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8">
       <c r="A310">
         <v>1700820698.561511</v>
       </c>
@@ -7527,8 +8457,11 @@
       <c r="G310">
         <v>108.784</v>
       </c>
-    </row>
-    <row r="311" spans="1:7">
+      <c r="H310">
+        <v>328.7144277220302</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8">
       <c r="A311">
         <v>1700824540.659208</v>
       </c>
@@ -7550,8 +8483,11 @@
       <c r="G311">
         <v>108.17</v>
       </c>
-    </row>
-    <row r="312" spans="1:7">
+      <c r="H311">
+        <v>329.7816770821148</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8">
       <c r="A312">
         <v>1700828382.784588</v>
       </c>
@@ -7573,8 +8509,11 @@
       <c r="G312">
         <v>107.816</v>
       </c>
-    </row>
-    <row r="313" spans="1:7">
+      <c r="H312">
+        <v>330.8489341321256</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8">
       <c r="A313">
         <v>1700832224.747034</v>
       </c>
@@ -7596,8 +8535,11 @@
       <c r="G313">
         <v>107.876</v>
       </c>
-    </row>
-    <row r="314" spans="1:7">
+      <c r="H313">
+        <v>331.9161459228728</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8">
       <c r="A314">
         <v>1700836066.812277</v>
       </c>
@@ -7619,8 +8561,11 @@
       <c r="G314">
         <v>108.668</v>
       </c>
-    </row>
-    <row r="315" spans="1:7">
+      <c r="H314">
+        <v>332.9833862681521</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8">
       <c r="A315">
         <v>1700839908.924291</v>
       </c>
@@ -7642,8 +8587,11 @@
       <c r="G315">
         <v>108.875</v>
       </c>
-    </row>
-    <row r="316" spans="1:7">
+      <c r="H315">
+        <v>334.0506396053897</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8">
       <c r="A316">
         <v>1700843750.965666</v>
       </c>
@@ -7665,8 +8613,11 @@
       <c r="G316">
         <v>108.757</v>
       </c>
-    </row>
-    <row r="317" spans="1:7">
+      <c r="H316">
+        <v>335.1178733205133</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8">
       <c r="A317">
         <v>1700847593.066349</v>
       </c>
@@ -7688,8 +8639,11 @@
       <c r="G317">
         <v>108.404</v>
       </c>
-    </row>
-    <row r="318" spans="1:7">
+      <c r="H317">
+        <v>336.1851235103607</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8">
       <c r="A318">
         <v>1700851435.164045</v>
       </c>
@@ -7711,8 +8665,11 @@
       <c r="G318">
         <v>108.067</v>
       </c>
-    </row>
-    <row r="319" spans="1:7">
+      <c r="H318">
+        <v>337.2523728703128</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8">
       <c r="A319">
         <v>1700855277.281775</v>
       </c>
@@ -7734,8 +8691,11 @@
       <c r="G319">
         <v>109.314</v>
       </c>
-    </row>
-    <row r="320" spans="1:7">
+      <c r="H319">
+        <v>338.3196277952857</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8">
       <c r="A320">
         <v>1700859119.336955</v>
       </c>
@@ -7757,8 +8717,11 @@
       <c r="G320">
         <v>110.713</v>
       </c>
-    </row>
-    <row r="321" spans="1:7">
+      <c r="H320">
+        <v>339.3868653451734</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8">
       <c r="A321">
         <v>1700862961.464453</v>
       </c>
@@ -7780,8 +8743,11 @@
       <c r="G321">
         <v>112.424</v>
       </c>
-    </row>
-    <row r="322" spans="1:7">
+      <c r="H321">
+        <v>340.4541229836146</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8">
       <c r="A322">
         <v>1700866803.565674</v>
       </c>
@@ -7803,8 +8769,11 @@
       <c r="G322">
         <v>113.559</v>
       </c>
-    </row>
-    <row r="323" spans="1:7">
+      <c r="H322">
+        <v>341.5213733228048</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8">
       <c r="A323">
         <v>1700870645.626712</v>
       </c>
@@ -7826,8 +8795,11 @@
       <c r="G323">
         <v>113.546</v>
       </c>
-    </row>
-    <row r="324" spans="1:7">
+      <c r="H323">
+        <v>342.5886125000318</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8">
       <c r="A324">
         <v>1700874487.723075</v>
       </c>
@@ -7849,8 +8821,11 @@
       <c r="G324">
         <v>112.339</v>
       </c>
-    </row>
-    <row r="325" spans="1:7">
+      <c r="H324">
+        <v>343.6558614897728</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8">
       <c r="A325">
         <v>1700878329.846955</v>
       </c>
@@ -7872,8 +8847,11 @@
       <c r="G325">
         <v>111.577</v>
       </c>
-    </row>
-    <row r="326" spans="1:7">
+      <c r="H325">
+        <v>344.723118123081</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8">
       <c r="A326">
         <v>1700882171.896837</v>
       </c>
@@ -7895,8 +8873,11 @@
       <c r="G326">
         <v>110.952</v>
       </c>
-    </row>
-    <row r="327" spans="1:7">
+      <c r="H326">
+        <v>345.7903542014625</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8">
       <c r="A327">
         <v>1700886014.023209</v>
       </c>
@@ -7918,8 +8899,11 @@
       <c r="G327">
         <v>110.456</v>
       </c>
-    </row>
-    <row r="328" spans="1:7">
+      <c r="H327">
+        <v>346.8576115269131</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8">
       <c r="A328">
         <v>1700889856.138488</v>
       </c>
@@ -7941,8 +8925,11 @@
       <c r="G328">
         <v>110.098</v>
       </c>
-    </row>
-    <row r="329" spans="1:7">
+      <c r="H328">
+        <v>347.9248657712009</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8">
       <c r="A329">
         <v>1700893698.254538</v>
       </c>
@@ -7964,8 +8951,11 @@
       <c r="G329">
         <v>109.138</v>
       </c>
-    </row>
-    <row r="330" spans="1:7">
+      <c r="H329">
+        <v>348.9921202293369</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8">
       <c r="A330">
         <v>1700897540.344813</v>
       </c>
@@ -7987,8 +8977,11 @@
       <c r="G330">
         <v>108.25</v>
       </c>
-    </row>
-    <row r="331" spans="1:7">
+      <c r="H330">
+        <v>350.059367528028</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8">
       <c r="A331">
         <v>1700901382.467308</v>
       </c>
@@ -8010,8 +9003,11 @@
       <c r="G331">
         <v>107.462</v>
       </c>
-    </row>
-    <row r="332" spans="1:7">
+      <c r="H331">
+        <v>351.1266237767537</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8">
       <c r="A332">
         <v>1700905224.53933</v>
       </c>
@@ -8033,8 +9029,11 @@
       <c r="G332">
         <v>106.945</v>
       </c>
-    </row>
-    <row r="333" spans="1:7">
+      <c r="H332">
+        <v>352.1938660050101</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8">
       <c r="A333">
         <v>1700909066.615008</v>
       </c>
@@ -8056,8 +9055,11 @@
       <c r="G333">
         <v>106.36</v>
       </c>
-    </row>
-    <row r="334" spans="1:7">
+      <c r="H333">
+        <v>353.2611092489295</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8">
       <c r="A334">
         <v>1700912908.731286</v>
       </c>
@@ -8079,8 +9081,11 @@
       <c r="G334">
         <v>105.764</v>
       </c>
-    </row>
-    <row r="335" spans="1:7">
+      <c r="H334">
+        <v>354.3283637706439</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8">
       <c r="A335">
         <v>1700916750.789289</v>
       </c>
@@ -8102,8 +9107,11 @@
       <c r="G335">
         <v>105.376</v>
       </c>
-    </row>
-    <row r="336" spans="1:7">
+      <c r="H335">
+        <v>355.3956021046639</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8">
       <c r="A336">
         <v>1700920592.861067</v>
       </c>
@@ -8125,8 +9133,11 @@
       <c r="G336">
         <v>104.996</v>
       </c>
-    </row>
-    <row r="337" spans="1:7">
+      <c r="H336">
+        <v>356.462844265302</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8">
       <c r="A337">
         <v>1700924434.966266</v>
       </c>
@@ -8148,8 +9159,11 @@
       <c r="G337">
         <v>105.01</v>
       </c>
-    </row>
-    <row r="338" spans="1:7">
+      <c r="H337">
+        <v>357.5300957094961</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8">
       <c r="A338">
         <v>1700928277.104976</v>
       </c>
@@ -8171,8 +9185,11 @@
       <c r="G338">
         <v>104.51</v>
       </c>
-    </row>
-    <row r="339" spans="1:7">
+      <c r="H338">
+        <v>358.5973564622799</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8">
       <c r="A339">
         <v>1700932119.225618</v>
       </c>
@@ -8194,8 +9211,11 @@
       <c r="G339">
         <v>104.299</v>
       </c>
-    </row>
-    <row r="340" spans="1:7">
+      <c r="H339">
+        <v>359.6646121960878</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8">
       <c r="A340">
         <v>1700935961.309092</v>
       </c>
@@ -8217,8 +9237,11 @@
       <c r="G340">
         <v>103.878</v>
       </c>
-    </row>
-    <row r="341" spans="1:7">
+      <c r="H340">
+        <v>360.7318576056427</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8">
       <c r="A341">
         <v>1700939803.381668</v>
       </c>
@@ -8240,8 +9263,11 @@
       <c r="G341">
         <v>103.921</v>
       </c>
-    </row>
-    <row r="342" spans="1:7">
+      <c r="H341">
+        <v>361.7990999876791</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8">
       <c r="A342">
         <v>1700943645.421519</v>
       </c>
@@ -8263,8 +9289,11 @@
       <c r="G342">
         <v>104.193</v>
       </c>
-    </row>
-    <row r="343" spans="1:7">
+      <c r="H342">
+        <v>362.8663332797422</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8">
       <c r="A343">
         <v>1700947487.488677</v>
       </c>
@@ -8286,8 +9315,11 @@
       <c r="G343">
         <v>104.852</v>
       </c>
-    </row>
-    <row r="344" spans="1:7">
+      <c r="H343">
+        <v>363.9335741570261</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8">
       <c r="A344">
         <v>1700951329.616213</v>
       </c>
@@ -8309,8 +9341,11 @@
       <c r="G344">
         <v>105.341</v>
       </c>
-    </row>
-    <row r="345" spans="1:7">
+      <c r="H344">
+        <v>365.0008318058649</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8">
       <c r="A345">
         <v>1700955171.77898</v>
       </c>
@@ -8332,8 +9367,11 @@
       <c r="G345">
         <v>105.402</v>
       </c>
-    </row>
-    <row r="346" spans="1:7">
+      <c r="H345">
+        <v>366.0680992412567</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8">
       <c r="A346">
         <v>1700959013.892959</v>
       </c>
@@ -8355,8 +9393,11 @@
       <c r="G346">
         <v>105.282</v>
       </c>
-    </row>
-    <row r="347" spans="1:7">
+      <c r="H346">
+        <v>367.1353531241417</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8">
       <c r="A347">
         <v>1700962855.95322</v>
       </c>
@@ -8378,8 +9419,11 @@
       <c r="G347">
         <v>105.202</v>
       </c>
-    </row>
-    <row r="348" spans="1:7">
+      <c r="H347">
+        <v>368.2025920856661</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8">
       <c r="A348">
         <v>1700966698.132314</v>
       </c>
@@ -8401,8 +9445,11 @@
       <c r="G348">
         <v>104.87</v>
       </c>
-    </row>
-    <row r="349" spans="1:7">
+      <c r="H348">
+        <v>369.2698640561104</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8">
       <c r="A349">
         <v>1700970540.266659</v>
       </c>
@@ -8424,8 +9471,11 @@
       <c r="G349">
         <v>104.591</v>
       </c>
-    </row>
-    <row r="350" spans="1:7">
+      <c r="H349">
+        <v>370.3371235964696</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8">
       <c r="A350">
         <v>1700974382.352082</v>
       </c>
@@ -8447,8 +9497,11 @@
       <c r="G350">
         <v>104.371</v>
       </c>
-    </row>
-    <row r="351" spans="1:7">
+      <c r="H350">
+        <v>371.4043695473671</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8">
       <c r="A351">
         <v>1700978224.374749</v>
       </c>
@@ -8470,8 +9523,11 @@
       <c r="G351">
         <v>104.06</v>
       </c>
-    </row>
-    <row r="352" spans="1:7">
+      <c r="H351">
+        <v>372.4715980658929</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8">
       <c r="A352">
         <v>1700982066.488839</v>
       </c>
@@ -8493,8 +9549,11 @@
       <c r="G352">
         <v>103.889</v>
       </c>
-    </row>
-    <row r="353" spans="1:7">
+      <c r="H352">
+        <v>373.5388519798385</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8">
       <c r="A353">
         <v>1700985908.659198</v>
       </c>
@@ -8516,8 +9575,11 @@
       <c r="G353">
         <v>103.661</v>
       </c>
-    </row>
-    <row r="354" spans="1:7">
+      <c r="H353">
+        <v>374.6061215239763</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8">
       <c r="A354">
         <v>1700989750.744104</v>
       </c>
@@ -8539,8 +9601,11 @@
       <c r="G354">
         <v>103.29</v>
       </c>
-    </row>
-    <row r="355" spans="1:7">
+      <c r="H354">
+        <v>375.6733673310942</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8">
       <c r="A355">
         <v>1700993592.834774</v>
       </c>
@@ -8562,8 +9627,11 @@
       <c r="G355">
         <v>103.128</v>
       </c>
-    </row>
-    <row r="356" spans="1:7">
+      <c r="H355">
+        <v>376.7406147395902</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8">
       <c r="A356">
         <v>1700997434.905445</v>
       </c>
@@ -8585,8 +9653,11 @@
       <c r="G356">
         <v>102.946</v>
       </c>
-    </row>
-    <row r="357" spans="1:7">
+      <c r="H356">
+        <v>377.807856592536</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8">
       <c r="A357">
         <v>1701001277.012896</v>
       </c>
@@ -8608,8 +9679,11 @@
       <c r="G357">
         <v>102.57</v>
       </c>
-    </row>
-    <row r="358" spans="1:7">
+      <c r="H357">
+        <v>378.8751086621814</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8">
       <c r="A358">
         <v>1701005119.031006</v>
       </c>
@@ -8631,8 +9705,11 @@
       <c r="G358">
         <v>102.529</v>
       </c>
-    </row>
-    <row r="359" spans="1:7">
+      <c r="H358">
+        <v>379.9423359150357</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8">
       <c r="A359">
         <v>1701008961.095147</v>
       </c>
@@ -8654,8 +9731,11 @@
       <c r="G359">
         <v>102.149</v>
       </c>
-    </row>
-    <row r="360" spans="1:7">
+      <c r="H359">
+        <v>381.0095759542783</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8">
       <c r="A360">
         <v>1701012803.211123</v>
       </c>
@@ -8677,8 +9757,11 @@
       <c r="G360">
         <v>102.095</v>
       </c>
-    </row>
-    <row r="361" spans="1:7">
+      <c r="H360">
+        <v>382.0768303919501</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8">
       <c r="A361">
         <v>1701016645.25541</v>
       </c>
@@ -8700,8 +9783,11 @@
       <c r="G361">
         <v>101.822</v>
       </c>
-    </row>
-    <row r="362" spans="1:7">
+      <c r="H361">
+        <v>383.1440649160411</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8">
       <c r="A362">
         <v>1701020487.327334</v>
       </c>
@@ -8723,8 +9809,11 @@
       <c r="G362">
         <v>101.538</v>
       </c>
-    </row>
-    <row r="363" spans="1:7">
+      <c r="H362">
+        <v>384.2113071171443</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8">
       <c r="A363">
         <v>1701024329.380498</v>
       </c>
@@ -8746,8 +9835,11 @@
       <c r="G363">
         <v>101.569</v>
       </c>
-    </row>
-    <row r="364" spans="1:7">
+      <c r="H363">
+        <v>385.2785441073444</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8">
       <c r="A364">
         <v>1701028171.526601</v>
       </c>
@@ -8769,8 +9861,11 @@
       <c r="G364">
         <v>101.406</v>
       </c>
-    </row>
-    <row r="365" spans="1:7">
+      <c r="H364">
+        <v>386.3458069136408</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8">
       <c r="A365">
         <v>1701032013.590902</v>
       </c>
@@ -8792,8 +9887,11 @@
       <c r="G365">
         <v>101.669</v>
       </c>
-    </row>
-    <row r="366" spans="1:7">
+      <c r="H365">
+        <v>387.4130469972558</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8">
       <c r="A366">
         <v>1701035855.647271</v>
       </c>
@@ -8815,8 +9913,11 @@
       <c r="G366">
         <v>102.293</v>
       </c>
-    </row>
-    <row r="367" spans="1:7">
+      <c r="H366">
+        <v>388.4802848775519</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8">
       <c r="A367">
         <v>1701039697.856362</v>
       </c>
@@ -8838,8 +9939,11 @@
       <c r="G367">
         <v>102.842</v>
       </c>
-    </row>
-    <row r="368" spans="1:7">
+      <c r="H367">
+        <v>389.547565180593</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8">
       <c r="A368">
         <v>1701043539.931497</v>
       </c>
@@ -8861,8 +9965,11 @@
       <c r="G368">
         <v>103.021</v>
       </c>
-    </row>
-    <row r="369" spans="1:7">
+      <c r="H368">
+        <v>390.6148082735141</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8">
       <c r="A369">
         <v>1701047381.982524</v>
       </c>
@@ -8884,8 +9991,11 @@
       <c r="G369">
         <v>103.071</v>
       </c>
-    </row>
-    <row r="370" spans="1:7">
+      <c r="H369">
+        <v>391.6820446699858</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8">
       <c r="A370">
         <v>1701051224.036418</v>
       </c>
@@ -8907,8 +10017,11 @@
       <c r="G370">
         <v>102.869</v>
       </c>
-    </row>
-    <row r="371" spans="1:7">
+      <c r="H370">
+        <v>392.7492818628417</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8">
       <c r="A371">
         <v>1701055066.122196</v>
       </c>
@@ -8930,8 +10043,11 @@
       <c r="G371">
         <v>102.724</v>
       </c>
-    </row>
-    <row r="372" spans="1:7">
+      <c r="H371">
+        <v>393.8165279122194</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8">
       <c r="A372">
         <v>1701058908.234571</v>
       </c>
@@ -8953,8 +10069,11 @@
       <c r="G372">
         <v>102.365</v>
       </c>
-    </row>
-    <row r="373" spans="1:7">
+      <c r="H372">
+        <v>394.8837813497252</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8">
       <c r="A373">
         <v>1701062750.346745</v>
       </c>
@@ -8976,8 +10095,11 @@
       <c r="G373">
         <v>102.164</v>
       </c>
-    </row>
-    <row r="374" spans="1:7">
+      <c r="H373">
+        <v>395.9510347313351</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8">
       <c r="A374">
         <v>1701066592.404126</v>
       </c>
@@ -8999,8 +10121,11 @@
       <c r="G374">
         <v>102.279</v>
       </c>
-    </row>
-    <row r="375" spans="1:7">
+      <c r="H374">
+        <v>397.0182728927003</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8">
       <c r="A375">
         <v>1701070434.456991</v>
       </c>
@@ -9022,8 +10147,11 @@
       <c r="G375">
         <v>101.889</v>
       </c>
-    </row>
-    <row r="376" spans="1:7">
+      <c r="H375">
+        <v>398.0855097997189</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8">
       <c r="A376">
         <v>1701074276.536786</v>
       </c>
@@ -9045,8 +10173,11 @@
       <c r="G376">
         <v>101.853</v>
       </c>
-    </row>
-    <row r="377" spans="1:7">
+      <c r="H376">
+        <v>399.1527541872528</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8">
       <c r="A377">
         <v>1701078118.648198</v>
       </c>
@@ -9068,8 +10199,11 @@
       <c r="G377">
         <v>101.571</v>
       </c>
-    </row>
-    <row r="378" spans="1:7">
+      <c r="H377">
+        <v>400.2200073573325</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8">
       <c r="A378">
         <v>1701081960.716444</v>
       </c>
@@ -9091,8 +10225,11 @@
       <c r="G378">
         <v>101.573</v>
       </c>
-    </row>
-    <row r="379" spans="1:7">
+      <c r="H378">
+        <v>401.2872485368119</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8">
       <c r="A379">
         <v>1701085802.773921</v>
       </c>
@@ -9114,8 +10251,11 @@
       <c r="G379">
         <v>101.598</v>
       </c>
-    </row>
-    <row r="380" spans="1:7">
+      <c r="H379">
+        <v>402.3544867246681</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8">
       <c r="A380">
         <v>1701089644.865678</v>
       </c>
@@ -9137,8 +10277,11 @@
       <c r="G380">
         <v>101.732</v>
       </c>
-    </row>
-    <row r="381" spans="1:7">
+      <c r="H380">
+        <v>403.4217344350947</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8">
       <c r="A381">
         <v>1701093486.93111</v>
       </c>
@@ -9160,8 +10303,11 @@
       <c r="G381">
         <v>102.294</v>
       </c>
-    </row>
-    <row r="382" spans="1:7">
+      <c r="H381">
+        <v>404.4889748327599</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8">
       <c r="A382">
         <v>1701097328.978936</v>
       </c>
@@ -9183,8 +10329,11 @@
       <c r="G382">
         <v>103.092</v>
       </c>
-    </row>
-    <row r="383" spans="1:7">
+      <c r="H382">
+        <v>405.5562103399303</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8">
       <c r="A383">
         <v>1701101170.971653</v>
       </c>
@@ -9206,8 +10355,11 @@
       <c r="G383">
         <v>103.52</v>
       </c>
-    </row>
-    <row r="384" spans="1:7">
+      <c r="H383">
+        <v>406.6234305391047</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8">
       <c r="A384">
         <v>1701105013.047657</v>
       </c>
@@ -9229,8 +10381,11 @@
       <c r="G384">
         <v>104.031</v>
       </c>
-    </row>
-    <row r="385" spans="1:7">
+      <c r="H384">
+        <v>407.6906738737557</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8">
       <c r="A385">
         <v>1701108855.152627</v>
       </c>
@@ -9252,8 +10407,11 @@
       <c r="G385">
         <v>104.31</v>
       </c>
-    </row>
-    <row r="386" spans="1:7">
+      <c r="H385">
+        <v>408.7579252540403</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8">
       <c r="A386">
         <v>1701112697.211246</v>
       </c>
@@ -9275,8 +10433,11 @@
       <c r="G386">
         <v>104.502</v>
       </c>
-    </row>
-    <row r="387" spans="1:7">
+      <c r="H386">
+        <v>409.8251637593243</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8">
       <c r="A387">
         <v>1701116539.292234</v>
       </c>
@@ -9298,8 +10459,11 @@
       <c r="G387">
         <v>104.288</v>
       </c>
-    </row>
-    <row r="388" spans="1:7">
+      <c r="H387">
+        <v>410.8924084784587</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8">
       <c r="A388">
         <v>1701120381.350604</v>
       </c>
@@ -9321,8 +10485,11 @@
       <c r="G388">
         <v>104.205</v>
       </c>
-    </row>
-    <row r="389" spans="1:7">
+      <c r="H388">
+        <v>411.9596469144026</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8">
       <c r="A389">
         <v>1701124223.410593</v>
       </c>
@@ -9344,8 +10511,11 @@
       <c r="G389">
         <v>103.629</v>
       </c>
-    </row>
-    <row r="390" spans="1:7">
+      <c r="H389">
+        <v>413.0268858003616</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8">
       <c r="A390">
         <v>1701128065.480647</v>
       </c>
@@ -9367,8 +10537,11 @@
       <c r="G390">
         <v>103.451</v>
       </c>
-    </row>
-    <row r="391" spans="1:7">
+      <c r="H390">
+        <v>414.0941274819771</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8">
       <c r="A391">
         <v>1701131907.528704</v>
       </c>
@@ -9390,8 +10563,11 @@
       <c r="G391">
         <v>103.889</v>
       </c>
-    </row>
-    <row r="392" spans="1:7">
+      <c r="H391">
+        <v>415.1613630533881</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8">
       <c r="A392">
         <v>1701135749.665101</v>
       </c>
@@ -9413,8 +10589,11 @@
       <c r="G392">
         <v>105.226</v>
       </c>
-    </row>
-    <row r="393" spans="1:7">
+      <c r="H392">
+        <v>416.2286231636339</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8">
       <c r="A393">
         <v>1701139591.690841</v>
       </c>
@@ -9436,8 +10615,11 @@
       <c r="G393">
         <v>105.44</v>
       </c>
-    </row>
-    <row r="394" spans="1:7">
+      <c r="H393">
+        <v>417.2958525357644</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8">
       <c r="A394">
         <v>1701143433.764617</v>
       </c>
@@ -9459,8 +10641,11 @@
       <c r="G394">
         <v>105.101</v>
       </c>
-    </row>
-    <row r="395" spans="1:7">
+      <c r="H394">
+        <v>418.3630952515205</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8">
       <c r="A395">
         <v>1701147275.888069</v>
       </c>
@@ -9482,8 +10667,11 @@
       <c r="G395">
         <v>104.465</v>
       </c>
-    </row>
-    <row r="396" spans="1:7">
+      <c r="H395">
+        <v>419.4303517658843</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8">
       <c r="A396">
         <v>1701151117.972732</v>
       </c>
@@ -9505,8 +10693,11 @@
       <c r="G396">
         <v>104.479</v>
       </c>
-    </row>
-    <row r="397" spans="1:7">
+      <c r="H396">
+        <v>420.4975975055827</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8">
       <c r="A397">
         <v>1701154960.06044</v>
       </c>
@@ -9528,8 +10719,11 @@
       <c r="G397">
         <v>104.658</v>
       </c>
-    </row>
-    <row r="398" spans="1:7">
+      <c r="H397">
+        <v>421.5648440912035</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8">
       <c r="A398">
         <v>1701158802.080718</v>
       </c>
@@ -9551,8 +10745,11 @@
       <c r="G398">
         <v>105.227</v>
       </c>
-    </row>
-    <row r="399" spans="1:7">
+      <c r="H398">
+        <v>422.6320719460646</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8">
       <c r="A399">
         <v>1701162644.133911</v>
       </c>
@@ -9574,8 +10771,11 @@
       <c r="G399">
         <v>105.914</v>
       </c>
-    </row>
-    <row r="400" spans="1:7">
+      <c r="H399">
+        <v>423.6993089442783</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8">
       <c r="A400">
         <v>1701166486.257452</v>
       </c>
@@ -9597,8 +10797,11 @@
       <c r="G400">
         <v>106.645</v>
       </c>
-    </row>
-    <row r="401" spans="1:7">
+      <c r="H400">
+        <v>424.7665654832787</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8">
       <c r="A401">
         <v>1701170328.347908</v>
       </c>
@@ -9620,8 +10823,11 @@
       <c r="G401">
         <v>107.309</v>
       </c>
-    </row>
-    <row r="402" spans="1:7">
+      <c r="H401">
+        <v>425.8338128322363</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8">
       <c r="A402">
         <v>1701174170.378697</v>
       </c>
@@ -9643,8 +10849,11 @@
       <c r="G402">
         <v>106.762</v>
       </c>
-    </row>
-    <row r="403" spans="1:7">
+      <c r="H402">
+        <v>426.9010436069303</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8">
       <c r="A403">
         <v>1701178012.440709</v>
       </c>
@@ -9666,8 +10875,11 @@
       <c r="G403">
         <v>105.613</v>
       </c>
-    </row>
-    <row r="404" spans="1:7">
+      <c r="H403">
+        <v>427.96828305463</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8">
       <c r="A404">
         <v>1701181854.536735</v>
       </c>
@@ -9689,8 +10901,11 @@
       <c r="G404">
         <v>104.649</v>
       </c>
-    </row>
-    <row r="405" spans="1:7">
+      <c r="H404">
+        <v>429.0355319507254</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8">
       <c r="A405">
         <v>1701185697.818648</v>
       </c>
@@ -9712,8 +10927,11 @@
       <c r="G405">
         <v>104.016</v>
       </c>
-    </row>
-    <row r="406" spans="1:7">
+      <c r="H405">
+        <v>430.1031102600363</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8">
       <c r="A406">
         <v>1701189539.866831</v>
       </c>
@@ -9735,8 +10953,11 @@
       <c r="G406">
         <v>103.882</v>
       </c>
-    </row>
-    <row r="407" spans="1:7">
+      <c r="H406">
+        <v>431.1703458664815</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8">
       <c r="A407">
         <v>1701193381.942281</v>
       </c>
@@ -9758,8 +10979,11 @@
       <c r="G407">
         <v>103.888</v>
       </c>
-    </row>
-    <row r="408" spans="1:7">
+      <c r="H407">
+        <v>432.2375890469551</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8">
       <c r="A408">
         <v>1701197223.99549</v>
       </c>
@@ -9781,8 +11005,11 @@
       <c r="G408">
         <v>103.535</v>
       </c>
-    </row>
-    <row r="409" spans="1:7">
+      <c r="H408">
+        <v>433.3048260494735</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8">
       <c r="A409">
         <v>1701201066.074751</v>
       </c>
@@ -9804,8 +11031,11 @@
       <c r="G409">
         <v>102.901</v>
       </c>
-    </row>
-    <row r="410" spans="1:7">
+      <c r="H409">
+        <v>434.3720702886582</v>
+      </c>
+    </row>
+    <row r="410" spans="1:8">
       <c r="A410">
         <v>1701204908.14846</v>
       </c>
@@ -9827,8 +11057,11 @@
       <c r="G410">
         <v>103.348</v>
       </c>
-    </row>
-    <row r="411" spans="1:7">
+      <c r="H410">
+        <v>435.4393129854732</v>
+      </c>
+    </row>
+    <row r="411" spans="1:8">
       <c r="A411">
         <v>1701208750.237826</v>
       </c>
@@ -9850,8 +11083,11 @@
       <c r="G411">
         <v>105.329</v>
       </c>
-    </row>
-    <row r="412" spans="1:7">
+      <c r="H411">
+        <v>436.5065600317054</v>
+      </c>
+    </row>
+    <row r="412" spans="1:8">
       <c r="A412">
         <v>1701212592.3452</v>
       </c>
@@ -9873,8 +11109,11 @@
       <c r="G412">
         <v>106.625</v>
       </c>
-    </row>
-    <row r="413" spans="1:7">
+      <c r="H412">
+        <v>437.5738120799595</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8">
       <c r="A413">
         <v>1701216434.476189</v>
       </c>
@@ -9896,8 +11135,11 @@
       <c r="G413">
         <v>107.207</v>
       </c>
-    </row>
-    <row r="414" spans="1:7">
+      <c r="H413">
+        <v>438.6410706880358</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8">
       <c r="A414">
         <v>1701220276.575567</v>
       </c>
@@ -9919,8 +11161,11 @@
       <c r="G414">
         <v>106.612</v>
       </c>
-    </row>
-    <row r="415" spans="1:7">
+      <c r="H414">
+        <v>439.708320515222</v>
+      </c>
+    </row>
+    <row r="415" spans="1:8">
       <c r="A415">
         <v>1701224118.64982</v>
       </c>
@@ -9942,8 +11187,11 @@
       <c r="G415">
         <v>105.666</v>
       </c>
-    </row>
-    <row r="416" spans="1:7">
+      <c r="H415">
+        <v>440.7755633634329</v>
+      </c>
+    </row>
+    <row r="416" spans="1:8">
       <c r="A416">
         <v>1701227960.824575</v>
       </c>
@@ -9965,8 +11213,11 @@
       <c r="G416">
         <v>104.293</v>
       </c>
-    </row>
-    <row r="417" spans="1:7">
+      <c r="H416">
+        <v>441.8428341287374</v>
+      </c>
+    </row>
+    <row r="417" spans="1:8">
       <c r="A417">
         <v>1701231802.933271</v>
       </c>
@@ -9988,8 +11239,11 @@
       <c r="G417">
         <v>103.123</v>
       </c>
-    </row>
-    <row r="418" spans="1:7">
+      <c r="H417">
+        <v>442.9100865440898</v>
+      </c>
+    </row>
+    <row r="418" spans="1:8">
       <c r="A418">
         <v>1701235644.989055</v>
       </c>
@@ -10011,8 +11265,11 @@
       <c r="G418">
         <v>102.134</v>
       </c>
-    </row>
-    <row r="419" spans="1:7">
+      <c r="H418">
+        <v>443.9773242620627</v>
+      </c>
+    </row>
+    <row r="419" spans="1:8">
       <c r="A419">
         <v>1701239487.084211</v>
       </c>
@@ -10034,8 +11291,11 @@
       <c r="G419">
         <v>101.345</v>
       </c>
-    </row>
-    <row r="420" spans="1:7">
+      <c r="H419">
+        <v>445.0445729162958</v>
+      </c>
+    </row>
+    <row r="420" spans="1:8">
       <c r="A420">
         <v>1701243329.128457</v>
       </c>
@@ -10057,8 +11317,11 @@
       <c r="G420">
         <v>100.671</v>
       </c>
-    </row>
-    <row r="421" spans="1:7">
+      <c r="H420">
+        <v>446.1118074291945</v>
+      </c>
+    </row>
+    <row r="421" spans="1:8">
       <c r="A421">
         <v>1701247171.176701</v>
       </c>
@@ -10080,8 +11343,11 @@
       <c r="G421">
         <v>100.075</v>
       </c>
-    </row>
-    <row r="422" spans="1:7">
+      <c r="H421">
+        <v>447.1790430525276</v>
+      </c>
+    </row>
+    <row r="422" spans="1:8">
       <c r="A422">
         <v>1701251013.305568</v>
       </c>
@@ -10103,8 +11369,11 @@
       <c r="G422">
         <v>99.55</v>
       </c>
-    </row>
-    <row r="423" spans="1:7">
+      <c r="H422">
+        <v>448.2463010709815</v>
+      </c>
+    </row>
+    <row r="423" spans="1:8">
       <c r="A423">
         <v>1701254855.396755</v>
       </c>
@@ -10126,8 +11395,11 @@
       <c r="G423">
         <v>99.247</v>
       </c>
-    </row>
-    <row r="424" spans="1:7">
+      <c r="H423">
+        <v>449.3135486229923</v>
+      </c>
+    </row>
+    <row r="424" spans="1:8">
       <c r="A424">
         <v>1701258697.483788</v>
       </c>
@@ -10149,8 +11421,11 @@
       <c r="G424">
         <v>99.26000000000001</v>
       </c>
-    </row>
-    <row r="425" spans="1:7">
+      <c r="H424">
+        <v>450.3807950210571</v>
+      </c>
+    </row>
+    <row r="425" spans="1:8">
       <c r="A425">
         <v>1701262539.525312</v>
       </c>
@@ -10172,8 +11447,11 @@
       <c r="G425">
         <v>99.735</v>
       </c>
-    </row>
-    <row r="426" spans="1:7">
+      <c r="H425">
+        <v>451.4480287777053</v>
+      </c>
+    </row>
+    <row r="426" spans="1:8">
       <c r="A426">
         <v>1701266381.630661</v>
       </c>
@@ -10195,8 +11473,11 @@
       <c r="G426">
         <v>100.731</v>
       </c>
-    </row>
-    <row r="427" spans="1:7">
+      <c r="H426">
+        <v>452.5152802636226</v>
+      </c>
+    </row>
+    <row r="427" spans="1:8">
       <c r="A427">
         <v>1701270223.680011</v>
       </c>
@@ -10218,8 +11499,11 @@
       <c r="G427">
         <v>101.879</v>
       </c>
-    </row>
-    <row r="428" spans="1:7">
+      <c r="H427">
+        <v>453.5825161942508</v>
+      </c>
+    </row>
+    <row r="428" spans="1:8">
       <c r="A428">
         <v>1701274065.750258</v>
       </c>
@@ -10241,8 +11525,11 @@
       <c r="G428">
         <v>103.298</v>
       </c>
-    </row>
-    <row r="429" spans="1:7">
+      <c r="H428">
+        <v>454.6497579295105</v>
+      </c>
+    </row>
+    <row r="429" spans="1:8">
       <c r="A429">
         <v>1701277907.835152</v>
       </c>
@@ -10264,8 +11551,11 @@
       <c r="G429">
         <v>104.393</v>
       </c>
-    </row>
-    <row r="430" spans="1:7">
+      <c r="H429">
+        <v>455.7170037334495</v>
+      </c>
+    </row>
+    <row r="430" spans="1:8">
       <c r="A430">
         <v>1701281749.920115</v>
       </c>
@@ -10287,8 +11577,11 @@
       <c r="G430">
         <v>104.932</v>
       </c>
-    </row>
-    <row r="431" spans="1:7">
+      <c r="H430">
+        <v>456.7842495563295</v>
+      </c>
+    </row>
+    <row r="431" spans="1:8">
       <c r="A431">
         <v>1701285591.989662</v>
       </c>
@@ -10310,8 +11603,11 @@
       <c r="G431">
         <v>105.036</v>
       </c>
-    </row>
-    <row r="432" spans="1:7">
+      <c r="H431">
+        <v>457.8514910972119</v>
+      </c>
+    </row>
+    <row r="432" spans="1:8">
       <c r="A432">
         <v>1701289434.078693</v>
       </c>
@@ -10333,8 +11629,11 @@
       <c r="G432">
         <v>104.737</v>
       </c>
-    </row>
-    <row r="433" spans="1:7">
+      <c r="H432">
+        <v>458.9187380502621</v>
+      </c>
+    </row>
+    <row r="433" spans="1:8">
       <c r="A433">
         <v>1701293276.110521</v>
       </c>
@@ -10356,8 +11655,11 @@
       <c r="G433">
         <v>105.126</v>
       </c>
-    </row>
-    <row r="434" spans="1:7">
+      <c r="H433">
+        <v>459.9859691135089</v>
+      </c>
+    </row>
+    <row r="434" spans="1:8">
       <c r="A434">
         <v>1701297118.226514</v>
       </c>
@@ -10379,8 +11681,11 @@
       <c r="G434">
         <v>105.322</v>
       </c>
-    </row>
-    <row r="435" spans="1:7">
+      <c r="H434">
+        <v>461.0532235562139</v>
+      </c>
+    </row>
+    <row r="435" spans="1:8">
       <c r="A435">
         <v>1701300960.295122</v>
       </c>
@@ -10402,8 +11707,11 @@
       <c r="G435">
         <v>105.793</v>
       </c>
-    </row>
-    <row r="436" spans="1:7">
+      <c r="H435">
+        <v>462.1204648360279</v>
+      </c>
+    </row>
+    <row r="436" spans="1:8">
       <c r="A436">
         <v>1701304802.453984</v>
       </c>
@@ -10425,8 +11733,11 @@
       <c r="G436">
         <v>106.147</v>
       </c>
-    </row>
-    <row r="437" spans="1:7">
+      <c r="H436">
+        <v>463.1877311866151</v>
+      </c>
+    </row>
+    <row r="437" spans="1:8">
       <c r="A437">
         <v>1701308644.507374</v>
       </c>
@@ -10448,8 +11759,11 @@
       <c r="G437">
         <v>106.3</v>
       </c>
-    </row>
-    <row r="438" spans="1:7">
+      <c r="H437">
+        <v>464.2549682393339</v>
+      </c>
+    </row>
+    <row r="438" spans="1:8">
       <c r="A438">
         <v>1701312486.526791</v>
       </c>
@@ -10471,8 +11785,11 @@
       <c r="G438">
         <v>105.763</v>
       </c>
-    </row>
-    <row r="439" spans="1:7">
+      <c r="H438">
+        <v>465.3221958553129</v>
+      </c>
+    </row>
+    <row r="439" spans="1:8">
       <c r="A439">
         <v>1701316328.63538</v>
       </c>
@@ -10494,8 +11811,11 @@
       <c r="G439">
         <v>105.064</v>
       </c>
-    </row>
-    <row r="440" spans="1:7">
+      <c r="H439">
+        <v>466.3894482410616</v>
+      </c>
+    </row>
+    <row r="440" spans="1:8">
       <c r="A440">
         <v>1701320170.75567</v>
       </c>
@@ -10517,8 +11837,11 @@
       <c r="G440">
         <v>104.084</v>
       </c>
-    </row>
-    <row r="441" spans="1:7">
+      <c r="H440">
+        <v>467.4567038772503</v>
+      </c>
+    </row>
+    <row r="441" spans="1:8">
       <c r="A441">
         <v>1701324012.874573</v>
       </c>
@@ -10540,8 +11863,11 @@
       <c r="G441">
         <v>102.937</v>
       </c>
-    </row>
-    <row r="442" spans="1:7">
+      <c r="H441">
+        <v>468.5239591279295</v>
+      </c>
+    </row>
+    <row r="442" spans="1:8">
       <c r="A442">
         <v>1701327854.948627</v>
       </c>
@@ -10563,8 +11889,11 @@
       <c r="G442">
         <v>102.169</v>
       </c>
-    </row>
-    <row r="443" spans="1:7">
+      <c r="H442">
+        <v>469.5912019207743</v>
+      </c>
+    </row>
+    <row r="443" spans="1:8">
       <c r="A443">
         <v>1701331697.013296</v>
       </c>
@@ -10586,8 +11915,11 @@
       <c r="G443">
         <v>101.619</v>
       </c>
-    </row>
-    <row r="444" spans="1:7">
+      <c r="H443">
+        <v>470.6584421067768</v>
+      </c>
+    </row>
+    <row r="444" spans="1:8">
       <c r="A444">
         <v>1701335539.060471</v>
       </c>
@@ -10609,8 +11941,11 @@
       <c r="G444">
         <v>101.07</v>
       </c>
-    </row>
-    <row r="445" spans="1:7">
+      <c r="H444">
+        <v>471.7256774330139</v>
+      </c>
+    </row>
+    <row r="445" spans="1:8">
       <c r="A445">
         <v>1701339381.126085</v>
       </c>
@@ -10632,8 +11967,11 @@
       <c r="G445">
         <v>100.497</v>
       </c>
-    </row>
-    <row r="446" spans="1:7">
+      <c r="H445">
+        <v>472.7929178814093</v>
+      </c>
+    </row>
+    <row r="446" spans="1:8">
       <c r="A446">
         <v>1701343223.262349</v>
       </c>
@@ -10655,8 +11993,11 @@
       <c r="G446">
         <v>99.896</v>
       </c>
-    </row>
-    <row r="447" spans="1:7">
+      <c r="H446">
+        <v>473.8601779547002</v>
+      </c>
+    </row>
+    <row r="447" spans="1:8">
       <c r="A447">
         <v>1701347065.353299</v>
       </c>
@@ -10678,8 +12019,11 @@
       <c r="G447">
         <v>100.067</v>
       </c>
-    </row>
-    <row r="448" spans="1:7">
+      <c r="H447">
+        <v>474.927425440881</v>
+      </c>
+    </row>
+    <row r="448" spans="1:8">
       <c r="A448">
         <v>1701350907.428046</v>
       </c>
@@ -10701,8 +12045,11 @@
       <c r="G448">
         <v>100.774</v>
       </c>
-    </row>
-    <row r="449" spans="1:7">
+      <c r="H448">
+        <v>475.9946684259838</v>
+      </c>
+    </row>
+    <row r="449" spans="1:8">
       <c r="A449">
         <v>1701354749.46801</v>
       </c>
@@ -10724,8 +12071,11 @@
       <c r="G449">
         <v>101.886</v>
       </c>
-    </row>
-    <row r="450" spans="1:7">
+      <c r="H449">
+        <v>477.0619017495712</v>
+      </c>
+    </row>
+    <row r="450" spans="1:8">
       <c r="A450">
         <v>1701358591.515936</v>
       </c>
@@ -10747,8 +12097,11 @@
       <c r="G450">
         <v>103.025</v>
       </c>
-    </row>
-    <row r="451" spans="1:7">
+      <c r="H450">
+        <v>478.129137284557</v>
+      </c>
+    </row>
+    <row r="451" spans="1:8">
       <c r="A451">
         <v>1701362433.178102</v>
       </c>
@@ -10770,8 +12123,11 @@
       <c r="G451">
         <v>104.043</v>
       </c>
-    </row>
-    <row r="452" spans="1:7">
+      <c r="H451">
+        <v>479.1962656640344</v>
+      </c>
+    </row>
+    <row r="452" spans="1:8">
       <c r="A452">
         <v>1701366275.380848</v>
       </c>
@@ -10793,8 +12149,11 @@
       <c r="G452">
         <v>104.889</v>
       </c>
-    </row>
-    <row r="453" spans="1:7">
+      <c r="H452">
+        <v>480.2635442044337</v>
+      </c>
+    </row>
+    <row r="453" spans="1:8">
       <c r="A453">
         <v>1701370117.463877</v>
       </c>
@@ -10816,8 +12175,11 @@
       <c r="G453">
         <v>105.113</v>
       </c>
-    </row>
-    <row r="454" spans="1:7">
+      <c r="H453">
+        <v>481.3307894904084</v>
+      </c>
+    </row>
+    <row r="454" spans="1:8">
       <c r="A454">
         <v>1701373959.519488</v>
       </c>
@@ -10839,8 +12201,11 @@
       <c r="G454">
         <v>104.781</v>
       </c>
-    </row>
-    <row r="455" spans="1:7">
+      <c r="H454">
+        <v>482.3980271600352</v>
+      </c>
+    </row>
+    <row r="455" spans="1:8">
       <c r="A455">
         <v>1701377801.563613</v>
       </c>
@@ -10862,8 +12227,11 @@
       <c r="G455">
         <v>104.927</v>
       </c>
-    </row>
-    <row r="456" spans="1:7">
+      <c r="H455">
+        <v>483.4652616392241</v>
+      </c>
+    </row>
+    <row r="456" spans="1:8">
       <c r="A456">
         <v>1701381643.702774</v>
       </c>
@@ -10885,8 +12253,11 @@
       <c r="G456">
         <v>104.994</v>
       </c>
-    </row>
-    <row r="457" spans="1:7">
+      <c r="H456">
+        <v>484.532522517244</v>
+      </c>
+    </row>
+    <row r="457" spans="1:8">
       <c r="A457">
         <v>1701385485.769842</v>
       </c>
@@ -10908,8 +12279,11 @@
       <c r="G457">
         <v>105.277</v>
       </c>
-    </row>
-    <row r="458" spans="1:7">
+      <c r="H457">
+        <v>485.5997633694278</v>
+      </c>
+    </row>
+    <row r="458" spans="1:8">
       <c r="A458">
         <v>1701389327.852556</v>
       </c>
@@ -10931,8 +12305,11 @@
       <c r="G458">
         <v>105.736</v>
       </c>
-    </row>
-    <row r="459" spans="1:7">
+      <c r="H458">
+        <v>486.6670085678498</v>
+      </c>
+    </row>
+    <row r="459" spans="1:8">
       <c r="A459">
         <v>1701393169.916795</v>
       </c>
@@ -10954,8 +12331,11 @@
       <c r="G459">
         <v>105.857</v>
       </c>
-    </row>
-    <row r="460" spans="1:7">
+      <c r="H459">
+        <v>487.7342486343119</v>
+      </c>
+    </row>
+    <row r="460" spans="1:8">
       <c r="A460">
         <v>1701397012.034561</v>
       </c>
@@ -10977,8 +12357,11 @@
       <c r="G460">
         <v>105.487</v>
       </c>
-    </row>
-    <row r="461" spans="1:7">
+      <c r="H460">
+        <v>488.8015035691526</v>
+      </c>
+    </row>
+    <row r="461" spans="1:8">
       <c r="A461">
         <v>1701400854.085249</v>
       </c>
@@ -11000,8 +12383,11 @@
       <c r="G461">
         <v>104.731</v>
       </c>
-    </row>
-    <row r="462" spans="1:7">
+      <c r="H461">
+        <v>489.8687398713827</v>
+      </c>
+    </row>
+    <row r="462" spans="1:8">
       <c r="A462">
         <v>1701404696.177078</v>
       </c>
@@ -11023,8 +12409,11 @@
       <c r="G462">
         <v>104.01</v>
       </c>
-    </row>
-    <row r="463" spans="1:7">
+      <c r="H462">
+        <v>490.9359876017438</v>
+      </c>
+    </row>
+    <row r="463" spans="1:8">
       <c r="A463">
         <v>1701408538.251398</v>
       </c>
@@ -11046,8 +12435,11 @@
       <c r="G463">
         <v>102.997</v>
       </c>
-    </row>
-    <row r="464" spans="1:7">
+      <c r="H463">
+        <v>492.0032304683659</v>
+      </c>
+    </row>
+    <row r="464" spans="1:8">
       <c r="A464">
         <v>1701412380.323017</v>
       </c>
@@ -11069,8 +12461,11 @@
       <c r="G464">
         <v>102.117</v>
       </c>
-    </row>
-    <row r="465" spans="1:7">
+      <c r="H464">
+        <v>493.0704725847642</v>
+      </c>
+    </row>
+    <row r="465" spans="1:8">
       <c r="A465">
         <v>1701416222.385201</v>
       </c>
@@ -11092,8 +12487,11 @@
       <c r="G465">
         <v>101.447</v>
       </c>
-    </row>
-    <row r="466" spans="1:7">
+      <c r="H465">
+        <v>494.1377120802138</v>
+      </c>
+    </row>
+    <row r="466" spans="1:8">
       <c r="A466">
         <v>1701420064.444479</v>
       </c>
@@ -11115,8 +12513,11 @@
       <c r="G466">
         <v>100.661</v>
       </c>
-    </row>
-    <row r="467" spans="1:7">
+      <c r="H466">
+        <v>495.2049507685502</v>
+      </c>
+    </row>
+    <row r="467" spans="1:8">
       <c r="A467">
         <v>1701423906.493549</v>
       </c>
@@ -11138,8 +12539,11 @@
       <c r="G467">
         <v>99.81999999999999</v>
       </c>
-    </row>
-    <row r="468" spans="1:7">
+      <c r="H467">
+        <v>496.2721866212951</v>
+      </c>
+    </row>
+    <row r="468" spans="1:8">
       <c r="A468">
         <v>1701427748.561602</v>
       </c>
@@ -11161,8 +12565,11 @@
       <c r="G468">
         <v>98.85899999999999</v>
       </c>
-    </row>
-    <row r="469" spans="1:7">
+      <c r="H468">
+        <v>497.3394277472628</v>
+      </c>
+    </row>
+    <row r="469" spans="1:8">
       <c r="A469">
         <v>1701431590.672693</v>
       </c>
@@ -11184,8 +12591,11 @@
       <c r="G469">
         <v>98.422</v>
       </c>
-    </row>
-    <row r="470" spans="1:7">
+      <c r="H469">
+        <v>498.4066808280018</v>
+      </c>
+    </row>
+    <row r="470" spans="1:8">
       <c r="A470">
         <v>1701435432.721893</v>
       </c>
@@ -11207,8 +12617,11 @@
       <c r="G470">
         <v>98.355</v>
       </c>
-    </row>
-    <row r="471" spans="1:7">
+      <c r="H470">
+        <v>499.4739167168405</v>
+      </c>
+    </row>
+    <row r="471" spans="1:8">
       <c r="A471">
         <v>1701439274.777086</v>
       </c>
@@ -11230,8 +12643,11 @@
       <c r="G471">
         <v>98.45099999999999</v>
       </c>
-    </row>
-    <row r="472" spans="1:7">
+      <c r="H471">
+        <v>500.5411542705033</v>
+      </c>
+    </row>
+    <row r="472" spans="1:8">
       <c r="A472">
         <v>1701443116.844087</v>
       </c>
@@ -11253,8 +12669,11 @@
       <c r="G472">
         <v>98.526</v>
       </c>
-    </row>
-    <row r="473" spans="1:7">
+      <c r="H472">
+        <v>501.6083951042096</v>
+      </c>
+    </row>
+    <row r="473" spans="1:8">
       <c r="A473">
         <v>1701446958.940183</v>
       </c>
@@ -11276,8 +12695,11 @@
       <c r="G473">
         <v>98.602</v>
       </c>
-    </row>
-    <row r="474" spans="1:7">
+      <c r="H473">
+        <v>502.6756440197097</v>
+      </c>
+    </row>
+    <row r="474" spans="1:8">
       <c r="A474">
         <v>1701450801.045116</v>
       </c>
@@ -11299,8 +12721,11 @@
       <c r="G474">
         <v>100.641</v>
       </c>
-    </row>
-    <row r="475" spans="1:7">
+      <c r="H474">
+        <v>503.7428953900602</v>
+      </c>
+    </row>
+    <row r="475" spans="1:8">
       <c r="A475">
         <v>1701454643.127083</v>
       </c>
@@ -11322,8 +12747,11 @@
       <c r="G475">
         <v>102.855</v>
       </c>
-    </row>
-    <row r="476" spans="1:7">
+      <c r="H475">
+        <v>504.8101403809256</v>
+      </c>
+    </row>
+    <row r="476" spans="1:8">
       <c r="A476">
         <v>1701458485.202289</v>
       </c>
@@ -11345,8 +12773,11 @@
       <c r="G476">
         <v>103.91</v>
       </c>
-    </row>
-    <row r="477" spans="1:7">
+      <c r="H476">
+        <v>505.8773834936486</v>
+      </c>
+    </row>
+    <row r="477" spans="1:8">
       <c r="A477">
         <v>1701462327.270606</v>
       </c>
@@ -11368,8 +12799,11 @@
       <c r="G477">
         <v>104.426</v>
       </c>
-    </row>
-    <row r="478" spans="1:7">
+      <c r="H477">
+        <v>506.9446246927315</v>
+      </c>
+    </row>
+    <row r="478" spans="1:8">
       <c r="A478">
         <v>1701466169.360257</v>
       </c>
@@ -11391,8 +12825,11 @@
       <c r="G478">
         <v>104.79</v>
       </c>
-    </row>
-    <row r="479" spans="1:7">
+      <c r="H478">
+        <v>508.0118718180391</v>
+      </c>
+    </row>
+    <row r="479" spans="1:8">
       <c r="A479">
         <v>1701470011.439116</v>
       </c>
@@ -11414,8 +12851,11 @@
       <c r="G479">
         <v>104.875</v>
       </c>
-    </row>
-    <row r="480" spans="1:7">
+      <c r="H479">
+        <v>509.0791159454319</v>
+      </c>
+    </row>
+    <row r="480" spans="1:8">
       <c r="A480">
         <v>1701473853.489721</v>
       </c>
@@ -11437,8 +12877,11 @@
       <c r="G480">
         <v>104.897</v>
       </c>
-    </row>
-    <row r="481" spans="1:7">
+      <c r="H480">
+        <v>510.1463522247473</v>
+      </c>
+    </row>
+    <row r="481" spans="1:8">
       <c r="A481">
         <v>1701477695.551432</v>
       </c>
@@ -11460,8 +12903,11 @@
       <c r="G481">
         <v>104.861</v>
       </c>
-    </row>
-    <row r="482" spans="1:7">
+      <c r="H481">
+        <v>511.213591588868</v>
+      </c>
+    </row>
+    <row r="482" spans="1:8">
       <c r="A482">
         <v>1701481537.63287</v>
       </c>
@@ -11483,8 +12929,11 @@
       <c r="G482">
         <v>104.231</v>
       </c>
-    </row>
-    <row r="483" spans="1:7">
+      <c r="H482">
+        <v>512.2808364329073</v>
+      </c>
+    </row>
+    <row r="483" spans="1:8">
       <c r="A483">
         <v>1701485379.746513</v>
       </c>
@@ -11506,8 +12955,11 @@
       <c r="G483">
         <v>103.462</v>
       </c>
-    </row>
-    <row r="484" spans="1:7">
+      <c r="H483">
+        <v>513.3480902224779</v>
+      </c>
+    </row>
+    <row r="484" spans="1:8">
       <c r="A484">
         <v>1701489221.855633</v>
       </c>
@@ -11529,8 +12981,11 @@
       <c r="G484">
         <v>102.498</v>
       </c>
-    </row>
-    <row r="485" spans="1:7">
+      <c r="H484">
+        <v>514.4153427559137</v>
+      </c>
+    </row>
+    <row r="485" spans="1:8">
       <c r="A485">
         <v>1701493063.97992</v>
       </c>
@@ -11552,8 +13007,11 @@
       <c r="G485">
         <v>101.81</v>
       </c>
-    </row>
-    <row r="486" spans="1:7">
+      <c r="H485">
+        <v>515.4825995023383</v>
+      </c>
+    </row>
+    <row r="486" spans="1:8">
       <c r="A486">
         <v>1701496906.110496</v>
       </c>
@@ -11575,8 +13033,11 @@
       <c r="G486">
         <v>100.909</v>
       </c>
-    </row>
-    <row r="487" spans="1:7">
+      <c r="H486">
+        <v>516.5498579955101</v>
+      </c>
+    </row>
+    <row r="487" spans="1:8">
       <c r="A487">
         <v>1701500748.161168</v>
       </c>
@@ -11598,8 +13059,11 @@
       <c r="G487">
         <v>99.852</v>
       </c>
-    </row>
-    <row r="488" spans="1:7">
+      <c r="H487">
+        <v>517.6170942932367</v>
+      </c>
+    </row>
+    <row r="488" spans="1:8">
       <c r="A488">
         <v>1701504590.249012</v>
       </c>
@@ -11621,8 +13085,11 @@
       <c r="G488">
         <v>98.923</v>
       </c>
-    </row>
-    <row r="489" spans="1:7">
+      <c r="H488">
+        <v>518.6843409167395</v>
+      </c>
+    </row>
+    <row r="489" spans="1:8">
       <c r="A489">
         <v>1701508432.288956</v>
       </c>
@@ -11644,8 +13111,11 @@
       <c r="G489">
         <v>97.855</v>
       </c>
-    </row>
-    <row r="490" spans="1:7">
+      <c r="H489">
+        <v>519.7515742344989</v>
+      </c>
+    </row>
+    <row r="490" spans="1:8">
       <c r="A490">
         <v>1701512274.388403</v>
       </c>
@@ -11667,8 +13137,11 @@
       <c r="G490">
         <v>97.20099999999999</v>
       </c>
-    </row>
-    <row r="491" spans="1:7">
+      <c r="H490">
+        <v>520.8188240808248</v>
+      </c>
+    </row>
+    <row r="491" spans="1:8">
       <c r="A491">
         <v>1701516116.506342</v>
       </c>
@@ -11690,8 +13163,11 @@
       <c r="G491">
         <v>96.86199999999999</v>
       </c>
-    </row>
-    <row r="492" spans="1:7">
+      <c r="H491">
+        <v>521.8860790639453</v>
+      </c>
+    </row>
+    <row r="492" spans="1:8">
       <c r="A492">
         <v>1701519958.586589</v>
       </c>
@@ -11713,8 +13189,11 @@
       <c r="G492">
         <v>96.667</v>
       </c>
-    </row>
-    <row r="493" spans="1:7">
+      <c r="H492">
+        <v>522.9533235769802</v>
+      </c>
+    </row>
+    <row r="493" spans="1:8">
       <c r="A493">
         <v>1701523800.620449</v>
       </c>
@@ -11736,8 +13215,11 @@
       <c r="G493">
         <v>97.098</v>
       </c>
-    </row>
-    <row r="494" spans="1:7">
+      <c r="H493">
+        <v>524.0205552046167</v>
+      </c>
+    </row>
+    <row r="494" spans="1:8">
       <c r="A494">
         <v>1701527642.667767</v>
       </c>
@@ -11759,8 +13241,11 @@
       <c r="G494">
         <v>97.383</v>
       </c>
-    </row>
-    <row r="495" spans="1:7">
+      <c r="H494">
+        <v>525.0877905709214</v>
+      </c>
+    </row>
+    <row r="495" spans="1:8">
       <c r="A495">
         <v>1701531484.749873</v>
       </c>
@@ -11782,8 +13267,11 @@
       <c r="G495">
         <v>97.15900000000001</v>
       </c>
-    </row>
-    <row r="496" spans="1:7">
+      <c r="H495">
+        <v>526.1550356003974</v>
+      </c>
+    </row>
+    <row r="496" spans="1:8">
       <c r="A496">
         <v>1701535326.808644</v>
       </c>
@@ -11805,8 +13293,11 @@
       <c r="G496">
         <v>96.34699999999999</v>
       </c>
-    </row>
-    <row r="497" spans="1:7">
+      <c r="H496">
+        <v>527.2222741478681</v>
+      </c>
+    </row>
+    <row r="497" spans="1:8">
       <c r="A497">
         <v>1701539168.875898</v>
       </c>
@@ -11828,8 +13319,11 @@
       <c r="G497">
         <v>96.01900000000001</v>
       </c>
-    </row>
-    <row r="498" spans="1:7">
+      <c r="H497">
+        <v>528.2895150515768</v>
+      </c>
+    </row>
+    <row r="498" spans="1:8">
       <c r="A498">
         <v>1701543010.922982</v>
       </c>
@@ -11851,8 +13345,11 @@
       <c r="G498">
         <v>96.33199999999999</v>
       </c>
-    </row>
-    <row r="499" spans="1:7">
+      <c r="H498">
+        <v>529.3567503527801</v>
+      </c>
+    </row>
+    <row r="499" spans="1:8">
       <c r="A499">
         <v>1701546852.973148</v>
       </c>
@@ -11874,8 +13371,11 @@
       <c r="G499">
         <v>96.968</v>
       </c>
-    </row>
-    <row r="500" spans="1:7">
+      <c r="H499">
+        <v>530.4239865100384</v>
+      </c>
+    </row>
+    <row r="500" spans="1:8">
       <c r="A500">
         <v>1701550694.984222</v>
       </c>
@@ -11897,8 +13397,11 @@
       <c r="G500">
         <v>98.142</v>
       </c>
-    </row>
-    <row r="501" spans="1:7">
+      <c r="H500">
+        <v>531.4912118083239</v>
+      </c>
+    </row>
+    <row r="501" spans="1:8">
       <c r="A501">
         <v>1701554537.03807</v>
       </c>
@@ -11920,8 +13423,11 @@
       <c r="G501">
         <v>98.92400000000001</v>
       </c>
-    </row>
-    <row r="502" spans="1:7">
+      <c r="H501">
+        <v>532.5584489884642</v>
+      </c>
+    </row>
+    <row r="502" spans="1:8">
       <c r="A502">
         <v>1701558379.130979</v>
       </c>
@@ -11943,8 +13449,11 @@
       <c r="G502">
         <v>99.35599999999999</v>
       </c>
-    </row>
-    <row r="503" spans="1:7">
+      <c r="H502">
+        <v>533.6256970187028</v>
+      </c>
+    </row>
+    <row r="503" spans="1:8">
       <c r="A503">
         <v>1701562221.212445</v>
       </c>
@@ -11966,8 +13475,11 @@
       <c r="G503">
         <v>99.381</v>
       </c>
-    </row>
-    <row r="504" spans="1:7">
+      <c r="H503">
+        <v>534.692941870292</v>
+      </c>
+    </row>
+    <row r="504" spans="1:8">
       <c r="A504">
         <v>1701566063.2226</v>
       </c>
@@ -11989,8 +13501,11 @@
       <c r="G504">
         <v>99.238</v>
       </c>
-    </row>
-    <row r="505" spans="1:7">
+      <c r="H504">
+        <v>535.7601669132047</v>
+      </c>
+    </row>
+    <row r="505" spans="1:8">
       <c r="A505">
         <v>1701569905.322378</v>
       </c>
@@ -12012,8 +13527,11 @@
       <c r="G505">
         <v>98.87</v>
       </c>
-    </row>
-    <row r="506" spans="1:7">
+      <c r="H505">
+        <v>536.8274168517192</v>
+      </c>
+    </row>
+    <row r="506" spans="1:8">
       <c r="A506">
         <v>1701573747.369448</v>
       </c>
@@ -12035,8 +13553,11 @@
       <c r="G506">
         <v>98.321</v>
       </c>
-    </row>
-    <row r="507" spans="1:7">
+      <c r="H506">
+        <v>537.8946521489488</v>
+      </c>
+    </row>
+    <row r="507" spans="1:8">
       <c r="A507">
         <v>1701577589.410453</v>
       </c>
@@ -12058,8 +13579,11 @@
       <c r="G507">
         <v>98.126</v>
       </c>
-    </row>
-    <row r="508" spans="1:7">
+      <c r="H507">
+        <v>538.9618857613538</v>
+      </c>
+    </row>
+    <row r="508" spans="1:8">
       <c r="A508">
         <v>1701581431.444621</v>
       </c>
@@ -12081,8 +13605,11 @@
       <c r="G508">
         <v>97.598</v>
       </c>
-    </row>
-    <row r="509" spans="1:7">
+      <c r="H508">
+        <v>540.0291174746222</v>
+      </c>
+    </row>
+    <row r="509" spans="1:8">
       <c r="A509">
         <v>1701585273.490657</v>
       </c>
@@ -12104,8 +13631,11 @@
       <c r="G509">
         <v>97.432</v>
       </c>
-    </row>
-    <row r="510" spans="1:7">
+      <c r="H509">
+        <v>541.0963524846899</v>
+      </c>
+    </row>
+    <row r="510" spans="1:8">
       <c r="A510">
         <v>1701589115.594976</v>
       </c>
@@ -12127,8 +13657,11 @@
       <c r="G510">
         <v>97.203</v>
       </c>
-    </row>
-    <row r="511" spans="1:7">
+      <c r="H510">
+        <v>542.1636036845711</v>
+      </c>
+    </row>
+    <row r="511" spans="1:8">
       <c r="A511">
         <v>1701592957.660455</v>
       </c>
@@ -12150,8 +13683,11 @@
       <c r="G511">
         <v>96.813</v>
       </c>
-    </row>
-    <row r="512" spans="1:7">
+      <c r="H511">
+        <v>543.2308440953493</v>
+      </c>
+    </row>
+    <row r="512" spans="1:8">
       <c r="A512">
         <v>1701596799.749052</v>
       </c>
@@ -12173,8 +13709,11 @@
       <c r="G512">
         <v>96.649</v>
       </c>
-    </row>
-    <row r="513" spans="1:7">
+      <c r="H512">
+        <v>544.2980909277995</v>
+      </c>
+    </row>
+    <row r="513" spans="1:8">
       <c r="A513">
         <v>1701600641.771187</v>
       </c>
@@ -12196,8 +13735,11 @@
       <c r="G513">
         <v>96.485</v>
       </c>
-    </row>
-    <row r="514" spans="1:7">
+      <c r="H513">
+        <v>545.3653192985058</v>
+      </c>
+    </row>
+    <row r="514" spans="1:8">
       <c r="A514">
         <v>1701604483.815988</v>
       </c>
@@ -12219,8 +13761,11 @@
       <c r="G514">
         <v>96.366</v>
       </c>
-    </row>
-    <row r="515" spans="1:7">
+      <c r="H514">
+        <v>546.432553965648</v>
+      </c>
+    </row>
+    <row r="515" spans="1:8">
       <c r="A515">
         <v>1701608325.935376</v>
       </c>
@@ -12242,8 +13787,11 @@
       <c r="G515">
         <v>96.09399999999999</v>
       </c>
-    </row>
-    <row r="516" spans="1:7">
+      <c r="H515">
+        <v>547.4998093510336</v>
+      </c>
+    </row>
+    <row r="516" spans="1:8">
       <c r="A516">
         <v>1701612167.98286</v>
       </c>
@@ -12265,8 +13813,11 @@
       <c r="G516">
         <v>96.045</v>
       </c>
-    </row>
-    <row r="517" spans="1:7">
+      <c r="H516">
+        <v>548.5670447633664</v>
+      </c>
+    </row>
+    <row r="517" spans="1:8">
       <c r="A517">
         <v>1701616010.022634</v>
       </c>
@@ -12288,8 +13839,11 @@
       <c r="G517">
         <v>95.673</v>
       </c>
-    </row>
-    <row r="518" spans="1:7">
+      <c r="H517">
+        <v>549.6342780339055</v>
+      </c>
+    </row>
+    <row r="518" spans="1:8">
       <c r="A518">
         <v>1701619852.054415</v>
       </c>
@@ -12311,8 +13865,11 @@
       <c r="G518">
         <v>95.51300000000001</v>
       </c>
-    </row>
-    <row r="519" spans="1:7">
+      <c r="H518">
+        <v>550.7015090841055</v>
+      </c>
+    </row>
+    <row r="519" spans="1:8">
       <c r="A519">
         <v>1701623694.133113</v>
       </c>
@@ -12334,8 +13891,11 @@
       <c r="G519">
         <v>95.48099999999999</v>
       </c>
-    </row>
-    <row r="520" spans="1:7">
+      <c r="H519">
+        <v>551.7687531670597</v>
+      </c>
+    </row>
+    <row r="520" spans="1:8">
       <c r="A520">
         <v>1701627536.210008</v>
       </c>
@@ -12357,8 +13917,11 @@
       <c r="G520">
         <v>95.611</v>
       </c>
-    </row>
-    <row r="521" spans="1:7">
+      <c r="H520">
+        <v>552.8359967488713</v>
+      </c>
+    </row>
+    <row r="521" spans="1:8">
       <c r="A521">
         <v>1701631378.275236</v>
       </c>
@@ -12380,8 +13943,11 @@
       <c r="G521">
         <v>95.529</v>
       </c>
-    </row>
-    <row r="522" spans="1:7">
+      <c r="H521">
+        <v>553.9032370899783</v>
+      </c>
+    </row>
+    <row r="522" spans="1:8">
       <c r="A522">
         <v>1701635220.366194</v>
       </c>
@@ -12403,8 +13969,11 @@
       <c r="G522">
         <v>95.70999999999999</v>
       </c>
-    </row>
-    <row r="523" spans="1:7">
+      <c r="H522">
+        <v>554.9704845782783</v>
+      </c>
+    </row>
+    <row r="523" spans="1:8">
       <c r="A523">
         <v>1701639062.456386</v>
       </c>
@@ -12426,8 +13995,11 @@
       <c r="G523">
         <v>95.812</v>
       </c>
-    </row>
-    <row r="524" spans="1:7">
+      <c r="H523">
+        <v>556.0377318539885</v>
+      </c>
+    </row>
+    <row r="524" spans="1:8">
       <c r="A524">
         <v>1701642904.473253</v>
       </c>
@@ -12449,8 +14021,11 @@
       <c r="G524">
         <v>95.95</v>
       </c>
-    </row>
-    <row r="525" spans="1:7">
+      <c r="H524">
+        <v>557.1049587613344</v>
+      </c>
+    </row>
+    <row r="525" spans="1:8">
       <c r="A525">
         <v>1701646746.562272</v>
       </c>
@@ -12472,8 +14047,11 @@
       <c r="G525">
         <v>96.077</v>
       </c>
-    </row>
-    <row r="526" spans="1:7">
+      <c r="H525">
+        <v>558.1722057110734</v>
+      </c>
+    </row>
+    <row r="526" spans="1:8">
       <c r="A526">
         <v>1701650588.673229</v>
       </c>
@@ -12495,8 +14073,11 @@
       <c r="G526">
         <v>96.636</v>
       </c>
-    </row>
-    <row r="527" spans="1:7">
+      <c r="H526">
+        <v>559.2394587545924</v>
+      </c>
+    </row>
+    <row r="527" spans="1:8">
       <c r="A527">
         <v>1701654430.695228</v>
       </c>
@@ -12518,8 +14099,11 @@
       <c r="G527">
         <v>96.863</v>
       </c>
-    </row>
-    <row r="528" spans="1:7">
+      <c r="H527">
+        <v>560.3066870876816</v>
+      </c>
+    </row>
+    <row r="528" spans="1:8">
       <c r="A528">
         <v>1701658272.811359</v>
       </c>
@@ -12541,8 +14125,11 @@
       <c r="G528">
         <v>96.756</v>
       </c>
-    </row>
-    <row r="529" spans="1:7">
+      <c r="H528">
+        <v>561.3739415687322</v>
+      </c>
+    </row>
+    <row r="529" spans="1:8">
       <c r="A529">
         <v>1701662114.906255</v>
       </c>
@@ -12564,8 +14151,11 @@
       <c r="G529">
         <v>96.402</v>
       </c>
-    </row>
-    <row r="530" spans="1:7">
+      <c r="H529">
+        <v>562.4411901509761</v>
+      </c>
+    </row>
+    <row r="530" spans="1:8">
       <c r="A530">
         <v>1701665956.972004</v>
       </c>
@@ -12587,8 +14177,11 @@
       <c r="G530">
         <v>96.154</v>
       </c>
-    </row>
-    <row r="531" spans="1:7">
+      <c r="H530">
+        <v>563.5084306367901</v>
+      </c>
+    </row>
+    <row r="531" spans="1:8">
       <c r="A531">
         <v>1701669799.081124</v>
       </c>
@@ -12610,8 +14203,11 @@
       <c r="G531">
         <v>95.765</v>
       </c>
-    </row>
-    <row r="532" spans="1:7">
+      <c r="H531">
+        <v>564.5756831698948</v>
+      </c>
+    </row>
+    <row r="532" spans="1:8">
       <c r="A532">
         <v>1701673641.178652</v>
       </c>
@@ -12633,8 +14229,11 @@
       <c r="G532">
         <v>95.57899999999999</v>
       </c>
-    </row>
-    <row r="533" spans="1:7">
+      <c r="H532">
+        <v>565.6429324832227</v>
+      </c>
+    </row>
+    <row r="533" spans="1:8">
       <c r="A533">
         <v>1701677483.200031</v>
       </c>
@@ -12656,8 +14255,11 @@
       <c r="G533">
         <v>95.265</v>
       </c>
-    </row>
-    <row r="534" spans="1:7">
+      <c r="H533">
+        <v>566.7101606441869</v>
+      </c>
+    </row>
+    <row r="534" spans="1:8">
       <c r="A534">
         <v>1701681325.227126</v>
       </c>
@@ -12679,8 +14281,11 @@
       <c r="G534">
         <v>95.117</v>
       </c>
-    </row>
-    <row r="535" spans="1:7">
+      <c r="H534">
+        <v>567.7773903928862</v>
+      </c>
+    </row>
+    <row r="535" spans="1:8">
       <c r="A535">
         <v>1701685167.333005</v>
       </c>
@@ -12702,8 +14307,11 @@
       <c r="G535">
         <v>94.86799999999999</v>
       </c>
-    </row>
-    <row r="536" spans="1:7">
+      <c r="H535">
+        <v>568.8446420258283</v>
+      </c>
+    </row>
+    <row r="536" spans="1:8">
       <c r="A536">
         <v>1701689009.357602</v>
       </c>
@@ -12725,8 +14333,11 @@
       <c r="G536">
         <v>94.514</v>
       </c>
-    </row>
-    <row r="537" spans="1:7">
+      <c r="H536">
+        <v>569.911871080531</v>
+      </c>
+    </row>
+    <row r="537" spans="1:8">
       <c r="A537">
         <v>1701692851.448347</v>
       </c>
@@ -12748,8 +14359,11 @@
       <c r="G537">
         <v>94.845</v>
       </c>
-    </row>
-    <row r="538" spans="1:7">
+      <c r="H537">
+        <v>570.9791185096237</v>
+      </c>
+    </row>
+    <row r="538" spans="1:8">
       <c r="A538">
         <v>1701696693.546678</v>
       </c>
@@ -12771,8 +14385,11 @@
       <c r="G538">
         <v>95.533</v>
       </c>
-    </row>
-    <row r="539" spans="1:7">
+      <c r="H538">
+        <v>572.0463680462043</v>
+      </c>
+    </row>
+    <row r="539" spans="1:8">
       <c r="A539">
         <v>1701700535.651598</v>
       </c>
@@ -12794,8 +14411,11 @@
       <c r="G539">
         <v>96.801</v>
       </c>
-    </row>
-    <row r="540" spans="1:7">
+      <c r="H539">
+        <v>573.1136194129123</v>
+      </c>
+    </row>
+    <row r="540" spans="1:8">
       <c r="A540">
         <v>1701704377.72796</v>
       </c>
@@ -12817,8 +14437,11 @@
       <c r="G540">
         <v>98.03700000000001</v>
       </c>
-    </row>
-    <row r="541" spans="1:7">
+      <c r="H540">
+        <v>574.1808628465732</v>
+      </c>
+    </row>
+    <row r="541" spans="1:8">
       <c r="A541">
         <v>1701708219.837849</v>
       </c>
@@ -12840,8 +14463,11 @@
       <c r="G541">
         <v>98.98699999999999</v>
       </c>
-    </row>
-    <row r="542" spans="1:7">
+      <c r="H541">
+        <v>575.2481155936586</v>
+      </c>
+    </row>
+    <row r="542" spans="1:8">
       <c r="A542">
         <v>1701712061.926656</v>
       </c>
@@ -12863,8 +14489,11 @@
       <c r="G542">
         <v>99.72199999999999</v>
       </c>
-    </row>
-    <row r="543" spans="1:7">
+      <c r="H542">
+        <v>576.3153624843889</v>
+      </c>
+    </row>
+    <row r="543" spans="1:8">
       <c r="A543">
         <v>1701715904.004993</v>
       </c>
@@ -12886,8 +14515,11 @@
       <c r="G543">
         <v>100.051</v>
       </c>
-    </row>
-    <row r="544" spans="1:7">
+      <c r="H543">
+        <v>577.3826064669423</v>
+      </c>
+    </row>
+    <row r="544" spans="1:8">
       <c r="A544">
         <v>1701719746.022734</v>
       </c>
@@ -12909,8 +14541,11 @@
       <c r="G544">
         <v>100.369</v>
       </c>
-    </row>
-    <row r="545" spans="1:7">
+      <c r="H544">
+        <v>578.4498336172104</v>
+      </c>
+    </row>
+    <row r="545" spans="1:8">
       <c r="A545">
         <v>1701723588.087493</v>
       </c>
@@ -12932,8 +14567,11 @@
       <c r="G545">
         <v>100.384</v>
       </c>
-    </row>
-    <row r="546" spans="1:7">
+      <c r="H545">
+        <v>579.5170738281143</v>
+      </c>
+    </row>
+    <row r="546" spans="1:8">
       <c r="A546">
         <v>1701727430.09446</v>
       </c>
@@ -12955,8 +14593,11 @@
       <c r="G546">
         <v>100.661</v>
       </c>
-    </row>
-    <row r="547" spans="1:7">
+      <c r="H546">
+        <v>580.5842979856994</v>
+      </c>
+    </row>
+    <row r="547" spans="1:8">
       <c r="A547">
         <v>1701731272.179525</v>
       </c>
@@ -12978,8 +14619,11 @@
       <c r="G547">
         <v>100.79</v>
       </c>
-    </row>
-    <row r="548" spans="1:7">
+      <c r="H547">
+        <v>581.6515438369248</v>
+      </c>
+    </row>
+    <row r="548" spans="1:8">
       <c r="A548">
         <v>1701735114.246693</v>
       </c>
@@ -13001,8 +14645,11 @@
       <c r="G548">
         <v>101.095</v>
       </c>
-    </row>
-    <row r="549" spans="1:7">
+      <c r="H548">
+        <v>582.718784716924</v>
+      </c>
+    </row>
+    <row r="549" spans="1:8">
       <c r="A549">
         <v>1701738956.324391</v>
       </c>
@@ -13024,8 +14671,11 @@
       <c r="G549">
         <v>100.649</v>
       </c>
-    </row>
-    <row r="550" spans="1:7">
+      <c r="H549">
+        <v>583.7860285218557</v>
+      </c>
+    </row>
+    <row r="550" spans="1:8">
       <c r="A550">
         <v>1701742798.388507</v>
       </c>
@@ -13047,8 +14697,11 @@
       <c r="G550">
         <v>100.365</v>
       </c>
-    </row>
-    <row r="551" spans="1:7">
+      <c r="H550">
+        <v>584.8532685542107</v>
+      </c>
+    </row>
+    <row r="551" spans="1:8">
       <c r="A551">
         <v>1701746640.480301</v>
       </c>
@@ -13070,8 +14723,11 @@
       <c r="G551">
         <v>99.33199999999999</v>
       </c>
-    </row>
-    <row r="552" spans="1:7">
+      <c r="H551">
+        <v>585.9205162747701</v>
+      </c>
+    </row>
+    <row r="552" spans="1:8">
       <c r="A552">
         <v>1701750482.548031</v>
       </c>
@@ -13093,8 +14749,11 @@
       <c r="G552">
         <v>98.518</v>
       </c>
-    </row>
-    <row r="553" spans="1:7">
+      <c r="H552">
+        <v>586.9877573107349</v>
+      </c>
+    </row>
+    <row r="553" spans="1:8">
       <c r="A553">
         <v>1701754324.656622</v>
       </c>
@@ -13116,8 +14775,11 @@
       <c r="G553">
         <v>97.705</v>
       </c>
-    </row>
-    <row r="554" spans="1:7">
+      <c r="H553">
+        <v>588.0550096971459</v>
+      </c>
+    </row>
+    <row r="554" spans="1:8">
       <c r="A554">
         <v>1701758166.736908</v>
       </c>
@@ -13139,8 +14801,11 @@
       <c r="G554">
         <v>96.989</v>
       </c>
-    </row>
-    <row r="555" spans="1:7">
+      <c r="H554">
+        <v>589.1222542211083</v>
+      </c>
+    </row>
+    <row r="555" spans="1:8">
       <c r="A555">
         <v>1701762008.907233</v>
       </c>
@@ -13162,8 +14827,11 @@
       <c r="G555">
         <v>96.309</v>
       </c>
-    </row>
-    <row r="556" spans="1:7">
+      <c r="H555">
+        <v>590.189523755908</v>
+      </c>
+    </row>
+    <row r="556" spans="1:8">
       <c r="A556">
         <v>1701765850.995819</v>
       </c>
@@ -13185,8 +14853,11 @@
       <c r="G556">
         <v>95.73099999999999</v>
       </c>
-    </row>
-    <row r="557" spans="1:7">
+      <c r="H556">
+        <v>591.2567705852456</v>
+      </c>
+    </row>
+    <row r="557" spans="1:8">
       <c r="A557">
         <v>1701769693.058466</v>
       </c>
@@ -13208,8 +14879,11 @@
       <c r="G557">
         <v>95.443</v>
       </c>
-    </row>
-    <row r="558" spans="1:7">
+      <c r="H557">
+        <v>592.3240102094412</v>
+      </c>
+    </row>
+    <row r="558" spans="1:8">
       <c r="A558">
         <v>1701773535.138496</v>
       </c>
@@ -13231,8 +14905,11 @@
       <c r="G558">
         <v>95.023</v>
       </c>
-    </row>
-    <row r="559" spans="1:7">
+      <c r="H558">
+        <v>593.3912546622753</v>
+      </c>
+    </row>
+    <row r="559" spans="1:8">
       <c r="A559">
         <v>1701777377.168946</v>
       </c>
@@ -13254,8 +14931,11 @@
       <c r="G559">
         <v>95.17</v>
       </c>
-    </row>
-    <row r="560" spans="1:7">
+      <c r="H559">
+        <v>594.4584853426616</v>
+      </c>
+    </row>
+    <row r="560" spans="1:8">
       <c r="A560">
         <v>1701781219.210061</v>
       </c>
@@ -13277,8 +14957,11 @@
       <c r="G560">
         <v>95.90600000000001</v>
       </c>
-    </row>
-    <row r="561" spans="1:7">
+      <c r="H560">
+        <v>595.5257189857298</v>
+      </c>
+    </row>
+    <row r="561" spans="1:8">
       <c r="A561">
         <v>1701785061.340989</v>
       </c>
@@ -13300,8 +14983,11 @@
       <c r="G561">
         <v>97.261</v>
       </c>
-    </row>
-    <row r="562" spans="1:7">
+      <c r="H561">
+        <v>596.5929775770505</v>
+      </c>
+    </row>
+    <row r="562" spans="1:8">
       <c r="A562">
         <v>1701788903.404425</v>
       </c>
@@ -13323,8 +15009,11 @@
       <c r="G562">
         <v>98.22</v>
       </c>
-    </row>
-    <row r="563" spans="1:7">
+      <c r="H562">
+        <v>597.6602174203264</v>
+      </c>
+    </row>
+    <row r="563" spans="1:8">
       <c r="A563">
         <v>1701792745.432766</v>
       </c>
@@ -13346,8 +15035,11 @@
       <c r="G563">
         <v>99.303</v>
       </c>
-    </row>
-    <row r="564" spans="1:7">
+      <c r="H563">
+        <v>598.7274475150638</v>
+      </c>
+    </row>
+    <row r="564" spans="1:8">
       <c r="A564">
         <v>1701796587.551959</v>
       </c>
@@ -13369,8 +15061,11 @@
       <c r="G564">
         <v>100.096</v>
       </c>
-    </row>
-    <row r="565" spans="1:7">
+      <c r="H564">
+        <v>599.7947028462754</v>
+      </c>
+    </row>
+    <row r="565" spans="1:8">
       <c r="A565">
         <v>1701800429.704399</v>
       </c>
@@ -13392,8 +15087,11 @@
       <c r="G565">
         <v>100.653</v>
       </c>
-    </row>
-    <row r="566" spans="1:7">
+      <c r="H565">
+        <v>600.8619674130944</v>
+      </c>
+    </row>
+    <row r="566" spans="1:8">
       <c r="A566">
         <v>1701804271.751545</v>
       </c>
@@ -13415,8 +15113,11 @@
       <c r="G566">
         <v>101</v>
       </c>
-    </row>
-    <row r="567" spans="1:7">
+      <c r="H566">
+        <v>601.9292027314503</v>
+      </c>
+    </row>
+    <row r="567" spans="1:8">
       <c r="A567">
         <v>1701808113.834863</v>
       </c>
@@ -13438,8 +15139,11 @@
       <c r="G567">
         <v>101.001</v>
       </c>
-    </row>
-    <row r="568" spans="1:7">
+      <c r="H567">
+        <v>602.9964480975601</v>
+      </c>
+    </row>
+    <row r="568" spans="1:8">
       <c r="A568">
         <v>1701811955.950484</v>
       </c>
@@ -13461,8 +15165,11 @@
       <c r="G568">
         <v>100.885</v>
       </c>
-    </row>
-    <row r="569" spans="1:7">
+      <c r="H568">
+        <v>604.0637024365531</v>
+      </c>
+    </row>
+    <row r="569" spans="1:8">
       <c r="A569">
         <v>1701815797.957011</v>
       </c>
@@ -13484,8 +15191,11 @@
       <c r="G569">
         <v>101.177</v>
       </c>
-    </row>
-    <row r="570" spans="1:7">
+      <c r="H569">
+        <v>605.1309264719487</v>
+      </c>
+    </row>
+    <row r="570" spans="1:8">
       <c r="A570">
         <v>1701819640.03454</v>
       </c>
@@ -13507,8 +15217,11 @@
       <c r="G570">
         <v>101.098</v>
       </c>
-    </row>
-    <row r="571" spans="1:7">
+      <c r="H570">
+        <v>606.198170229925</v>
+      </c>
+    </row>
+    <row r="571" spans="1:8">
       <c r="A571">
         <v>1701823482.143104</v>
       </c>
@@ -13530,8 +15243,11 @@
       <c r="G571">
         <v>100.932</v>
       </c>
-    </row>
-    <row r="572" spans="1:7">
+      <c r="H571">
+        <v>607.2654226089186</v>
+      </c>
+    </row>
+    <row r="572" spans="1:8">
       <c r="A572">
         <v>1701827324.179912</v>
       </c>
@@ -13553,8 +15269,11 @@
       <c r="G572">
         <v>100.384</v>
       </c>
-    </row>
-    <row r="573" spans="1:7">
+      <c r="H572">
+        <v>608.3326550555892</v>
+      </c>
+    </row>
+    <row r="573" spans="1:8">
       <c r="A573">
         <v>1701831166.257539</v>
       </c>
@@ -13576,8 +15295,11 @@
       <c r="G573">
         <v>99.246</v>
       </c>
-    </row>
-    <row r="574" spans="1:7">
+      <c r="H573">
+        <v>609.399898840785</v>
+      </c>
+    </row>
+    <row r="574" spans="1:8">
       <c r="A574">
         <v>1701835008.401193</v>
       </c>
@@ -13599,8 +15321,11 @@
       <c r="G574">
         <v>97.98</v>
       </c>
-    </row>
-    <row r="575" spans="1:7">
+      <c r="H574">
+        <v>610.4671609669261</v>
+      </c>
+    </row>
+    <row r="575" spans="1:8">
       <c r="A575">
         <v>1701838850.540318</v>
       </c>
@@ -13622,8 +15347,11 @@
       <c r="G575">
         <v>96.79000000000001</v>
       </c>
-    </row>
-    <row r="576" spans="1:7">
+      <c r="H575">
+        <v>611.5344218351444</v>
+      </c>
+    </row>
+    <row r="576" spans="1:8">
       <c r="A576">
         <v>1701842692.673698</v>
       </c>
@@ -13645,8 +15373,11 @@
       <c r="G576">
         <v>95.688</v>
       </c>
-    </row>
-    <row r="577" spans="1:7">
+      <c r="H576">
+        <v>612.6016811072826</v>
+      </c>
+    </row>
+    <row r="577" spans="1:8">
       <c r="A577">
         <v>1701846534.771143</v>
       </c>
@@ -13668,8 +15399,11 @@
       <c r="G577">
         <v>94.58</v>
       </c>
-    </row>
-    <row r="578" spans="1:7">
+      <c r="H577">
+        <v>613.6689303974973</v>
+      </c>
+    </row>
+    <row r="578" spans="1:8">
       <c r="A578">
         <v>1701850376.833419</v>
       </c>
@@ -13691,8 +15425,11 @@
       <c r="G578">
         <v>93.684</v>
       </c>
-    </row>
-    <row r="579" spans="1:7">
+      <c r="H578">
+        <v>614.7361699186431</v>
+      </c>
+    </row>
+    <row r="579" spans="1:8">
       <c r="A579">
         <v>1701854218.906254</v>
       </c>
@@ -13714,8 +15451,11 @@
       <c r="G579">
         <v>93.295</v>
       </c>
-    </row>
-    <row r="580" spans="1:7">
+      <c r="H579">
+        <v>615.8034123728011</v>
+      </c>
+    </row>
+    <row r="580" spans="1:8">
       <c r="A580">
         <v>1701858061.034538</v>
       </c>
@@ -13737,8 +15477,11 @@
       <c r="G580">
         <v>92.952</v>
       </c>
-    </row>
-    <row r="581" spans="1:7">
+      <c r="H580">
+        <v>616.8706702293953</v>
+      </c>
+    </row>
+    <row r="581" spans="1:8">
       <c r="A581">
         <v>1701861903.122621</v>
       </c>
@@ -13760,8 +15503,11 @@
       <c r="G581">
         <v>92.66200000000001</v>
       </c>
-    </row>
-    <row r="582" spans="1:7">
+      <c r="H581">
+        <v>617.9379169192579</v>
+      </c>
+    </row>
+    <row r="582" spans="1:8">
       <c r="A582">
         <v>1701865745.204728</v>
       </c>
@@ -13783,8 +15529,11 @@
       <c r="G582">
         <v>93.018</v>
       </c>
-    </row>
-    <row r="583" spans="1:7">
+      <c r="H582">
+        <v>619.0051619488663</v>
+      </c>
+    </row>
+    <row r="583" spans="1:8">
       <c r="A583">
         <v>1701869587.257051</v>
       </c>
@@ -13806,8 +15555,11 @@
       <c r="G583">
         <v>93.759</v>
       </c>
-    </row>
-    <row r="584" spans="1:7">
+      <c r="H583">
+        <v>620.0723987052838</v>
+      </c>
+    </row>
+    <row r="584" spans="1:8">
       <c r="A584">
         <v>1701873429.34005</v>
       </c>
@@ -13829,8 +15581,11 @@
       <c r="G584">
         <v>94.86499999999999</v>
       </c>
-    </row>
-    <row r="585" spans="1:7">
+      <c r="H584">
+        <v>621.1396439829138</v>
+      </c>
+    </row>
+    <row r="585" spans="1:8">
       <c r="A585">
         <v>1701877271.394724</v>
       </c>
@@ -13852,8 +15607,11 @@
       <c r="G585">
         <v>96.364</v>
       </c>
-    </row>
-    <row r="586" spans="1:7">
+      <c r="H585">
+        <v>622.2068813921345</v>
+      </c>
+    </row>
+    <row r="586" spans="1:8">
       <c r="A586">
         <v>1701881113.415512</v>
       </c>
@@ -13875,8 +15633,11 @@
       <c r="G586">
         <v>85.937</v>
       </c>
-    </row>
-    <row r="587" spans="1:7">
+      <c r="H586">
+        <v>623.274109388921</v>
+      </c>
+    </row>
+    <row r="587" spans="1:8">
       <c r="A587">
         <v>1701884955.487005</v>
       </c>
@@ -13898,8 +15659,11 @@
       <c r="G587">
         <v>92.01900000000001</v>
       </c>
-    </row>
-    <row r="588" spans="1:7">
+      <c r="H587">
+        <v>624.341351470285</v>
+      </c>
+    </row>
+    <row r="588" spans="1:8">
       <c r="A588">
         <v>1701888798.738966</v>
       </c>
@@ -13921,8 +15685,11 @@
       <c r="G588">
         <v>93.98099999999999</v>
       </c>
-    </row>
-    <row r="589" spans="1:7">
+      <c r="H588">
+        <v>625.4089214594496</v>
+      </c>
+    </row>
+    <row r="589" spans="1:8">
       <c r="A589">
         <v>1701892642.042856</v>
       </c>
@@ -13944,8 +15711,11 @@
       <c r="G589">
         <v>94.825</v>
       </c>
-    </row>
-    <row r="590" spans="1:7">
+      <c r="H589">
+        <v>626.4765058734019</v>
+      </c>
+    </row>
+    <row r="590" spans="1:8">
       <c r="A590">
         <v>1701896485.33116</v>
       </c>
@@ -13967,8 +15737,11 @@
       <c r="G590">
         <v>95.172</v>
       </c>
-    </row>
-    <row r="591" spans="1:7">
+      <c r="H590">
+        <v>627.5440859578715</v>
+      </c>
+    </row>
+    <row r="591" spans="1:8">
       <c r="A591">
         <v>1701900328.576986</v>
       </c>
@@ -13990,8 +15763,11 @@
       <c r="G591">
         <v>94.81100000000001</v>
       </c>
-    </row>
-    <row r="592" spans="1:7">
+      <c r="H591">
+        <v>628.6116542427408</v>
+      </c>
+    </row>
+    <row r="592" spans="1:8">
       <c r="A592">
         <v>1701904171.90015</v>
       </c>
@@ -14013,8 +15789,11 @@
       <c r="G592">
         <v>94.843</v>
       </c>
-    </row>
-    <row r="593" spans="1:7">
+      <c r="H592">
+        <v>629.6792440105147</v>
+      </c>
+    </row>
+    <row r="593" spans="1:8">
       <c r="A593">
         <v>1701908015.137721</v>
       </c>
@@ -14036,8 +15815,11 @@
       <c r="G593">
         <v>94.592</v>
       </c>
-    </row>
-    <row r="594" spans="1:7">
+      <c r="H593">
+        <v>630.7468100024594</v>
+      </c>
+    </row>
+    <row r="594" spans="1:8">
       <c r="A594">
         <v>1701911858.353447</v>
       </c>
@@ -14059,8 +15841,11 @@
       <c r="G594">
         <v>94.575</v>
       </c>
-    </row>
-    <row r="595" spans="1:7">
+      <c r="H594">
+        <v>631.8143699265189</v>
+      </c>
+    </row>
+    <row r="595" spans="1:8">
       <c r="A595">
         <v>1701915701.581196</v>
       </c>
@@ -14082,8 +15867,11 @@
       <c r="G595">
         <v>93.71599999999999</v>
       </c>
-    </row>
-    <row r="596" spans="1:7">
+      <c r="H595">
+        <v>632.8819331900941</v>
+      </c>
+    </row>
+    <row r="596" spans="1:8">
       <c r="A596">
         <v>1701919544.824422</v>
       </c>
@@ -14105,8 +15893,11 @@
       <c r="G596">
         <v>93.32899999999999</v>
       </c>
-    </row>
-    <row r="597" spans="1:7">
+      <c r="H596">
+        <v>633.9495007526874</v>
+      </c>
+    </row>
+    <row r="597" spans="1:8">
       <c r="A597">
         <v>1701923388.074393</v>
       </c>
@@ -14128,8 +15919,11 @@
       <c r="G597">
         <v>93.226</v>
       </c>
-    </row>
-    <row r="598" spans="1:7">
+      <c r="H597">
+        <v>635.0170701890521</v>
+      </c>
+    </row>
+    <row r="598" spans="1:8">
       <c r="A598">
         <v>1701927231.391077</v>
       </c>
@@ -14151,8 +15945,11 @@
       <c r="G598">
         <v>92.51600000000001</v>
       </c>
-    </row>
-    <row r="599" spans="1:7">
+      <c r="H598">
+        <v>636.0846581568983</v>
+      </c>
+    </row>
+    <row r="599" spans="1:8">
       <c r="A599">
         <v>1701931074.627819</v>
       </c>
@@ -14174,8 +15971,11 @@
       <c r="G599">
         <v>91.712</v>
       </c>
-    </row>
-    <row r="600" spans="1:7">
+      <c r="H599">
+        <v>637.1522239186367</v>
+      </c>
+    </row>
+    <row r="600" spans="1:8">
       <c r="A600">
         <v>1701934917.906819</v>
       </c>
@@ -14197,8 +15997,11 @@
       <c r="G600">
         <v>90.548</v>
       </c>
-    </row>
-    <row r="601" spans="1:7">
+      <c r="H600">
+        <v>638.2198014185826</v>
+      </c>
+    </row>
+    <row r="601" spans="1:8">
       <c r="A601">
         <v>1701938761.107972</v>
       </c>
@@ -14220,8 +16023,11 @@
       <c r="G601">
         <v>89.60299999999999</v>
       </c>
-    </row>
-    <row r="602" spans="1:7">
+      <c r="H601">
+        <v>639.287357294427</v>
+      </c>
+    </row>
+    <row r="602" spans="1:8">
       <c r="A602">
         <v>1701942604.364453</v>
       </c>
@@ -14243,8 +16049,11 @@
       <c r="G602">
         <v>88.86</v>
       </c>
-    </row>
-    <row r="603" spans="1:7">
+      <c r="H602">
+        <v>640.3549285390642</v>
+      </c>
+    </row>
+    <row r="603" spans="1:8">
       <c r="A603">
         <v>1701946447.610061</v>
       </c>
@@ -14266,8 +16075,11 @@
       <c r="G603">
         <v>87.997</v>
       </c>
-    </row>
-    <row r="604" spans="1:7">
+      <c r="H603">
+        <v>641.422496763534</v>
+      </c>
+    </row>
+    <row r="604" spans="1:8">
       <c r="A604">
         <v>1701950290.876801</v>
       </c>
@@ -14289,8 +16101,11 @@
       <c r="G604">
         <v>87.72</v>
       </c>
-    </row>
-    <row r="605" spans="1:7">
+      <c r="H604">
+        <v>642.4900708582004</v>
+      </c>
+    </row>
+    <row r="605" spans="1:8">
       <c r="A605">
         <v>1701954134.130459</v>
       </c>
@@ -14312,8 +16127,11 @@
       <c r="G605">
         <v>88.024</v>
       </c>
-    </row>
-    <row r="606" spans="1:7">
+      <c r="H605">
+        <v>643.5576413185729</v>
+      </c>
+    </row>
+    <row r="606" spans="1:8">
       <c r="A606">
         <v>1701957977.38306</v>
       </c>
@@ -14335,8 +16153,11 @@
       <c r="G606">
         <v>88.657</v>
       </c>
-    </row>
-    <row r="607" spans="1:7">
+      <c r="H606">
+        <v>644.6252114856243</v>
+      </c>
+    </row>
+    <row r="607" spans="1:8">
       <c r="A607">
         <v>1701961820.679957</v>
       </c>
@@ -14358,8 +16179,11 @@
       <c r="G607">
         <v>88.911</v>
       </c>
-    </row>
-    <row r="608" spans="1:7">
+      <c r="H607">
+        <v>645.6927939569288</v>
+      </c>
+    </row>
+    <row r="608" spans="1:8">
       <c r="A608">
         <v>1701965663.930395</v>
       </c>
@@ -14381,8 +16205,11 @@
       <c r="G608">
         <v>88.64100000000001</v>
       </c>
-    </row>
-    <row r="609" spans="1:7">
+      <c r="H608">
+        <v>646.7603635230992</v>
+      </c>
+    </row>
+    <row r="609" spans="1:8">
       <c r="A609">
         <v>1701969507.217674</v>
       </c>
@@ -14404,8 +16231,11 @@
       <c r="G609">
         <v>87.983</v>
       </c>
-    </row>
-    <row r="610" spans="1:7">
+      <c r="H609">
+        <v>647.8279433226585</v>
+      </c>
+    </row>
+    <row r="610" spans="1:8">
       <c r="A610">
         <v>1701973350.518143</v>
       </c>
@@ -14427,8 +16257,11 @@
       <c r="G610">
         <v>87.607</v>
       </c>
-    </row>
-    <row r="611" spans="1:7">
+      <c r="H610">
+        <v>648.8955267864466</v>
+      </c>
+    </row>
+    <row r="611" spans="1:8">
       <c r="A611">
         <v>1701977193.806376</v>
       </c>
@@ -14450,8 +16283,11 @@
       <c r="G611">
         <v>87.28</v>
       </c>
-    </row>
-    <row r="612" spans="1:7">
+      <c r="H611">
+        <v>649.9631068509817</v>
+      </c>
+    </row>
+    <row r="612" spans="1:8">
       <c r="A612">
         <v>1701981037.235389</v>
       </c>
@@ -14473,8 +16309,11 @@
       <c r="G612">
         <v>86.922</v>
       </c>
-    </row>
-    <row r="613" spans="1:7">
+      <c r="H612">
+        <v>651.030726021462</v>
+      </c>
+    </row>
+    <row r="613" spans="1:8">
       <c r="A613">
         <v>1701984880.866106</v>
       </c>
@@ -14496,8 +16335,11 @@
       <c r="G613">
         <v>86.96899999999999</v>
       </c>
-    </row>
-    <row r="614" spans="1:7">
+      <c r="H613">
+        <v>652.0984012205071</v>
+      </c>
+    </row>
+    <row r="614" spans="1:8">
       <c r="A614">
         <v>1701988724.491026</v>
       </c>
@@ -14519,8 +16361,11 @@
       <c r="G614">
         <v>87.11199999999999</v>
       </c>
-    </row>
-    <row r="615" spans="1:7">
+      <c r="H614">
+        <v>653.1660748094982</v>
+      </c>
+    </row>
+    <row r="615" spans="1:8">
       <c r="A615">
         <v>1701992568.096859</v>
       </c>
@@ -14542,8 +16387,11 @@
       <c r="G615">
         <v>87.072</v>
       </c>
-    </row>
-    <row r="616" spans="1:7">
+      <c r="H615">
+        <v>654.2337430963913</v>
+      </c>
+    </row>
+    <row r="616" spans="1:8">
       <c r="A616">
         <v>1701996411.719766</v>
       </c>
@@ -14565,8 +16413,11 @@
       <c r="G616">
         <v>86.581</v>
       </c>
-    </row>
-    <row r="617" spans="1:7">
+      <c r="H616">
+        <v>655.3014161262247</v>
+      </c>
+    </row>
+    <row r="617" spans="1:8">
       <c r="A617">
         <v>1702000255.41623</v>
       </c>
@@ -14588,8 +16439,11 @@
       <c r="G617">
         <v>86.197</v>
       </c>
-    </row>
-    <row r="618" spans="1:7">
+      <c r="H617">
+        <v>656.3691095883979</v>
+      </c>
+    </row>
+    <row r="618" spans="1:8">
       <c r="A618">
         <v>1702004099.112095</v>
       </c>
@@ -14611,8 +16465,11 @@
       <c r="G618">
         <v>85.523</v>
       </c>
-    </row>
-    <row r="619" spans="1:7">
+      <c r="H618">
+        <v>657.4368028842079</v>
+      </c>
+    </row>
+    <row r="619" spans="1:8">
       <c r="A619">
         <v>1702007942.732753</v>
       </c>
@@ -14634,8 +16491,11 @@
       <c r="G619">
         <v>84.907</v>
       </c>
-    </row>
-    <row r="620" spans="1:7">
+      <c r="H619">
+        <v>658.5044752891858</v>
+      </c>
+    </row>
+    <row r="620" spans="1:8">
       <c r="A620">
         <v>1702011786.238074</v>
       </c>
@@ -14657,8 +16517,11 @@
       <c r="G620">
         <v>84.441</v>
       </c>
-    </row>
-    <row r="621" spans="1:7">
+      <c r="H620">
+        <v>659.5721156560051</v>
+      </c>
+    </row>
+    <row r="621" spans="1:8">
       <c r="A621">
         <v>1702015629.980798</v>
       </c>
@@ -14680,8 +16543,11 @@
       <c r="G621">
         <v>83.947</v>
       </c>
-    </row>
-    <row r="622" spans="1:7">
+      <c r="H621">
+        <v>660.639821968476</v>
+      </c>
+    </row>
+    <row r="622" spans="1:8">
       <c r="A622">
         <v>1702019473.599233</v>
       </c>
@@ -14703,8 +16569,11 @@
       <c r="G622">
         <v>83.643</v>
       </c>
-    </row>
-    <row r="623" spans="1:7">
+      <c r="H622">
+        <v>661.7074937559498</v>
+      </c>
+    </row>
+    <row r="623" spans="1:8">
       <c r="A623">
         <v>1702023317.217185</v>
       </c>
@@ -14726,8 +16595,11 @@
       <c r="G623">
         <v>83.04300000000001</v>
       </c>
-    </row>
-    <row r="624" spans="1:7">
+      <c r="H623">
+        <v>662.7751654091146</v>
+      </c>
+    </row>
+    <row r="624" spans="1:8">
       <c r="A624">
         <v>1702027160.872072</v>
       </c>
@@ -14749,8 +16621,11 @@
       <c r="G624">
         <v>82.3</v>
       </c>
-    </row>
-    <row r="625" spans="1:7">
+      <c r="H624">
+        <v>663.8428473222256</v>
+      </c>
+    </row>
+    <row r="625" spans="1:8">
       <c r="A625">
         <v>1702031004.553139</v>
       </c>
@@ -14772,8 +16647,11 @@
       <c r="G625">
         <v>81.652</v>
       </c>
-    </row>
-    <row r="626" spans="1:7">
+      <c r="H625">
+        <v>664.910536507633</v>
+      </c>
+    </row>
+    <row r="626" spans="1:8">
       <c r="A626">
         <v>1702034848.140443</v>
       </c>
@@ -14795,8 +16673,11 @@
       <c r="G626">
         <v>81.08799999999999</v>
       </c>
-    </row>
-    <row r="627" spans="1:7">
+      <c r="H626">
+        <v>665.9781996474663</v>
+      </c>
+    </row>
+    <row r="627" spans="1:8">
       <c r="A627">
         <v>1702038691.683999</v>
       </c>
@@ -14818,8 +16699,11 @@
       <c r="G627">
         <v>80.84</v>
       </c>
-    </row>
-    <row r="628" spans="1:7">
+      <c r="H627">
+        <v>667.0458506353034</v>
+      </c>
+    </row>
+    <row r="628" spans="1:8">
       <c r="A628">
         <v>1702042535.278392</v>
       </c>
@@ -14841,8 +16725,11 @@
       <c r="G628">
         <v>80.72799999999999</v>
       </c>
-    </row>
-    <row r="629" spans="1:7">
+      <c r="H628">
+        <v>668.1135157445405</v>
+      </c>
+    </row>
+    <row r="629" spans="1:8">
       <c r="A629">
         <v>1702046378.920446</v>
       </c>
@@ -14864,8 +16751,11 @@
       <c r="G629">
         <v>80.71599999999999</v>
       </c>
-    </row>
-    <row r="630" spans="1:7">
+      <c r="H629">
+        <v>669.1811940928962</v>
+      </c>
+    </row>
+    <row r="630" spans="1:8">
       <c r="A630">
         <v>1702050222.518331</v>
       </c>
@@ -14887,8 +16777,11 @@
       <c r="G630">
         <v>80.35299999999999</v>
       </c>
-    </row>
-    <row r="631" spans="1:7">
+      <c r="H630">
+        <v>670.2488601718346</v>
+      </c>
+    </row>
+    <row r="631" spans="1:8">
       <c r="A631">
         <v>1702054066.175467</v>
       </c>
@@ -14910,8 +16803,11 @@
       <c r="G631">
         <v>79.78</v>
       </c>
-    </row>
-    <row r="632" spans="1:7">
+      <c r="H631">
+        <v>671.3165427097347</v>
+      </c>
+    </row>
+    <row r="632" spans="1:8">
       <c r="A632">
         <v>1702057909.812592</v>
       </c>
@@ -14933,8 +16829,11 @@
       <c r="G632">
         <v>79.343</v>
       </c>
-    </row>
-    <row r="633" spans="1:7">
+      <c r="H632">
+        <v>672.3842196887731</v>
+      </c>
+    </row>
+    <row r="633" spans="1:8">
       <c r="A633">
         <v>1702061753.526134</v>
       </c>
@@ -14956,8 +16855,11 @@
       <c r="G633">
         <v>78.89400000000001</v>
       </c>
-    </row>
-    <row r="634" spans="1:7">
+      <c r="H633">
+        <v>673.4519178950125</v>
+      </c>
+    </row>
+    <row r="634" spans="1:8">
       <c r="A634">
         <v>1702065597.091458</v>
       </c>
@@ -14979,8 +16881,11 @@
       <c r="G634">
         <v>78.697</v>
       </c>
-    </row>
-    <row r="635" spans="1:7">
+      <c r="H634">
+        <v>674.519574929542</v>
+      </c>
+    </row>
+    <row r="635" spans="1:8">
       <c r="A635">
         <v>1702069440.711346</v>
       </c>
@@ -15002,8 +16907,11 @@
       <c r="G635">
         <v>78.3</v>
       </c>
-    </row>
-    <row r="636" spans="1:7">
+      <c r="H635">
+        <v>675.5872471205394</v>
+      </c>
+    </row>
+    <row r="636" spans="1:8">
       <c r="A636">
         <v>1702073284.383473</v>
       </c>
@@ -15025,8 +16933,11 @@
       <c r="G636">
         <v>77.556</v>
       </c>
-    </row>
-    <row r="637" spans="1:7">
+      <c r="H636">
+        <v>676.6549338225524</v>
+      </c>
+    </row>
+    <row r="637" spans="1:8">
       <c r="A637">
         <v>1702077127.752914</v>
       </c>
@@ -15048,8 +16959,11 @@
       <c r="G637">
         <v>77.27</v>
       </c>
-    </row>
-    <row r="638" spans="1:7">
+      <c r="H637">
+        <v>677.7225364449289</v>
+      </c>
+    </row>
+    <row r="638" spans="1:8">
       <c r="A638">
         <v>1702080970.985064</v>
       </c>
@@ -15071,8 +16985,11 @@
       <c r="G638">
         <v>77.111</v>
       </c>
-    </row>
-    <row r="639" spans="1:7">
+      <c r="H638">
+        <v>678.7901009311279</v>
+      </c>
+    </row>
+    <row r="639" spans="1:8">
       <c r="A639">
         <v>1702084814.293252</v>
       </c>
@@ -15094,8 +17011,11 @@
       <c r="G639">
         <v>76.86199999999999</v>
       </c>
-    </row>
-    <row r="640" spans="1:7">
+      <c r="H639">
+        <v>679.8576865390274</v>
+      </c>
+    </row>
+    <row r="640" spans="1:8">
       <c r="A640">
         <v>1702088657.523773</v>
       </c>
@@ -15117,8 +17037,11 @@
       <c r="G640">
         <v>76.49299999999999</v>
       </c>
-    </row>
-    <row r="641" spans="1:7">
+      <c r="H640">
+        <v>680.9252505725622</v>
+      </c>
+    </row>
+    <row r="641" spans="1:8">
       <c r="A641">
         <v>1702092500.736547</v>
       </c>
@@ -15140,8 +17063,11 @@
       <c r="G641">
         <v>76.11799999999999</v>
       </c>
-    </row>
-    <row r="642" spans="1:7">
+      <c r="H641">
+        <v>681.9928096762631</v>
+      </c>
+    </row>
+    <row r="642" spans="1:8">
       <c r="A642">
         <v>1702096343.950789</v>
       </c>
@@ -15163,8 +17089,11 @@
       <c r="G642">
         <v>75.456</v>
       </c>
-    </row>
-    <row r="643" spans="1:7">
+      <c r="H642">
+        <v>683.0603691880571</v>
+      </c>
+    </row>
+    <row r="643" spans="1:8">
       <c r="A643">
         <v>1702100187.18522</v>
       </c>
@@ -15186,8 +17115,11 @@
       <c r="G643">
         <v>74.61499999999999</v>
       </c>
-    </row>
-    <row r="644" spans="1:7">
+      <c r="H643">
+        <v>684.1279343077209</v>
+      </c>
+    </row>
+    <row r="644" spans="1:8">
       <c r="A644">
         <v>1702104030.462385</v>
       </c>
@@ -15209,8 +17141,11 @@
       <c r="G644">
         <v>73.821</v>
       </c>
-    </row>
-    <row r="645" spans="1:7">
+      <c r="H644">
+        <v>685.1955112981797</v>
+      </c>
+    </row>
+    <row r="645" spans="1:8">
       <c r="A645">
         <v>1702107873.726712</v>
       </c>
@@ -15232,8 +17167,11 @@
       <c r="G645">
         <v>72.949</v>
       </c>
-    </row>
-    <row r="646" spans="1:7">
+      <c r="H645">
+        <v>686.2630847220951</v>
+      </c>
+    </row>
+    <row r="646" spans="1:8">
       <c r="A646">
         <v>1702111716.973868</v>
       </c>
@@ -15255,8 +17193,11 @@
       <c r="G646">
         <v>72.294</v>
       </c>
-    </row>
-    <row r="647" spans="1:7">
+      <c r="H646">
+        <v>687.3306533766455</v>
+      </c>
+    </row>
+    <row r="647" spans="1:8">
       <c r="A647">
         <v>1702115560.2281</v>
       </c>
@@ -15278,8 +17219,11 @@
       <c r="G647">
         <v>71.59099999999999</v>
       </c>
-    </row>
-    <row r="648" spans="1:7">
+      <c r="H647">
+        <v>688.3982239966922</v>
+      </c>
+    </row>
+    <row r="648" spans="1:8">
       <c r="A648">
         <v>1702119403.520345</v>
       </c>
@@ -15301,8 +17245,11 @@
       <c r="G648">
         <v>70.874</v>
       </c>
-    </row>
-    <row r="649" spans="1:7">
+      <c r="H648">
+        <v>689.4658051758342</v>
+      </c>
+    </row>
+    <row r="649" spans="1:8">
       <c r="A649">
         <v>1702123246.735556</v>
       </c>
@@ -15324,8 +17271,11 @@
       <c r="G649">
         <v>70.142</v>
       </c>
-    </row>
-    <row r="650" spans="1:7">
+      <c r="H649">
+        <v>690.5333649565777</v>
+      </c>
+    </row>
+    <row r="650" spans="1:8">
       <c r="A650">
         <v>1702127089.972544</v>
       </c>
@@ -15347,8 +17297,11 @@
       <c r="G650">
         <v>69.631</v>
       </c>
-    </row>
-    <row r="651" spans="1:7">
+      <c r="H650">
+        <v>691.6009307865965</v>
+      </c>
+    </row>
+    <row r="651" spans="1:8">
       <c r="A651">
         <v>1702130933.204179</v>
       </c>
@@ -15370,8 +17323,11 @@
       <c r="G651">
         <v>69.11799999999999</v>
       </c>
-    </row>
-    <row r="652" spans="1:7">
+      <c r="H651">
+        <v>692.6684951297442</v>
+      </c>
+    </row>
+    <row r="652" spans="1:8">
       <c r="A652">
         <v>1702134776.495576</v>
       </c>
@@ -15393,8 +17349,11 @@
       <c r="G652">
         <v>68.703</v>
       </c>
-    </row>
-    <row r="653" spans="1:7">
+      <c r="H652">
+        <v>693.7360760733154</v>
+      </c>
+    </row>
+    <row r="653" spans="1:8">
       <c r="A653">
         <v>1702138619.701218</v>
       </c>
@@ -15416,8 +17375,11 @@
       <c r="G653">
         <v>68.197</v>
       </c>
-    </row>
-    <row r="654" spans="1:7">
+      <c r="H653">
+        <v>694.8036331960228</v>
+      </c>
+    </row>
+    <row r="654" spans="1:8">
       <c r="A654">
         <v>1702142462.969093</v>
       </c>
@@ -15439,8 +17401,11 @@
       <c r="G654">
         <v>67.661</v>
       </c>
-    </row>
-    <row r="655" spans="1:7">
+      <c r="H654">
+        <v>695.871207605799</v>
+      </c>
+    </row>
+    <row r="655" spans="1:8">
       <c r="A655">
         <v>1702146306.269522</v>
       </c>
@@ -15462,8 +17427,11 @@
       <c r="G655">
         <v>67.236</v>
       </c>
-    </row>
-    <row r="656" spans="1:7">
+      <c r="H655">
+        <v>696.9387910583284</v>
+      </c>
+    </row>
+    <row r="656" spans="1:8">
       <c r="A656">
         <v>1702150149.560971</v>
       </c>
@@ -15485,8 +17453,11 @@
       <c r="G656">
         <v>66.837</v>
       </c>
-    </row>
-    <row r="657" spans="1:7">
+      <c r="H656">
+        <v>698.0063720165359</v>
+      </c>
+    </row>
+    <row r="657" spans="1:8">
       <c r="A657">
         <v>1702153992.815306</v>
       </c>
@@ -15508,8 +17479,11 @@
       <c r="G657">
         <v>66.54600000000001</v>
       </c>
-    </row>
-    <row r="658" spans="1:7">
+      <c r="H657">
+        <v>699.0739426650604</v>
+      </c>
+    </row>
+    <row r="658" spans="1:8">
       <c r="A658">
         <v>1702157836.072154</v>
       </c>
@@ -15531,8 +17505,11 @@
       <c r="G658">
         <v>66.33499999999999</v>
       </c>
-    </row>
-    <row r="659" spans="1:7">
+      <c r="H658">
+        <v>700.1415140117539</v>
+      </c>
+    </row>
+    <row r="659" spans="1:8">
       <c r="A659">
         <v>1702161679.288429</v>
       </c>
@@ -15554,8 +17531,11 @@
       <c r="G659">
         <v>65.907</v>
       </c>
-    </row>
-    <row r="660" spans="1:7">
+      <c r="H659">
+        <v>701.2090740882026</v>
+      </c>
+    </row>
+    <row r="660" spans="1:8">
       <c r="A660">
         <v>1702165522.528232</v>
       </c>
@@ -15577,8 +17557,11 @@
       <c r="G660">
         <v>65.596</v>
       </c>
-    </row>
-    <row r="661" spans="1:7">
+      <c r="H660">
+        <v>702.2766407000356</v>
+      </c>
+    </row>
+    <row r="661" spans="1:8">
       <c r="A661">
         <v>1702169365.791167</v>
       </c>
@@ -15600,8 +17583,11 @@
       <c r="G661">
         <v>65.229</v>
       </c>
-    </row>
-    <row r="662" spans="1:7">
+      <c r="H661">
+        <v>703.3442137375805</v>
+      </c>
+    </row>
+    <row r="662" spans="1:8">
       <c r="A662">
         <v>1702173209.08646</v>
       </c>
@@ -15623,8 +17609,11 @@
       <c r="G662">
         <v>64.816</v>
       </c>
-    </row>
-    <row r="663" spans="1:7">
+      <c r="H662">
+        <v>704.4117957633733</v>
+      </c>
+    </row>
+    <row r="663" spans="1:8">
       <c r="A663">
         <v>1702177052.346791</v>
       </c>
@@ -15646,8 +17635,11 @@
       <c r="G663">
         <v>64.358</v>
       </c>
-    </row>
-    <row r="664" spans="1:7">
+      <c r="H663">
+        <v>705.4793680773842</v>
+      </c>
+    </row>
+    <row r="664" spans="1:8">
       <c r="A664">
         <v>1702180895.647856</v>
       </c>
@@ -15669,8 +17661,11 @@
       <c r="G664">
         <v>63.932</v>
       </c>
-    </row>
-    <row r="665" spans="1:7">
+      <c r="H664">
+        <v>706.5469517068068</v>
+      </c>
+    </row>
+    <row r="665" spans="1:8">
       <c r="A665">
         <v>1702184738.872957</v>
       </c>
@@ -15692,8 +17687,11 @@
       <c r="G665">
         <v>63.455</v>
       </c>
-    </row>
-    <row r="666" spans="1:7">
+      <c r="H665">
+        <v>707.6145142345958</v>
+      </c>
+    </row>
+    <row r="666" spans="1:8">
       <c r="A666">
         <v>1702188582.123333</v>
       </c>
@@ -15715,8 +17713,11 @@
       <c r="G666">
         <v>63.114</v>
       </c>
-    </row>
-    <row r="667" spans="1:7">
+      <c r="H666">
+        <v>708.6820837834808</v>
+      </c>
+    </row>
+    <row r="667" spans="1:8">
       <c r="A667">
         <v>1702192425.441146</v>
       </c>
@@ -15738,8 +17739,11 @@
       <c r="G667">
         <v>62.494</v>
       </c>
-    </row>
-    <row r="668" spans="1:7">
+      <c r="H667">
+        <v>709.7496720649799</v>
+      </c>
+    </row>
+    <row r="668" spans="1:8">
       <c r="A668">
         <v>1702196268.726235</v>
       </c>
@@ -15761,8 +17765,11 @@
       <c r="G668">
         <v>61.838</v>
       </c>
-    </row>
-    <row r="669" spans="1:7">
+      <c r="H668">
+        <v>710.8172512563732</v>
+      </c>
+    </row>
+    <row r="669" spans="1:8">
       <c r="A669">
         <v>1702200111.977816</v>
       </c>
@@ -15784,8 +17791,11 @@
       <c r="G669">
         <v>61.057</v>
       </c>
-    </row>
-    <row r="670" spans="1:7">
+      <c r="H669">
+        <v>711.8848211400376</v>
+      </c>
+    </row>
+    <row r="670" spans="1:8">
       <c r="A670">
         <v>1702203955.249864</v>
       </c>
@@ -15807,8 +17817,11 @@
       <c r="G670">
         <v>60.466</v>
       </c>
-    </row>
-    <row r="671" spans="1:7">
+      <c r="H670">
+        <v>712.9523967089256</v>
+      </c>
+    </row>
+    <row r="671" spans="1:8">
       <c r="A671">
         <v>1702207798.471914</v>
       </c>
@@ -15830,8 +17843,11 @@
       <c r="G671">
         <v>59.81</v>
       </c>
-    </row>
-    <row r="672" spans="1:7">
+      <c r="H671">
+        <v>714.0199583893352</v>
+      </c>
+    </row>
+    <row r="672" spans="1:8">
       <c r="A672">
         <v>1702211641.664172</v>
       </c>
@@ -15853,8 +17869,11 @@
       <c r="G672">
         <v>59.301</v>
       </c>
-    </row>
-    <row r="673" spans="1:7">
+      <c r="H672">
+        <v>715.0875117943684</v>
+      </c>
+    </row>
+    <row r="673" spans="1:8">
       <c r="A673">
         <v>1702215484.919188</v>
       </c>
@@ -15876,8 +17895,11 @@
       <c r="G673">
         <v>58.7</v>
       </c>
-    </row>
-    <row r="674" spans="1:7">
+      <c r="H673">
+        <v>716.1550826321046</v>
+      </c>
+    </row>
+    <row r="674" spans="1:8">
       <c r="A674">
         <v>1702219328.232469</v>
       </c>
@@ -15899,8 +17921,11 @@
       <c r="G674">
         <v>58.156</v>
       </c>
-    </row>
-    <row r="675" spans="1:7">
+      <c r="H674">
+        <v>717.2226696547534</v>
+      </c>
+    </row>
+    <row r="675" spans="1:8">
       <c r="A675">
         <v>1702223171.49688</v>
       </c>
@@ -15922,8 +17947,11 @@
       <c r="G675">
         <v>57.732</v>
       </c>
-    </row>
-    <row r="676" spans="1:7">
+      <c r="H675">
+        <v>718.2902431021796</v>
+      </c>
+    </row>
+    <row r="676" spans="1:8">
       <c r="A676">
         <v>1702227014.794091</v>
       </c>
@@ -15945,8 +17973,11 @@
       <c r="G676">
         <v>57.296</v>
       </c>
-    </row>
-    <row r="677" spans="1:7">
+      <c r="H676">
+        <v>719.357825660838</v>
+      </c>
+    </row>
+    <row r="677" spans="1:8">
       <c r="A677">
         <v>1702230858.06048</v>
       </c>
@@ -15968,8 +17999,11 @@
       <c r="G677">
         <v>56.892</v>
       </c>
-    </row>
-    <row r="678" spans="1:7">
+      <c r="H677">
+        <v>720.4253996576865</v>
+      </c>
+    </row>
+    <row r="678" spans="1:8">
       <c r="A678">
         <v>1702234701.311792</v>
       </c>
@@ -15991,8 +18025,11 @@
       <c r="G678">
         <v>56.488</v>
       </c>
-    </row>
-    <row r="679" spans="1:7">
+      <c r="H678">
+        <v>721.4929694665802</v>
+      </c>
+    </row>
+    <row r="679" spans="1:8">
       <c r="A679">
         <v>1702238544.538096</v>
       </c>
@@ -16014,8 +18051,11 @@
       <c r="G679">
         <v>56.156</v>
       </c>
-    </row>
-    <row r="680" spans="1:7">
+      <c r="H679">
+        <v>722.5605323288175</v>
+      </c>
+    </row>
+    <row r="680" spans="1:8">
       <c r="A680">
         <v>1702242387.830615</v>
       </c>
@@ -16037,8 +18077,11 @@
       <c r="G680">
         <v>55.754</v>
       </c>
-    </row>
-    <row r="681" spans="1:7">
+      <c r="H680">
+        <v>723.6281135841873</v>
+      </c>
+    </row>
+    <row r="681" spans="1:8">
       <c r="A681">
         <v>1702246231.111767</v>
       </c>
@@ -16060,8 +18103,11 @@
       <c r="G681">
         <v>55.47</v>
       </c>
-    </row>
-    <row r="682" spans="1:7">
+      <c r="H681">
+        <v>724.6956916819016</v>
+      </c>
+    </row>
+    <row r="682" spans="1:8">
       <c r="A682">
         <v>1702250074.364943</v>
       </c>
@@ -16083,8 +18129,11 @@
       <c r="G682">
         <v>55.118</v>
       </c>
-    </row>
-    <row r="683" spans="1:7">
+      <c r="H682">
+        <v>725.763262008561</v>
+      </c>
+    </row>
+    <row r="683" spans="1:8">
       <c r="A683">
         <v>1702253917.600637</v>
       </c>
@@ -16106,8 +18155,11 @@
       <c r="G683">
         <v>54.772</v>
       </c>
-    </row>
-    <row r="684" spans="1:7">
+      <c r="H683">
+        <v>726.8308274792962</v>
+      </c>
+    </row>
+    <row r="684" spans="1:8">
       <c r="A684">
         <v>1702257760.866237</v>
       </c>
@@ -16129,8 +18181,11 @@
       <c r="G684">
         <v>54.46</v>
       </c>
-    </row>
-    <row r="685" spans="1:7">
+      <c r="H684">
+        <v>727.8984012569322</v>
+      </c>
+    </row>
+    <row r="685" spans="1:8">
       <c r="A685">
         <v>1702261604.112521</v>
       </c>
@@ -16152,8 +18207,11 @@
       <c r="G685">
         <v>54.021</v>
       </c>
-    </row>
-    <row r="686" spans="1:7">
+      <c r="H685">
+        <v>728.9659696692891</v>
+      </c>
+    </row>
+    <row r="686" spans="1:8">
       <c r="A686">
         <v>1702265447.421214</v>
       </c>
@@ -16175,8 +18233,11 @@
       <c r="G686">
         <v>53.689</v>
       </c>
-    </row>
-    <row r="687" spans="1:7">
+      <c r="H686">
+        <v>730.0335554171271</v>
+      </c>
+    </row>
+    <row r="687" spans="1:8">
       <c r="A687">
         <v>1702269290.645942</v>
       </c>
@@ -16198,8 +18259,11 @@
       <c r="G687">
         <v>53.269</v>
       </c>
-    </row>
-    <row r="688" spans="1:7">
+      <c r="H687">
+        <v>731.1011178416676</v>
+      </c>
+    </row>
+    <row r="688" spans="1:8">
       <c r="A688">
         <v>1702273133.865656</v>
       </c>
@@ -16220,6 +18284,9 @@
       </c>
       <c r="G688">
         <v>52.915</v>
+      </c>
+      <c r="H688">
+        <v>732.1686788732476</v>
       </c>
     </row>
   </sheetData>
